--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FED094-2659-49B2-AB4D-A98A7141EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754FAEF-771C-492A-8A77-F77EA442F3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="2385" windowWidth="13995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1281">
   <si>
     <t>Blaze Powder</t>
   </si>
@@ -885,9 +885,6 @@
     <t>pixelmon:protector</t>
   </si>
   <si>
-    <t>pixelmon:up-grade</t>
-  </si>
-  <si>
     <t>pixelmon:razor_fang</t>
   </si>
   <si>
@@ -3027,12 +3024,6 @@
     <t>pixelmon:draco_plate</t>
   </si>
   <si>
-    <t>Ranch Upgrade</t>
-  </si>
-  <si>
-    <t>pixelmon:ranch_upgrade</t>
-  </si>
-  <si>
     <t>Red Orb</t>
   </si>
   <si>
@@ -3639,18 +3630,6 @@
     <t>pixelmon:silver_bottle_cap</t>
   </si>
   <si>
-    <t>Isi's Golden Hourglass</t>
-  </si>
-  <si>
-    <t>Isi's Silver Hourglass</t>
-  </si>
-  <si>
-    <t>pixelmon:hourglass_gold</t>
-  </si>
-  <si>
-    <t>pixelmon:hourglass_silver</t>
-  </si>
-  <si>
     <t>Hiroku's Golden Lens</t>
   </si>
   <si>
@@ -3895,6 +3874,9 @@
   </si>
   <si>
     <t>minecraft:black_wool</t>
+  </si>
+  <si>
+    <t>pixelmon:up_grade</t>
   </si>
 </sst>
 </file>
@@ -4221,11 +4203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H583"/>
+  <dimension ref="A1:H580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C405" sqref="C405"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,7 +4223,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -4267,10 +4249,10 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>251</v>
@@ -4283,10 +4265,10 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>255</v>
@@ -4299,10 +4281,10 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>254</v>
@@ -4315,10 +4297,10 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>253</v>
@@ -4331,10 +4313,10 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>257</v>
@@ -4347,10 +4329,10 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>252</v>
@@ -4363,10 +4345,10 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>256</v>
@@ -4379,13 +4361,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1236</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -4395,13 +4377,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -4411,13 +4393,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1238</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -4427,13 +4409,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -4443,13 +4425,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1240</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -4459,13 +4441,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1241</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -4475,13 +4457,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1235</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -4491,10 +4473,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>221</v>
@@ -4505,10 +4487,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>213</v>
@@ -4519,10 +4501,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>204</v>
@@ -4533,10 +4515,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>241</v>
@@ -4547,10 +4529,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>237</v>
@@ -4561,10 +4543,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>201</v>
@@ -4575,10 +4557,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>202</v>
@@ -4589,10 +4571,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>242</v>
@@ -4603,10 +4585,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>231</v>
@@ -4617,10 +4599,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>234</v>
@@ -4631,10 +4613,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>240</v>
@@ -4645,10 +4627,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>220</v>
@@ -4659,10 +4641,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>209</v>
@@ -4673,10 +4655,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>210</v>
@@ -4687,13 +4669,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="1">
         <v>250</v>
@@ -4701,10 +4683,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>222</v>
@@ -4715,10 +4697,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>215</v>
@@ -4729,13 +4711,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" s="1">
         <v>250</v>
@@ -4743,7 +4725,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
@@ -4757,10 +4739,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>239</v>
@@ -4771,7 +4753,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>69</v>
@@ -4785,10 +4767,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>223</v>
@@ -4799,13 +4781,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E38" s="1">
         <v>250</v>
@@ -4813,10 +4795,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>238</v>
@@ -4827,10 +4809,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>232</v>
@@ -4841,10 +4823,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>244</v>
@@ -4855,7 +4837,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>67</v>
@@ -4869,10 +4851,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>218</v>
@@ -4883,10 +4865,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>200</v>
@@ -4897,10 +4879,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>214</v>
@@ -4911,10 +4893,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>206</v>
@@ -4925,10 +4907,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>224</v>
@@ -4939,10 +4921,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>245</v>
@@ -4953,13 +4935,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E49" s="1">
         <v>250</v>
@@ -4967,10 +4949,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>226</v>
@@ -4981,10 +4963,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>198</v>
@@ -4995,10 +4977,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>227</v>
@@ -5009,10 +4991,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>235</v>
@@ -5023,10 +5005,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>203</v>
@@ -5037,10 +5019,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>205</v>
@@ -5051,10 +5033,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>217</v>
@@ -5065,7 +5047,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -5079,10 +5061,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>208</v>
@@ -5093,7 +5075,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>68</v>
@@ -5107,10 +5089,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>199</v>
@@ -5121,10 +5103,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>229</v>
@@ -5135,10 +5117,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>243</v>
@@ -5149,13 +5131,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E63" s="1">
         <v>250</v>
@@ -5163,10 +5145,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>216</v>
@@ -5177,10 +5159,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>233</v>
@@ -5191,10 +5173,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>207</v>
@@ -5205,10 +5187,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>219</v>
@@ -5219,7 +5201,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>71</v>
@@ -5233,10 +5215,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>236</v>
@@ -5247,10 +5229,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>212</v>
@@ -5261,10 +5243,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>228</v>
@@ -5275,10 +5257,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>225</v>
@@ -5289,10 +5271,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>230</v>
@@ -5303,10 +5285,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>211</v>
@@ -5317,13 +5299,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75" s="1">
         <v>30000</v>
@@ -5331,13 +5313,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E76" s="1">
         <v>30000</v>
@@ -5345,13 +5327,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E77" s="1">
         <v>30000</v>
@@ -5359,10 +5341,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>278</v>
@@ -5373,10 +5355,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>279</v>
@@ -5387,7 +5369,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>81</v>
@@ -5401,10 +5383,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>281</v>
@@ -5415,10 +5397,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>280</v>
@@ -5429,13 +5411,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E83" s="1">
         <v>30000</v>
@@ -5443,13 +5425,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E84" s="1">
         <v>30000</v>
@@ -5457,13 +5439,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="E85" s="1">
         <v>30000</v>
@@ -5471,10 +5453,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>282</v>
@@ -5485,13 +5467,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E87" s="1">
         <v>30000</v>
@@ -5499,13 +5481,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E88" s="1">
         <v>30000</v>
@@ -5513,13 +5495,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E89" s="1">
         <v>30000</v>
@@ -5527,13 +5509,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="E90" s="1">
         <v>30000</v>
@@ -5541,13 +5523,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>1280</v>
       </c>
       <c r="E91" s="1">
         <v>30000</v>
@@ -5555,13 +5537,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="E92" s="1">
         <v>30000</v>
@@ -5569,10 +5551,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>264</v>
@@ -5583,13 +5565,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="E94" s="1">
         <v>25000</v>
@@ -5597,10 +5579,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>261</v>
@@ -5611,10 +5593,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>265</v>
@@ -5625,13 +5607,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="E97" s="1">
         <v>25000</v>
@@ -5639,10 +5621,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>259</v>
@@ -5653,13 +5635,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E99" s="1">
         <v>25000</v>
@@ -5667,13 +5649,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E100" s="1">
         <v>25000</v>
@@ -5681,10 +5663,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>258</v>
@@ -5695,13 +5677,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="E102" s="1">
         <v>25000</v>
@@ -5709,10 +5691,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>260</v>
@@ -5723,10 +5705,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>266</v>
@@ -5737,10 +5719,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>262</v>
@@ -5751,13 +5733,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="E106" s="1">
         <v>25000</v>
@@ -5765,10 +5747,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>263</v>
@@ -5779,13 +5761,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E108" s="1">
         <v>500</v>
@@ -5793,13 +5775,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E109" s="1">
         <v>500</v>
@@ -5807,13 +5789,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E110" s="1">
         <v>500</v>
@@ -5821,13 +5803,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E111" s="1">
         <v>500</v>
@@ -5835,13 +5817,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E112" s="1">
         <v>500</v>
@@ -5849,13 +5831,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E113" s="1">
         <v>500</v>
@@ -5863,13 +5845,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E114" s="1">
         <v>500</v>
@@ -5877,13 +5859,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E115" s="1">
         <v>500</v>
@@ -5891,13 +5873,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E116" s="1">
         <v>500</v>
@@ -5905,13 +5887,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E117" s="1">
         <v>500</v>
@@ -5919,13 +5901,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E118" s="1">
         <v>500</v>
@@ -5933,13 +5915,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="1">
         <v>500</v>
@@ -5947,13 +5929,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E120" s="1">
         <v>500</v>
@@ -5961,13 +5943,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E121" s="1">
         <v>500</v>
@@ -5975,13 +5957,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E122" s="1">
         <v>500</v>
@@ -5989,13 +5971,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E123" s="1">
         <v>500</v>
@@ -6003,13 +5985,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E124" s="1">
         <v>500</v>
@@ -6017,13 +5999,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E125" s="1">
         <v>500</v>
@@ -6031,10 +6013,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>249</v>
@@ -6046,10 +6028,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>247</v>
@@ -6061,10 +6043,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>250</v>
@@ -6076,10 +6058,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>248</v>
@@ -6091,10 +6073,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>246</v>
@@ -6106,7 +6088,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>188</v>
@@ -6123,7 +6105,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>197</v>
@@ -6140,7 +6122,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>189</v>
@@ -6157,7 +6139,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>190</v>
@@ -6174,7 +6156,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>191</v>
@@ -6191,7 +6173,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>192</v>
@@ -6208,7 +6190,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>193</v>
@@ -6225,7 +6207,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>194</v>
@@ -6242,7 +6224,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>195</v>
@@ -6259,7 +6241,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>196</v>
@@ -6276,13 +6258,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E141" s="1">
         <v>15000</v>
@@ -6290,13 +6272,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E142" s="1">
         <v>15000</v>
@@ -6304,13 +6286,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E143" s="1">
         <v>15000</v>
@@ -6318,13 +6300,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E144" s="1">
         <v>15000</v>
@@ -6332,13 +6314,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="E145" s="1">
         <v>15000</v>
@@ -6346,13 +6328,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E146" s="1">
         <v>15000</v>
@@ -6360,13 +6342,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E147" s="1">
         <v>15000</v>
@@ -6374,13 +6356,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E148" s="1">
         <v>15000</v>
@@ -6388,13 +6370,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E149" s="1">
         <v>15000</v>
@@ -6402,13 +6384,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E150" s="1">
         <v>15000</v>
@@ -6416,13 +6398,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E151" s="1">
         <v>15000</v>
@@ -6430,10 +6412,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>276</v>
@@ -6444,13 +6426,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E153" s="1">
         <v>15000</v>
@@ -6458,10 +6440,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>268</v>
@@ -6472,10 +6454,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>269</v>
@@ -6486,10 +6468,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>270</v>
@@ -6500,13 +6482,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E157" s="1">
         <v>15000</v>
@@ -6514,7 +6496,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>82</v>
@@ -6528,13 +6510,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E159" s="1">
         <v>15000</v>
@@ -6542,13 +6524,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E160" s="1">
         <v>15000</v>
@@ -6556,13 +6538,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E161" s="1">
         <v>15000</v>
@@ -6570,13 +6552,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E162" s="1">
         <v>15000</v>
@@ -6584,13 +6566,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E163" s="1">
         <v>15000</v>
@@ -6598,13 +6580,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E164" s="1">
         <v>15000</v>
@@ -6612,13 +6594,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E165" s="1">
         <v>15000</v>
@@ -6626,13 +6608,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E166" s="1">
         <v>15000</v>
@@ -6640,13 +6622,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E167" s="1">
         <v>15000</v>
@@ -6654,13 +6636,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E168" s="1">
         <v>15000</v>
@@ -6668,13 +6650,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E169" s="1">
         <v>15000</v>
@@ -6682,13 +6664,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E170" s="1">
         <v>15000</v>
@@ -6696,13 +6678,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E171" s="1">
         <v>15000</v>
@@ -6710,13 +6692,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E172" s="1">
         <v>15000</v>
@@ -6724,13 +6706,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E173" s="1">
         <v>15000</v>
@@ -6738,13 +6720,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E174" s="1">
         <v>15000</v>
@@ -6752,13 +6734,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E175" s="1">
         <v>15000</v>
@@ -6766,13 +6748,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E176" s="1">
         <v>15000</v>
@@ -6780,10 +6762,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>274</v>
@@ -6794,13 +6776,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E178" s="1">
         <v>25000</v>
@@ -6808,13 +6790,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E179" s="1">
         <v>15000</v>
@@ -6822,13 +6804,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E180" s="1">
         <v>15000</v>
@@ -6836,13 +6818,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E181" s="1">
         <v>15000</v>
@@ -6850,13 +6832,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E182" s="1">
         <v>15000</v>
@@ -6864,13 +6846,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E183" s="1">
         <v>15000</v>
@@ -6878,13 +6860,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E184" s="1">
         <v>15000</v>
@@ -6892,13 +6874,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E185" s="1">
         <v>15000</v>
@@ -6906,10 +6888,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>277</v>
@@ -6920,13 +6902,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E187" s="1">
         <v>15000</v>
@@ -6934,13 +6916,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E188" s="1">
         <v>15000</v>
@@ -6948,13 +6930,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="E189" s="1">
         <v>15000</v>
@@ -6962,13 +6944,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E190" s="1">
         <v>15000</v>
@@ -6976,13 +6958,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E191" s="1">
         <v>15000</v>
@@ -6990,13 +6972,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E192" s="1">
         <v>15000</v>
@@ -7004,13 +6986,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E193" s="1">
         <v>15000</v>
@@ -7018,13 +7000,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E194" s="1">
         <v>15000</v>
@@ -7032,13 +7014,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E195" s="1">
         <v>15000</v>
@@ -7046,13 +7028,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E196" s="1">
         <v>15000</v>
@@ -7060,13 +7042,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E197" s="1">
         <v>15000</v>
@@ -7074,13 +7056,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E198" s="1">
         <v>15000</v>
@@ -7088,13 +7070,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E199" s="1">
         <v>15000</v>
@@ -7102,13 +7084,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E200" s="1">
         <v>15000</v>
@@ -7116,13 +7098,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E201" s="1">
         <v>15000</v>
@@ -7130,13 +7112,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E202" s="1">
         <v>15000</v>
@@ -7144,13 +7126,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E203" s="1">
         <v>15000</v>
@@ -7158,13 +7140,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E204" s="1">
         <v>15000</v>
@@ -7172,13 +7154,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E205" s="1">
         <v>15000</v>
@@ -7186,10 +7168,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>275</v>
@@ -7200,13 +7182,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E207" s="1">
         <v>15000</v>
@@ -7214,13 +7196,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E208" s="1">
         <v>15000</v>
@@ -7228,10 +7210,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>272</v>
@@ -7242,13 +7224,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E210" s="1">
         <v>15000</v>
@@ -7256,13 +7238,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E211" s="1">
         <v>15000</v>
@@ -7270,13 +7252,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E212" s="1">
         <v>15000</v>
@@ -7284,10 +7266,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>271</v>
@@ -7298,13 +7280,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E214" s="1">
         <v>15000</v>
@@ -7312,13 +7294,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E215" s="1">
         <v>15000</v>
@@ -7326,13 +7308,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E216" s="1">
         <v>15000</v>
@@ -7340,13 +7322,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E217" s="1">
         <v>15000</v>
@@ -7354,13 +7336,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E218" s="1">
         <v>15000</v>
@@ -7368,13 +7350,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E219" s="1">
         <v>15000</v>
@@ -7382,13 +7364,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E220" s="1">
         <v>15000</v>
@@ -7396,13 +7378,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E221" s="1">
         <v>15000</v>
@@ -7410,13 +7392,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E222" s="1">
         <v>15000</v>
@@ -7424,10 +7406,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>273</v>
@@ -7438,13 +7420,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E224" s="1">
         <v>15000</v>
@@ -7452,13 +7434,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E225" s="1">
         <v>15000</v>
@@ -7466,13 +7448,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E226" s="1">
         <v>10000</v>
@@ -7480,13 +7462,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E227" s="1">
         <v>10000</v>
@@ -7494,13 +7476,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E228" s="1">
         <v>10000</v>
@@ -7508,13 +7490,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E229" s="1">
         <v>10000</v>
@@ -7522,13 +7504,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E230" s="1">
         <v>10000</v>
@@ -7536,13 +7518,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E231" s="1">
         <v>10000</v>
@@ -7550,13 +7532,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E232" s="1">
         <v>10000</v>
@@ -7564,13 +7546,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E233" s="1">
         <v>10000</v>
@@ -7578,13 +7560,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E234" s="1">
         <v>10000</v>
@@ -7592,7 +7574,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>50</v>
@@ -7606,13 +7588,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E236" s="1">
         <v>425000</v>
@@ -7620,13 +7602,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E237" s="1">
         <v>75000</v>
@@ -7634,13 +7616,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E238" s="1">
         <v>25000</v>
@@ -7648,13 +7630,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E239" s="1">
         <v>50000</v>
@@ -7662,13 +7644,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E240" s="1">
         <v>50000</v>
@@ -7676,13 +7658,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="E241" s="1">
         <v>300000</v>
@@ -7690,13 +7672,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E242" s="1">
         <v>50000</v>
@@ -7704,13 +7686,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E243" s="1">
         <v>75000</v>
@@ -7718,13 +7700,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E244" s="1">
         <v>50000</v>
@@ -7732,13 +7714,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E245" s="1">
         <v>50000</v>
@@ -7746,13 +7728,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E246" s="1">
         <v>50000</v>
@@ -7760,13 +7742,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E247" s="1">
         <v>50000</v>
@@ -7774,13 +7756,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="E248" s="1">
         <v>75000</v>
@@ -7788,13 +7770,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E249" s="1">
         <v>50000</v>
@@ -7802,13 +7784,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E250" s="1">
         <v>50000</v>
@@ -7816,13 +7798,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E251" s="1">
         <v>50000</v>
@@ -7830,13 +7812,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="E252" s="1">
         <v>75000</v>
@@ -7844,13 +7826,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E253" s="1">
         <v>50000</v>
@@ -7858,13 +7840,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="E254" s="1">
         <v>25000</v>
@@ -7872,13 +7854,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E255" s="1">
         <v>50000</v>
@@ -7886,7 +7868,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>53</v>
@@ -7900,13 +7882,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E257" s="1">
         <v>50000</v>
@@ -7914,13 +7896,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E258" s="1">
         <v>50000</v>
@@ -7928,13 +7910,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E259" s="1">
         <v>250000</v>
@@ -7942,13 +7924,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E260" s="1">
         <v>75000</v>
@@ -7956,13 +7938,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="E261" s="1">
         <v>75000</v>
@@ -7970,13 +7952,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E262" s="1">
         <v>75000</v>
@@ -7984,13 +7966,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E263" s="1">
         <v>75000</v>
@@ -7998,7 +7980,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>48</v>
@@ -8012,13 +7994,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E265" s="1">
         <v>50000</v>
@@ -8026,13 +8008,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E266" s="1">
         <v>75000</v>
@@ -8040,13 +8022,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E267" s="1">
         <v>50000</v>
@@ -8054,13 +8036,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E268" s="1">
         <v>75000</v>
@@ -8068,13 +8050,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E269" s="1">
         <v>75000</v>
@@ -8082,13 +8064,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E270" s="1">
         <v>50000</v>
@@ -8096,13 +8078,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="E271" s="1">
         <v>75000</v>
@@ -8110,13 +8092,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E272" s="1">
         <v>75000</v>
@@ -8124,13 +8106,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E273" s="1">
         <v>50000</v>
@@ -8138,13 +8120,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E274" s="1">
         <v>50000</v>
@@ -8152,13 +8134,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="E275" s="1">
         <v>300000</v>
@@ -8166,13 +8148,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E276" s="1">
         <v>75000</v>
@@ -8180,13 +8162,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E277" s="1">
         <v>50000</v>
@@ -8194,13 +8176,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E278" s="1">
         <v>50000</v>
@@ -8208,13 +8190,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E279" s="1">
         <v>50000</v>
@@ -8222,13 +8204,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>1024</v>
-      </c>
       <c r="C280" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E280" s="1">
         <v>50000</v>
@@ -8236,13 +8218,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E281" s="1">
         <v>50000</v>
@@ -8250,13 +8232,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E282" s="1">
         <v>50000</v>
@@ -8264,13 +8246,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E283" s="1">
         <v>50000</v>
@@ -8278,13 +8260,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E284" s="1">
         <v>50000</v>
@@ -8292,13 +8274,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E285" s="1">
         <v>50000</v>
@@ -8306,13 +8288,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E286" s="1">
         <v>50000</v>
@@ -8320,13 +8302,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E287" s="1">
         <v>50000</v>
@@ -8334,13 +8316,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E288" s="1">
         <v>50000</v>
@@ -8348,13 +8330,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E289" s="1">
         <v>50000</v>
@@ -8362,13 +8344,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E290" s="1">
         <v>50000</v>
@@ -8376,13 +8358,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E291" s="1">
         <v>50000</v>
@@ -8390,13 +8372,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E292" s="1">
         <v>50000</v>
@@ -8404,13 +8386,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E293" s="1">
         <v>50000</v>
@@ -8418,13 +8400,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E294" s="1">
         <v>50000</v>
@@ -8432,13 +8414,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E295" s="1">
         <v>50000</v>
@@ -8446,13 +8428,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E296" s="1">
         <v>50000</v>
@@ -8460,13 +8442,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E297" s="1">
         <v>50000</v>
@@ -8474,13 +8456,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E298" s="1">
         <v>50000</v>
@@ -8488,13 +8470,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E299" s="1">
         <v>50000</v>
@@ -8502,13 +8484,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E300" s="1">
         <v>50000</v>
@@ -8516,13 +8498,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E301" s="1">
         <v>50000</v>
@@ -8530,13 +8512,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E302" s="1">
         <v>50000</v>
@@ -8544,13 +8526,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E303" s="1">
         <v>50000</v>
@@ -8558,13 +8540,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E304" s="1">
         <v>50000</v>
@@ -8572,13 +8554,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E305" s="1">
         <v>50000</v>
@@ -8586,13 +8568,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E306" s="1">
         <v>50000</v>
@@ -8600,13 +8582,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E307" s="1">
         <v>50000</v>
@@ -8614,13 +8596,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E308" s="1">
         <v>50000</v>
@@ -8628,13 +8610,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E309" s="1">
         <v>50000</v>
@@ -8642,13 +8624,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E310" s="1">
         <v>50000</v>
@@ -8656,13 +8638,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E311" s="1">
         <v>50000</v>
@@ -8670,13 +8652,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E312" s="1">
         <v>50000</v>
@@ -8684,13 +8666,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E313" s="1">
         <v>50000</v>
@@ -8698,13 +8680,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E314" s="1">
         <v>50000</v>
@@ -8712,13 +8694,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E315" s="1">
         <v>50000</v>
@@ -8726,13 +8708,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E316" s="1">
         <v>50000</v>
@@ -8740,13 +8722,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E317" s="1">
         <v>50000</v>
@@ -8754,13 +8736,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E318" s="1">
         <v>50000</v>
@@ -8768,13 +8750,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E319" s="1">
         <v>50000</v>
@@ -8782,13 +8764,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E320" s="1">
         <v>50000</v>
@@ -8796,13 +8778,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E321" s="1">
         <v>50000</v>
@@ -8810,13 +8792,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E322" s="1">
         <v>50000</v>
@@ -8824,13 +8806,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E323" s="1">
         <v>50000</v>
@@ -8838,13 +8820,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E324" s="1">
         <v>50000</v>
@@ -8852,7 +8834,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>14</v>
@@ -8866,7 +8848,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>173</v>
@@ -8880,7 +8862,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>0</v>
@@ -8894,7 +8876,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>23</v>
@@ -8908,7 +8890,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1</v>
@@ -8922,7 +8904,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>114</v>
@@ -8936,7 +8918,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>115</v>
@@ -8950,7 +8932,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>117</v>
@@ -8964,7 +8946,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>119</v>
@@ -8978,7 +8960,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -8992,7 +8974,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>120</v>
@@ -9006,7 +8988,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>112</v>
@@ -9023,7 +9005,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>95</v>
@@ -9040,13 +9022,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="E338" s="1">
         <v>100</v>
@@ -9057,13 +9039,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="E339" s="1">
         <v>100</v>
@@ -9074,7 +9056,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>97</v>
@@ -9091,7 +9073,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>103</v>
@@ -9108,7 +9090,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>96</v>
@@ -9125,7 +9107,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>123</v>
@@ -9139,13 +9121,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="F344" s="1">
         <v>50</v>
@@ -9153,13 +9135,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="F345" s="1">
         <v>10</v>
@@ -9167,13 +9149,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F346" s="1">
         <v>10</v>
@@ -9181,13 +9163,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="F347" s="1">
         <v>10</v>
@@ -9195,7 +9177,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>2</v>
@@ -9209,7 +9191,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>3</v>
@@ -9223,7 +9205,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>4</v>
@@ -9237,7 +9219,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
@@ -9251,13 +9233,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F352" s="1">
         <v>50</v>
@@ -9265,13 +9247,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="F353" s="1">
         <v>50</v>
@@ -9279,13 +9261,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F354" s="1">
         <v>50</v>
@@ -9293,13 +9275,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="F355" s="1">
         <v>50</v>
@@ -9307,7 +9289,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>6</v>
@@ -9321,7 +9303,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>124</v>
@@ -9335,7 +9317,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>7</v>
@@ -9349,7 +9331,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>125</v>
@@ -9363,7 +9345,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>126</v>
@@ -9377,7 +9359,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>9</v>
@@ -9391,7 +9373,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>10</v>
@@ -9405,7 +9387,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>172</v>
@@ -9419,7 +9401,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>16</v>
@@ -9433,7 +9415,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>127</v>
@@ -9447,7 +9429,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>128</v>
@@ -9461,7 +9443,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>129</v>
@@ -9475,7 +9457,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>17</v>
@@ -9489,7 +9471,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>171</v>
@@ -9503,7 +9485,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>18</v>
@@ -9517,7 +9499,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>12</v>
@@ -9531,7 +9513,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>13</v>
@@ -9545,7 +9527,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>130</v>
@@ -9559,13 +9541,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F374" s="1">
         <v>10</v>
@@ -9573,7 +9555,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>20</v>
@@ -9587,7 +9569,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>132</v>
@@ -9601,7 +9583,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>21</v>
@@ -9615,7 +9597,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>133</v>
@@ -9629,13 +9611,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="F379" s="1">
         <v>10</v>
@@ -9643,7 +9625,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>134</v>
@@ -9657,7 +9639,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>22</v>
@@ -9671,7 +9653,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>98</v>
@@ -9685,7 +9667,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>135</v>
@@ -9699,7 +9681,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>137</v>
@@ -9713,13 +9695,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="F385" s="1">
         <v>10</v>
@@ -9727,7 +9709,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>138</v>
@@ -9741,13 +9723,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="F387" s="1">
         <v>50</v>
@@ -9755,13 +9737,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="F388" s="1">
         <v>50</v>
@@ -9769,13 +9751,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="F389" s="1">
         <v>50</v>
@@ -9783,13 +9765,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="F390" s="1">
         <v>50</v>
@@ -9797,13 +9779,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="F391" s="1">
         <v>50</v>
@@ -9811,13 +9793,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="F392" s="1">
         <v>50</v>
@@ -9825,13 +9807,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="F393" s="1">
         <v>50</v>
@@ -9839,13 +9821,13 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="F394" s="1">
         <v>50</v>
@@ -9853,13 +9835,13 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="F395" s="1">
         <v>50</v>
@@ -9867,13 +9849,13 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="F396" s="1">
         <v>50</v>
@@ -9881,13 +9863,13 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="F397" s="1">
         <v>50</v>
@@ -9895,13 +9877,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="F398" s="1">
         <v>50</v>
@@ -9909,13 +9891,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="F399" s="1">
         <v>50</v>
@@ -9923,13 +9905,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="F400" s="1">
         <v>50</v>
@@ -9937,13 +9919,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="F401" s="1">
         <v>50</v>
@@ -9951,13 +9933,13 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="F402" s="1">
         <v>50</v>
@@ -9965,13 +9947,13 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E403" s="1">
         <v>25000</v>
@@ -9979,13 +9961,13 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E404" s="1">
         <v>25000</v>
@@ -9993,13 +9975,13 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E405" s="1">
         <v>25000</v>
@@ -10007,13 +9989,13 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E406" s="1">
         <v>25000</v>
@@ -10021,13 +10003,13 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E407" s="1">
         <v>25000</v>
@@ -10035,13 +10017,13 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E408" s="1">
         <v>25000</v>
@@ -10049,13 +10031,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E409" s="1">
         <v>25000</v>
@@ -10063,13 +10045,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E410" s="1">
         <v>25000</v>
@@ -10077,13 +10059,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E411" s="1">
         <v>25000</v>
@@ -10091,13 +10073,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E412" s="1">
         <v>25000</v>
@@ -10105,13 +10087,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E413" s="1">
         <v>25000</v>
@@ -10119,13 +10101,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E414" s="1">
         <v>25000</v>
@@ -10133,13 +10115,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E415" s="1">
         <v>25000</v>
@@ -10147,13 +10129,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E416" s="1">
         <v>25000</v>
@@ -10161,13 +10143,13 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E417" s="1">
         <v>25000</v>
@@ -10175,13 +10157,13 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E418" s="1">
         <v>25000</v>
@@ -10189,13 +10171,13 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E419" s="1">
         <v>25000</v>
@@ -10203,13 +10185,13 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E420" s="1">
         <v>250000</v>
@@ -10217,7 +10199,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>46</v>
@@ -10231,13 +10213,13 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E422" s="1">
         <v>500000</v>
@@ -10245,10 +10227,10 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>267</v>
@@ -10259,13 +10241,13 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E424" s="1">
         <v>980</v>
@@ -10273,13 +10255,13 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E425" s="1">
         <v>980</v>
@@ -10287,13 +10269,13 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E426" s="1">
         <v>980</v>
@@ -10301,13 +10283,13 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E427" s="1">
         <v>980</v>
@@ -10315,13 +10297,13 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E428" s="1">
         <v>980</v>
@@ -10329,13 +10311,13 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E429" s="1">
         <v>980</v>
@@ -10343,13 +10325,13 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E430" s="1">
         <v>980</v>
@@ -10357,2013 +10339,2013 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E431" s="1">
         <v>10000</v>
       </c>
       <c r="G431" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H431" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E432" s="1">
         <v>10000</v>
       </c>
       <c r="G432" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H432" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E433" s="1">
         <v>10000</v>
       </c>
       <c r="G433" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H433" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E434" s="1">
         <v>10000</v>
       </c>
       <c r="G434" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H434" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E435" s="1">
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H435" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="H435" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E436" s="1">
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H436" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="H436" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E437" s="1">
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H437" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="H437" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E438" s="1">
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H438" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="H438" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E439" s="1">
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H439" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="H439" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E440" s="1">
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H440" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="H440" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E441" s="1">
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H441" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="H441" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E442" s="1">
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H442" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="H442" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E443" s="1">
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="H443" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="H443" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E444" s="1">
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H444" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="H444" s="3" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E445" s="1">
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H445" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="H445" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E446" s="1">
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H446" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="H446" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E447" s="1">
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H447" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="H447" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E448" s="1">
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H448" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="H448" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E449" s="1">
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H449" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="H449" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E450" s="1">
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H450" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="H450" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E451" s="1">
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H451" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="H451" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E452" s="1">
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H452" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="H452" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E453" s="1">
         <v>10000</v>
       </c>
       <c r="G453" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H453" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="H453" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E454" s="1">
         <v>10000</v>
       </c>
       <c r="G454" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H454" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="H454" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E455" s="1">
         <v>10000</v>
       </c>
       <c r="G455" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H455" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="H455" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E456" s="1">
         <v>10000</v>
       </c>
       <c r="G456" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H456" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="H456" s="3" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E457" s="1">
         <v>10000</v>
       </c>
       <c r="G457" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H457" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="H457" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E458" s="1">
         <v>10000</v>
       </c>
       <c r="G458" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H458" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="H458" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E459" s="1">
         <v>10000</v>
       </c>
       <c r="G459" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H459" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="H459" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E460" s="1">
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H460" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="H460" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E461" s="1">
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H461" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="H461" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E462" s="1">
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H462" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="H462" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E463" s="1">
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H463" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="H463" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E464" s="1">
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H464" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="H464" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E465" s="1">
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H465" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="H465" s="3" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E466" s="1">
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H466" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="H466" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E467" s="1">
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="H467" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="H467" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E468" s="1">
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H468" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="H468" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E469" s="1">
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H469" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="H469" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E470" s="1">
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H470" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="H470" s="3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E471" s="1">
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H471" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="H471" s="3" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E472" s="1">
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H472" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="H472" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E473" s="1">
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="H473" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="H473" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E474" s="1">
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H474" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="H474" s="3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E475" s="1">
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H475" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="H475" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E476" s="1">
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H476" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="H476" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E477" s="1">
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H477" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="H477" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E478" s="1">
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H478" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="H478" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E479" s="1">
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="H479" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="H479" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E480" s="1">
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H480" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="H480" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E481" s="1">
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="H481" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="H481" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E482" s="1">
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H482" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="H482" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E483" s="1">
         <v>10000</v>
       </c>
       <c r="G483" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H483" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="H483" s="3" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E484" s="1">
         <v>10000</v>
       </c>
       <c r="G484" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="H484" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="H484" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E485" s="1">
         <v>10000</v>
       </c>
       <c r="G485" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H485" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="H485" s="3" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E486" s="1">
         <v>10000</v>
       </c>
       <c r="G486" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H486" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="H486" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E487" s="1">
         <v>10000</v>
       </c>
       <c r="G487" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H487" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="H487" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E488" s="1">
         <v>10000</v>
       </c>
       <c r="G488" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="H488" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="H488" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E489" s="1">
         <v>10000</v>
       </c>
       <c r="G489" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H489" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="H489" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E490" s="1">
         <v>10000</v>
       </c>
       <c r="G490" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H490" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="H490" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E491" s="1">
         <v>10000</v>
       </c>
       <c r="G491" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="H491" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="H491" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E492" s="1">
         <v>10000</v>
       </c>
       <c r="G492" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="H492" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="H492" s="3" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E493" s="1">
         <v>10000</v>
       </c>
       <c r="G493" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H493" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="H493" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E494" s="1">
         <v>10000</v>
       </c>
       <c r="G494" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H494" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="H494" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E495" s="1">
         <v>10000</v>
       </c>
       <c r="G495" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H495" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="H495" s="3" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E496" s="1">
         <v>10000</v>
       </c>
       <c r="G496" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H496" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="H496" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E497" s="1">
         <v>10000</v>
       </c>
       <c r="G497" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H497" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="H497" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E498" s="1">
         <v>10000</v>
       </c>
       <c r="G498" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H498" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="H498" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E499" s="1">
         <v>10000</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E500" s="1">
         <v>10000</v>
       </c>
       <c r="G500" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H500" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="H500" s="3" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E501" s="1">
         <v>10000</v>
       </c>
       <c r="G501" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H501" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="H501" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E502" s="1">
         <v>10000</v>
       </c>
       <c r="G502" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H502" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="H502" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E503" s="1">
         <v>10000</v>
       </c>
       <c r="G503" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H503" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="H503" s="3" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E504" s="1">
         <v>10000</v>
       </c>
       <c r="G504" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H504" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="H504" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E505" s="1">
         <v>10000</v>
       </c>
       <c r="G505" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H505" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="H505" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E506" s="1">
         <v>10000</v>
       </c>
       <c r="G506" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H506" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="H506" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E507" s="1">
         <v>10000</v>
       </c>
       <c r="G507" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H507" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="H507" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E508" s="1">
         <v>10000</v>
       </c>
       <c r="G508" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H508" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="H508" s="3" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E509" s="1">
         <v>10000</v>
       </c>
       <c r="G509" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="H509" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="H509" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E510" s="1">
         <v>10000</v>
       </c>
       <c r="G510" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H510" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="H510" s="3" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E511" s="1">
         <v>10000</v>
       </c>
       <c r="G511" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H511" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="H511" s="3" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E512" s="1">
         <v>10000</v>
       </c>
       <c r="G512" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="H512" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="H512" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E513" s="1">
         <v>10000</v>
       </c>
       <c r="G513" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H513" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="H513" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E514" s="1">
         <v>10000</v>
       </c>
       <c r="G514" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H514" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="H514" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E515" s="1">
         <v>10000</v>
       </c>
       <c r="G515" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H515" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="H515" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E516" s="1">
         <v>10000</v>
       </c>
       <c r="G516" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H516" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="H516" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E517" s="1">
         <v>10000</v>
       </c>
       <c r="G517" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="H517" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="H517" s="3" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E518" s="1">
         <v>10000</v>
       </c>
       <c r="G518" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H518" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="H518" s="3" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E519" s="1">
         <v>10000</v>
       </c>
       <c r="G519" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H519" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="H519" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E520" s="1">
         <v>10000</v>
       </c>
       <c r="G520" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H520" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="H520" s="3" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E521" s="1">
         <v>10000</v>
       </c>
       <c r="G521" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H521" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="H521" s="3" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E522" s="1">
         <v>10000</v>
       </c>
       <c r="G522" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H522" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="H522" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E523" s="1">
         <v>10000</v>
       </c>
       <c r="G523" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H523" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="H523" s="3" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E524" s="1">
         <v>10000</v>
       </c>
       <c r="G524" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H524" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="H524" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E525" s="1">
         <v>10000</v>
       </c>
       <c r="G525" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="H525" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="H525" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E526" s="1">
         <v>10000</v>
       </c>
       <c r="G526" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H526" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="H526" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E527" s="1">
         <v>10000</v>
       </c>
       <c r="G527" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H527" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="H527" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E528" s="1">
         <v>10000</v>
       </c>
       <c r="G528" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H528" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="H528" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E529" s="1">
         <v>10000</v>
       </c>
       <c r="G529" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H529" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="H529" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E530" s="1">
         <v>10000</v>
       </c>
       <c r="G530" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H530" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="H530" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E531" s="1">
         <v>25000</v>
@@ -12371,7 +12353,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>79</v>
@@ -12385,7 +12367,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>78</v>
@@ -12399,13 +12381,13 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E534" s="1">
         <v>1000000</v>
@@ -12413,13 +12395,13 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E535" s="1">
         <v>1000</v>
@@ -12430,92 +12412,86 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E536" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F536" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1205</v>
+        <v>80</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1207</v>
+        <v>87</v>
       </c>
       <c r="E537" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F537" s="1">
-        <v>500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1206</v>
+        <v>83</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1208</v>
+        <v>89</v>
       </c>
       <c r="E538" s="1">
-        <v>400</v>
-      </c>
-      <c r="F538" s="1">
-        <v>200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E539" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E540" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E541" s="1">
         <v>25000</v>
@@ -12523,13 +12499,13 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E542" s="1">
         <v>25000</v>
@@ -12537,13 +12513,13 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E543" s="1">
         <v>25000</v>
@@ -12551,13 +12527,13 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E544" s="1">
         <v>25000</v>
@@ -12565,83 +12541,83 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E545" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>56</v>
+        <v>1196</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>60</v>
+        <v>1197</v>
       </c>
       <c r="E546" s="1">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>997</v>
+        <v>947</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>998</v>
+        <v>1166</v>
       </c>
       <c r="E547" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>77</v>
+        <v>930</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>84</v>
+        <v>1149</v>
       </c>
       <c r="E548" s="1">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1199</v>
+        <v>931</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E549" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>948</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E550" s="1">
         <v>25000</v>
@@ -12649,13 +12625,13 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E551" s="1">
         <v>25000</v>
@@ -12663,13 +12639,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="E552" s="1">
         <v>25000</v>
@@ -12677,13 +12653,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="E553" s="1">
         <v>25000</v>
@@ -12691,13 +12667,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E554" s="1">
         <v>25000</v>
@@ -12705,13 +12681,13 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="E555" s="1">
         <v>25000</v>
@@ -12719,10 +12695,10 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>1155</v>
@@ -12733,10 +12709,10 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>1156</v>
@@ -12747,10 +12723,10 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>1157</v>
@@ -12761,10 +12737,10 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>1158</v>
@@ -12775,10 +12751,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>1159</v>
@@ -12789,10 +12765,10 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>1160</v>
@@ -12803,13 +12779,13 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="E562" s="1">
         <v>25000</v>
@@ -12817,13 +12793,13 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="E563" s="1">
         <v>25000</v>
@@ -12831,13 +12807,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="E564" s="1">
         <v>25000</v>
@@ -12845,10 +12821,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>1172</v>
@@ -12859,10 +12835,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>1173</v>
@@ -12873,10 +12849,10 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>1174</v>
@@ -12887,10 +12863,10 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>1175</v>
@@ -12901,13 +12877,13 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="E569" s="1">
         <v>25000</v>
@@ -12915,13 +12891,13 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E570" s="1">
         <v>25000</v>
@@ -12929,13 +12905,13 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E571" s="1">
         <v>25000</v>
@@ -12943,13 +12919,13 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>943</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E572" s="1">
         <v>25000</v>
@@ -12957,13 +12933,13 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E573" s="1">
         <v>25000</v>
@@ -12971,13 +12947,13 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="E574" s="1">
         <v>25000</v>
@@ -12985,13 +12961,13 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="E575" s="1">
         <v>25000</v>
@@ -12999,13 +12975,13 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E576" s="1">
         <v>25000</v>
@@ -13013,13 +12989,13 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>945</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E577" s="1">
         <v>25000</v>
@@ -13027,13 +13003,13 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E578" s="1">
         <v>25000</v>
@@ -13041,13 +13017,13 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E579" s="1">
         <v>25000</v>
@@ -13055,66 +13031,24 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>946</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E580" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E581" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E582" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B583" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E583" s="1">
-        <v>25000</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H584">
-    <sortCondition ref="A2:A584"/>
-    <sortCondition ref="C2:C584"/>
-    <sortCondition ref="D2:D584"/>
-    <sortCondition ref="H2:H584"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H581">
+    <sortCondition ref="A2:A581"/>
+    <sortCondition ref="C2:C581"/>
+    <sortCondition ref="D2:D581"/>
+    <sortCondition ref="H2:H581"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA6DAD-899D-4274-9A1F-201EF4947E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF6C63-5C57-4D6B-BB37-200F82890FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1186">
   <si>
     <t>Item Name</t>
   </si>
@@ -3234,9 +3234,6 @@
     <t>Park Ball</t>
   </si>
   <si>
-    <t>GS Ball</t>
-  </si>
-  <si>
     <t>pixelmon:park_ball</t>
   </si>
   <si>
@@ -3409,6 +3406,192 @@
   </si>
   <si>
     <t>pixelmon:up_grade</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:great_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:ultra_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:level_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:moon_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:friend_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:love_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:heavy_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:fast_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:repeat_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:timer_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:nest_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:net_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:dive_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:luxury_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:heal_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:dusk_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:quick_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:lure_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:sport_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:sun_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:fire_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:water_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:moon_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:thunder_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:leaf_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:dawn_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:dusk_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:shiny_stone</t>
+  </si>
+  <si>
+    <t>pixelmon:ice_stone</t>
+  </si>
+  <si>
+    <t>Evolution Stones</t>
+  </si>
+  <si>
+    <t>Dawn Stone</t>
+  </si>
+  <si>
+    <t>Dusk Stone</t>
+  </si>
+  <si>
+    <t>Fire Stone</t>
+  </si>
+  <si>
+    <t>Ice Stone</t>
+  </si>
+  <si>
+    <t>Leaf Stone</t>
+  </si>
+  <si>
+    <t>Moon Stone</t>
+  </si>
+  <si>
+    <t>Shiny Stone</t>
+  </si>
+  <si>
+    <t>Sun Stone</t>
+  </si>
+  <si>
+    <t>Thunder Stone</t>
+  </si>
+  <si>
+    <t>Water Stone</t>
+  </si>
+  <si>
+    <t>Dive Ball</t>
+  </si>
+  <si>
+    <t>Dusk Ball</t>
+  </si>
+  <si>
+    <t>Fast Ball</t>
+  </si>
+  <si>
+    <t>Friend Ball</t>
+  </si>
+  <si>
+    <t>Great Ball</t>
+  </si>
+  <si>
+    <t>Gs Ball</t>
+  </si>
+  <si>
+    <t>Heal Ball</t>
+  </si>
+  <si>
+    <t>Heavy Ball</t>
+  </si>
+  <si>
+    <t>Level Ball</t>
+  </si>
+  <si>
+    <t>Love Ball</t>
+  </si>
+  <si>
+    <t>Lure Ball</t>
+  </si>
+  <si>
+    <t>Luxury Ball</t>
+  </si>
+  <si>
+    <t>Moon Ball</t>
+  </si>
+  <si>
+    <t>Nest Ball</t>
+  </si>
+  <si>
+    <t>Net Ball</t>
+  </si>
+  <si>
+    <t>Poke Ball</t>
+  </si>
+  <si>
+    <t>Quick Ball</t>
+  </si>
+  <si>
+    <t>Repeat Ball</t>
+  </si>
+  <si>
+    <t>Sport Ball</t>
+  </si>
+  <si>
+    <t>Timer Ball</t>
+  </si>
+  <si>
+    <t>Ultra Ball</t>
   </si>
 </sst>
 </file>
@@ -3735,11 +3918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C324" sqref="C324"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,6 +3975,9 @@
       <c r="E2" s="1">
         <v>200</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -3808,6 +3994,9 @@
       <c r="E3" s="1">
         <v>200</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -3824,6 +4013,9 @@
       <c r="E4" s="1">
         <v>200</v>
       </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -3840,6 +4032,9 @@
       <c r="E5" s="1">
         <v>200</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -3856,6 +4051,9 @@
       <c r="E6" s="1">
         <v>200</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -3872,6 +4070,9 @@
       <c r="E7" s="1">
         <v>200</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
@@ -3888,117 +4089,120 @@
       <c r="E8" s="1">
         <v>200</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4689,7 +4893,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>271</v>
       </c>
@@ -4703,7 +4907,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>271</v>
       </c>
@@ -4717,7 +4921,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>271</v>
       </c>
@@ -4731,7 +4935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>271</v>
       </c>
@@ -4745,7 +4949,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>271</v>
       </c>
@@ -4759,7 +4963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>271</v>
       </c>
@@ -4773,7 +4977,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>271</v>
       </c>
@@ -4787,7 +4991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>271</v>
       </c>
@@ -4801,7 +5005,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>271</v>
       </c>
@@ -4815,7 +5019,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>271</v>
       </c>
@@ -4829,396 +5033,396 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E75" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E76" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E83" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E84" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>802</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>803</v>
+        <v>264</v>
       </c>
       <c r="E85" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="E86" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E87" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E88" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="E89" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1077</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1078</v>
+        <v>45</v>
       </c>
       <c r="E90" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>384</v>
+        <v>801</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1124</v>
+        <v>157</v>
       </c>
       <c r="E91" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1080</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1079</v>
+        <v>156</v>
       </c>
       <c r="E92" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="E93" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1113</v>
+        <v>452</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1119</v>
+        <v>265</v>
       </c>
       <c r="E94" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>334</v>
+        <v>802</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>137</v>
+        <v>803</v>
       </c>
       <c r="E95" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>338</v>
+        <v>461</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E96" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1116</v>
+        <v>387</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1122</v>
+        <v>161</v>
       </c>
       <c r="E97" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E98" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1115</v>
+        <v>453</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1121</v>
+        <v>266</v>
       </c>
       <c r="E99" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1114</v>
+        <v>1076</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="E100" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>134</v>
+        <v>1123</v>
       </c>
       <c r="E101" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1117</v>
+        <v>1078</v>
       </c>
       <c r="E102" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5226,10 +5430,10 @@
         <v>272</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E103" s="1">
         <v>25000</v>
@@ -5240,10 +5444,10 @@
         <v>272</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>339</v>
+        <v>1112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>142</v>
+        <v>1118</v>
       </c>
       <c r="E104" s="1">
         <v>25000</v>
@@ -5254,10 +5458,10 @@
         <v>272</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E105" s="1">
         <v>25000</v>
@@ -5268,10 +5472,10 @@
         <v>272</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1112</v>
+        <v>338</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1118</v>
+        <v>141</v>
       </c>
       <c r="E106" s="1">
         <v>25000</v>
@@ -5282,10 +5486,10 @@
         <v>272</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>336</v>
+        <v>1115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>139</v>
+        <v>1121</v>
       </c>
       <c r="E107" s="1">
         <v>25000</v>
@@ -5293,142 +5497,142 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="E108" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>353</v>
+        <v>1114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>222</v>
+        <v>1120</v>
       </c>
       <c r="E109" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>354</v>
+        <v>1113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>223</v>
+        <v>1119</v>
       </c>
       <c r="E110" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="E111" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>356</v>
+        <v>1110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>225</v>
+        <v>1116</v>
       </c>
       <c r="E112" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="E113" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="E114" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="E115" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>360</v>
+        <v>1111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>229</v>
+        <v>1117</v>
       </c>
       <c r="E116" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="E117" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,10 +5640,10 @@
         <v>276</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E118" s="1">
         <v>500</v>
@@ -5450,10 +5654,10 @@
         <v>276</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E119" s="1">
         <v>500</v>
@@ -5464,10 +5668,10 @@
         <v>276</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E120" s="1">
         <v>500</v>
@@ -5478,10 +5682,10 @@
         <v>276</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E121" s="1">
         <v>500</v>
@@ -5492,10 +5696,10 @@
         <v>276</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E122" s="1">
         <v>500</v>
@@ -5506,10 +5710,10 @@
         <v>276</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E123" s="1">
         <v>500</v>
@@ -5520,10 +5724,10 @@
         <v>276</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E124" s="1">
         <v>500</v>
@@ -5534,10 +5738,10 @@
         <v>276</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E125" s="1">
         <v>500</v>
@@ -5545,524 +5749,524 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>229</v>
+      </c>
       <c r="E126" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>230</v>
+      </c>
       <c r="E127" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>231</v>
+      </c>
       <c r="E128" s="1">
-        <v>4500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>232</v>
+      </c>
       <c r="E129" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>233</v>
+      </c>
       <c r="E130" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="E131" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F131" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="E132" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F132" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="E133" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F133" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="E134" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F134" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="E135" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F135" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>68</v>
+        <v>455</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F136" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>456</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F137" s="1">
-        <v>8000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F138" s="1">
-        <v>8000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F139" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F140" s="1">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>388</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="E141" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="E142" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>471</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>470</v>
+        <v>55</v>
       </c>
       <c r="E143" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="E144" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>786</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>787</v>
+        <v>57</v>
       </c>
       <c r="E145" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="E146" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E147" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>432</v>
+        <v>70</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="E148" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>433</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="E149" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>394</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="E150" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E151" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E152" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>241</v>
+        <v>470</v>
       </c>
       <c r="E153" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="E154" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>376</v>
+        <v>786</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>145</v>
+        <v>787</v>
       </c>
       <c r="E155" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E156" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E157" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="E158" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E159" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E160" s="1">
         <v>15000</v>
@@ -6073,10 +6277,10 @@
         <v>785</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>789</v>
+        <v>418</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>793</v>
+        <v>194</v>
       </c>
       <c r="E161" s="1">
         <v>15000</v>
@@ -6087,10 +6291,10 @@
         <v>785</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E162" s="1">
         <v>15000</v>
@@ -6101,10 +6305,10 @@
         <v>785</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="E163" s="1">
         <v>15000</v>
@@ -6115,13 +6319,13 @@
         <v>785</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E164" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6129,13 +6333,13 @@
         <v>785</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="E165" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,13 +6347,13 @@
         <v>785</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E166" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6157,10 +6361,10 @@
         <v>785</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E167" s="1">
         <v>15000</v>
@@ -6171,13 +6375,13 @@
         <v>785</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>788</v>
+        <v>37</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>792</v>
+        <v>43</v>
       </c>
       <c r="E168" s="1">
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,10 +6389,10 @@
         <v>785</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E169" s="1">
         <v>15000</v>
@@ -6199,10 +6403,10 @@
         <v>785</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E170" s="1">
         <v>15000</v>
@@ -6213,10 +6417,10 @@
         <v>785</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>400</v>
+        <v>789</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>174</v>
+        <v>793</v>
       </c>
       <c r="E171" s="1">
         <v>15000</v>
@@ -6227,10 +6431,10 @@
         <v>785</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E172" s="1">
         <v>15000</v>
@@ -6241,10 +6445,10 @@
         <v>785</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E173" s="1">
         <v>15000</v>
@@ -6255,10 +6459,10 @@
         <v>785</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="E174" s="1">
         <v>15000</v>
@@ -6269,10 +6473,10 @@
         <v>785</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E175" s="1">
         <v>15000</v>
@@ -6283,10 +6487,10 @@
         <v>785</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E176" s="1">
         <v>15000</v>
@@ -6297,13 +6501,13 @@
         <v>785</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E177" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,13 +6515,13 @@
         <v>785</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>389</v>
+        <v>788</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>163</v>
+        <v>792</v>
       </c>
       <c r="E178" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6325,10 +6529,10 @@
         <v>785</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E179" s="1">
         <v>15000</v>
@@ -6339,10 +6543,10 @@
         <v>785</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="E180" s="1">
         <v>15000</v>
@@ -6353,10 +6557,10 @@
         <v>785</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E181" s="1">
         <v>15000</v>
@@ -6367,10 +6571,10 @@
         <v>785</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E182" s="1">
         <v>15000</v>
@@ -6381,10 +6585,10 @@
         <v>785</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="E183" s="1">
         <v>15000</v>
@@ -6395,10 +6599,10 @@
         <v>785</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E184" s="1">
         <v>15000</v>
@@ -6409,10 +6613,10 @@
         <v>785</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E185" s="1">
         <v>15000</v>
@@ -6423,10 +6627,10 @@
         <v>785</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E186" s="1">
         <v>15000</v>
@@ -6437,13 +6641,13 @@
         <v>785</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="E187" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,13 +6655,13 @@
         <v>785</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>791</v>
+        <v>389</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>795</v>
+        <v>163</v>
       </c>
       <c r="E188" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,10 +6669,10 @@
         <v>785</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>796</v>
+        <v>403</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>797</v>
+        <v>178</v>
       </c>
       <c r="E189" s="1">
         <v>15000</v>
@@ -6479,10 +6683,10 @@
         <v>785</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="E190" s="1">
         <v>15000</v>
@@ -6493,10 +6697,10 @@
         <v>785</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="E191" s="1">
         <v>15000</v>
@@ -6507,10 +6711,10 @@
         <v>785</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E192" s="1">
         <v>15000</v>
@@ -6521,10 +6725,10 @@
         <v>785</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E193" s="1">
         <v>15000</v>
@@ -6535,10 +6739,10 @@
         <v>785</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E194" s="1">
         <v>15000</v>
@@ -6549,10 +6753,10 @@
         <v>785</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>790</v>
+        <v>405</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>794</v>
+        <v>180</v>
       </c>
       <c r="E195" s="1">
         <v>15000</v>
@@ -6563,10 +6767,10 @@
         <v>785</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="E196" s="1">
         <v>15000</v>
@@ -6577,10 +6781,10 @@
         <v>785</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="E197" s="1">
         <v>15000</v>
@@ -6591,10 +6795,10 @@
         <v>785</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>409</v>
+        <v>791</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>185</v>
+        <v>795</v>
       </c>
       <c r="E198" s="1">
         <v>15000</v>
@@ -6605,10 +6809,10 @@
         <v>785</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>207</v>
+        <v>797</v>
       </c>
       <c r="E199" s="1">
         <v>15000</v>
@@ -6619,10 +6823,10 @@
         <v>785</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="E200" s="1">
         <v>15000</v>
@@ -6633,10 +6837,10 @@
         <v>785</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="E201" s="1">
         <v>15000</v>
@@ -6647,10 +6851,10 @@
         <v>785</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E202" s="1">
         <v>15000</v>
@@ -6661,10 +6865,10 @@
         <v>785</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E203" s="1">
         <v>15000</v>
@@ -6675,10 +6879,10 @@
         <v>785</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E204" s="1">
         <v>15000</v>
@@ -6689,10 +6893,10 @@
         <v>785</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>398</v>
+        <v>790</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>172</v>
+        <v>794</v>
       </c>
       <c r="E205" s="1">
         <v>15000</v>
@@ -6703,10 +6907,10 @@
         <v>785</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E206" s="1">
         <v>15000</v>
@@ -6717,10 +6921,10 @@
         <v>785</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="E207" s="1">
         <v>15000</v>
@@ -6731,10 +6935,10 @@
         <v>785</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="E208" s="1">
         <v>15000</v>
@@ -6745,10 +6949,10 @@
         <v>785</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E209" s="1">
         <v>15000</v>
@@ -6759,10 +6963,10 @@
         <v>785</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E210" s="1">
         <v>15000</v>
@@ -6773,10 +6977,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="E211" s="1">
         <v>15000</v>
@@ -6787,10 +6991,10 @@
         <v>785</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E212" s="1">
         <v>15000</v>
@@ -6801,10 +7005,10 @@
         <v>785</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E213" s="1">
         <v>15000</v>
@@ -6815,10 +7019,10 @@
         <v>785</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E214" s="1">
         <v>15000</v>
@@ -6829,10 +7033,10 @@
         <v>785</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="E215" s="1">
         <v>15000</v>
@@ -6843,10 +7047,10 @@
         <v>785</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="E216" s="1">
         <v>15000</v>
@@ -6857,10 +7061,10 @@
         <v>785</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="E217" s="1">
         <v>15000</v>
@@ -6871,10 +7075,10 @@
         <v>785</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E218" s="1">
         <v>15000</v>
@@ -6885,10 +7089,10 @@
         <v>785</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E219" s="1">
         <v>15000</v>
@@ -6899,10 +7103,10 @@
         <v>785</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="E220" s="1">
         <v>15000</v>
@@ -6913,10 +7117,10 @@
         <v>785</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>450</v>
+        <v>53</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E221" s="1">
         <v>15000</v>
@@ -6927,10 +7131,10 @@
         <v>785</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E222" s="1">
         <v>15000</v>
@@ -6941,10 +7145,10 @@
         <v>785</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E223" s="1">
         <v>15000</v>
@@ -6955,10 +7159,10 @@
         <v>785</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="E224" s="1">
         <v>15000</v>
@@ -6969,10 +7173,10 @@
         <v>785</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E225" s="1">
         <v>15000</v>
@@ -6980,268 +7184,268 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E226" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E227" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E228" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="E229" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>347</v>
+        <v>445</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="E230" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="E231" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E232" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="E233" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E234" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>270</v>
+        <v>785</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="E235" s="1">
-        <v>250000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>875</v>
+        <v>343</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>876</v>
+        <v>212</v>
       </c>
       <c r="E236" s="1">
-        <v>425000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>872</v>
+        <v>344</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>874</v>
+        <v>213</v>
       </c>
       <c r="E237" s="1">
-        <v>75000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>990</v>
+        <v>345</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1007</v>
+        <v>214</v>
       </c>
       <c r="E238" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>883</v>
+        <v>346</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>889</v>
+        <v>215</v>
       </c>
       <c r="E239" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>884</v>
+        <v>347</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>890</v>
+        <v>216</v>
       </c>
       <c r="E240" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1083</v>
+        <v>348</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1096</v>
+        <v>217</v>
       </c>
       <c r="E241" s="1">
-        <v>300000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>991</v>
+        <v>349</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1008</v>
+        <v>218</v>
       </c>
       <c r="E242" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>984</v>
+        <v>350</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>985</v>
+        <v>219</v>
       </c>
       <c r="E243" s="1">
-        <v>75000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>885</v>
+        <v>351</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>891</v>
+        <v>220</v>
       </c>
       <c r="E244" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,13 +7453,13 @@
         <v>270</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>992</v>
+        <v>5</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="E245" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7263,13 +7467,13 @@
         <v>270</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>993</v>
+        <v>875</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1010</v>
+        <v>876</v>
       </c>
       <c r="E246" s="1">
-        <v>50000</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -7277,13 +7481,13 @@
         <v>270</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>994</v>
+        <v>872</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1011</v>
+        <v>874</v>
       </c>
       <c r="E247" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7291,13 +7495,13 @@
         <v>270</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1087</v>
+        <v>990</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1091</v>
+        <v>1007</v>
       </c>
       <c r="E248" s="1">
-        <v>75000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -7305,10 +7509,10 @@
         <v>270</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>995</v>
+        <v>883</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1012</v>
+        <v>889</v>
       </c>
       <c r="E249" s="1">
         <v>50000</v>
@@ -7319,10 +7523,10 @@
         <v>270</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>996</v>
+        <v>884</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1013</v>
+        <v>890</v>
       </c>
       <c r="E250" s="1">
         <v>50000</v>
@@ -7333,13 +7537,13 @@
         <v>270</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>997</v>
+        <v>1082</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1014</v>
+        <v>1095</v>
       </c>
       <c r="E251" s="1">
-        <v>50000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,13 +7551,13 @@
         <v>270</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1086</v>
+        <v>991</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1090</v>
+        <v>1008</v>
       </c>
       <c r="E252" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,13 +7565,13 @@
         <v>270</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="E253" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,13 +7579,13 @@
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="E254" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7389,10 +7593,10 @@
         <v>270</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="E255" s="1">
         <v>50000</v>
@@ -7403,13 +7607,13 @@
         <v>270</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>8</v>
+        <v>993</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>7</v>
+        <v>1010</v>
       </c>
       <c r="E256" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,10 +7621,10 @@
         <v>270</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E257" s="1">
         <v>50000</v>
@@ -7431,13 +7635,13 @@
         <v>270</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1001</v>
+        <v>1086</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1018</v>
+        <v>1090</v>
       </c>
       <c r="E258" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +7649,13 @@
         <v>270</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1060</v>
+        <v>995</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="E259" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,13 +7663,13 @@
         <v>270</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>878</v>
+        <v>996</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>879</v>
+        <v>1013</v>
       </c>
       <c r="E260" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,13 +7677,13 @@
         <v>270</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1088</v>
+        <v>997</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1092</v>
+        <v>1014</v>
       </c>
       <c r="E261" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -7487,10 +7691,10 @@
         <v>270</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>986</v>
+        <v>1085</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>988</v>
+        <v>1089</v>
       </c>
       <c r="E262" s="1">
         <v>75000</v>
@@ -7501,13 +7705,13 @@
         <v>270</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>989</v>
+        <v>1015</v>
       </c>
       <c r="E263" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,13 +7719,13 @@
         <v>270</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>3</v>
+        <v>877</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>4</v>
+        <v>880</v>
       </c>
       <c r="E264" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,10 +7733,10 @@
         <v>270</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E265" s="1">
         <v>50000</v>
@@ -7543,13 +7747,13 @@
         <v>270</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>882</v>
+        <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>888</v>
+        <v>7</v>
       </c>
       <c r="E266" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -7557,10 +7761,10 @@
         <v>270</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E267" s="1">
         <v>50000</v>
@@ -7571,13 +7775,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>871</v>
+        <v>1001</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>873</v>
+        <v>1018</v>
       </c>
       <c r="E268" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,13 +7789,13 @@
         <v>270</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>881</v>
+        <v>1060</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>887</v>
+        <v>1059</v>
       </c>
       <c r="E269" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,13 +7803,13 @@
         <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1004</v>
+        <v>878</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1021</v>
+        <v>879</v>
       </c>
       <c r="E270" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,10 +7817,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E271" s="1">
         <v>75000</v>
@@ -7627,10 +7831,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1081</v>
+        <v>986</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1093</v>
+        <v>988</v>
       </c>
       <c r="E272" s="1">
         <v>75000</v>
@@ -7641,13 +7845,13 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>886</v>
+        <v>987</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>892</v>
+        <v>989</v>
       </c>
       <c r="E273" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,13 +7859,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1005</v>
+        <v>3</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1022</v>
+        <v>4</v>
       </c>
       <c r="E274" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,13 +7873,13 @@
         <v>270</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1084</v>
+        <v>1002</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1095</v>
+        <v>1019</v>
       </c>
       <c r="E275" s="1">
-        <v>300000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,10 +7887,10 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1085</v>
+        <v>882</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1089</v>
+        <v>888</v>
       </c>
       <c r="E276" s="1">
         <v>75000</v>
@@ -7697,10 +7901,10 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E277" s="1">
         <v>50000</v>
@@ -7708,41 +7912,41 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>941</v>
+        <v>873</v>
       </c>
       <c r="E278" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>942</v>
+        <v>887</v>
       </c>
       <c r="E279" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>896</v>
+        <v>1004</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>943</v>
+        <v>1021</v>
       </c>
       <c r="E280" s="1">
         <v>50000</v>
@@ -7750,41 +7954,41 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>897</v>
+        <v>1081</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>944</v>
+        <v>1093</v>
       </c>
       <c r="E281" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>898</v>
+        <v>1080</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>945</v>
+        <v>1092</v>
       </c>
       <c r="E282" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>946</v>
+        <v>892</v>
       </c>
       <c r="E283" s="1">
         <v>50000</v>
@@ -7792,13 +7996,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>900</v>
+        <v>1005</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>947</v>
+        <v>1022</v>
       </c>
       <c r="E284" s="1">
         <v>50000</v>
@@ -7806,41 +8010,41 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>901</v>
+        <v>1083</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>948</v>
+        <v>1094</v>
       </c>
       <c r="E285" s="1">
-        <v>50000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>902</v>
+        <v>1084</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>949</v>
+        <v>1088</v>
       </c>
       <c r="E286" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>903</v>
+        <v>1006</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>950</v>
+        <v>1023</v>
       </c>
       <c r="E287" s="1">
         <v>50000</v>
@@ -7851,10 +8055,10 @@
         <v>893</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E288" s="1">
         <v>50000</v>
@@ -7865,10 +8069,10 @@
         <v>893</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E289" s="1">
         <v>50000</v>
@@ -7879,10 +8083,10 @@
         <v>893</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E290" s="1">
         <v>50000</v>
@@ -7893,10 +8097,10 @@
         <v>893</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1061</v>
+        <v>944</v>
       </c>
       <c r="E291" s="1">
         <v>50000</v>
@@ -7907,10 +8111,10 @@
         <v>893</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1062</v>
+        <v>945</v>
       </c>
       <c r="E292" s="1">
         <v>50000</v>
@@ -7921,10 +8125,10 @@
         <v>893</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="E293" s="1">
         <v>50000</v>
@@ -7935,10 +8139,10 @@
         <v>893</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E294" s="1">
         <v>50000</v>
@@ -7949,10 +8153,10 @@
         <v>893</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="E295" s="1">
         <v>50000</v>
@@ -7963,10 +8167,10 @@
         <v>893</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E296" s="1">
         <v>50000</v>
@@ -7977,10 +8181,10 @@
         <v>893</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E297" s="1">
         <v>50000</v>
@@ -7991,10 +8195,10 @@
         <v>893</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E298" s="1">
         <v>50000</v>
@@ -8005,10 +8209,10 @@
         <v>893</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E299" s="1">
         <v>50000</v>
@@ -8019,10 +8223,10 @@
         <v>893</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E300" s="1">
         <v>50000</v>
@@ -8033,10 +8237,10 @@
         <v>893</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>962</v>
+        <v>1061</v>
       </c>
       <c r="E301" s="1">
         <v>50000</v>
@@ -8047,10 +8251,10 @@
         <v>893</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>963</v>
+        <v>1062</v>
       </c>
       <c r="E302" s="1">
         <v>50000</v>
@@ -8061,10 +8265,10 @@
         <v>893</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E303" s="1">
         <v>50000</v>
@@ -8075,10 +8279,10 @@
         <v>893</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E304" s="1">
         <v>50000</v>
@@ -8089,10 +8293,10 @@
         <v>893</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E305" s="1">
         <v>50000</v>
@@ -8103,10 +8307,10 @@
         <v>893</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E306" s="1">
         <v>50000</v>
@@ -8117,10 +8321,10 @@
         <v>893</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="E307" s="1">
         <v>50000</v>
@@ -8131,10 +8335,10 @@
         <v>893</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="E308" s="1">
         <v>50000</v>
@@ -8145,10 +8349,10 @@
         <v>893</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E309" s="1">
         <v>50000</v>
@@ -8159,10 +8363,10 @@
         <v>893</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E310" s="1">
         <v>50000</v>
@@ -8173,10 +8377,10 @@
         <v>893</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1063</v>
+        <v>962</v>
       </c>
       <c r="E311" s="1">
         <v>50000</v>
@@ -8187,10 +8391,10 @@
         <v>893</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1064</v>
+        <v>963</v>
       </c>
       <c r="E312" s="1">
         <v>50000</v>
@@ -8201,10 +8405,10 @@
         <v>893</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E313" s="1">
         <v>50000</v>
@@ -8215,10 +8419,10 @@
         <v>893</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E314" s="1">
         <v>50000</v>
@@ -8229,10 +8433,10 @@
         <v>893</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E315" s="1">
         <v>50000</v>
@@ -8243,10 +8447,10 @@
         <v>893</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="E316" s="1">
         <v>50000</v>
@@ -8257,10 +8461,10 @@
         <v>893</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E317" s="1">
         <v>50000</v>
@@ -8271,10 +8475,10 @@
         <v>893</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E318" s="1">
         <v>50000</v>
@@ -8285,10 +8489,10 @@
         <v>893</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E319" s="1">
         <v>50000</v>
@@ -8299,10 +8503,10 @@
         <v>893</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E320" s="1">
         <v>50000</v>
@@ -8313,10 +8517,10 @@
         <v>893</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>980</v>
+        <v>1063</v>
       </c>
       <c r="E321" s="1">
         <v>50000</v>
@@ -8327,10 +8531,10 @@
         <v>893</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>981</v>
+        <v>1064</v>
       </c>
       <c r="E322" s="1">
         <v>50000</v>
@@ -8341,10 +8545,10 @@
         <v>893</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="E323" s="1">
         <v>50000</v>
@@ -8355,10 +8559,10 @@
         <v>893</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="E324" s="1">
         <v>50000</v>
@@ -8366,142 +8570,142 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>854</v>
+        <v>931</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c r="E325" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>849</v>
+        <v>932</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>865</v>
+        <v>975</v>
       </c>
       <c r="E326" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>848</v>
+        <v>933</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="E327" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>852</v>
+        <v>934</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>868</v>
+        <v>977</v>
       </c>
       <c r="E328" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>840</v>
+        <v>935</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>856</v>
+        <v>978</v>
       </c>
       <c r="E329" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>853</v>
+        <v>936</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>869</v>
+        <v>979</v>
       </c>
       <c r="E330" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>843</v>
+        <v>937</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>859</v>
+        <v>980</v>
       </c>
       <c r="E331" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>851</v>
+        <v>938</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>867</v>
+        <v>981</v>
       </c>
       <c r="E332" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>839</v>
+        <v>939</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>855</v>
+        <v>982</v>
       </c>
       <c r="E333" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>862</v>
+        <v>983</v>
       </c>
       <c r="E334" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8509,10 +8713,10 @@
         <v>798</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>446</v>
+        <v>854</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>256</v>
+        <v>870</v>
       </c>
       <c r="E335" s="1">
         <v>25000</v>
@@ -8523,837 +8727,669 @@
         <v>798</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E336" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E337" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E338" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E339" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="E340" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E341" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E342" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E343" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E344" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E345" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E346" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E347" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E348" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E349" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E350" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E351" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B352" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E357" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+      <c r="E364" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C368" t="s">
         <v>1066</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E342" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E343" s="1">
+      <c r="E368" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E344" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E345" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E346" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E347" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E348" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E349" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E350" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E351" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E352" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E353" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H353" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E354" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H354" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E355" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E356" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H356" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E357" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G357" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H357" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E358" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G358" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H358" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E359" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H359" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E360" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G360" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H360" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E361" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G361" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H361" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E362" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G362" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="H362" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E363" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G363" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H363" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E364" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G364" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="H364" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E365" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G365" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H365" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E366" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G366" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H366" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E367" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H367" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E368" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G368" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H368" s="3" t="s">
-        <v>520</v>
+      <c r="F368" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E369" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G369" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="H369" s="3" t="s">
-        <v>522</v>
+        <v>1180</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
+      </c>
+      <c r="C370" t="s">
+        <v>143</v>
       </c>
       <c r="E370" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G370" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="H370" s="3" t="s">
-        <v>524</v>
+        <v>200</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E371" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G371" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="H371" s="3" t="s">
-        <v>526</v>
+        <v>1181</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F371" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E372" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G372" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H372" s="3" t="s">
-        <v>528</v>
+        <v>1182</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F372" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E373" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G373" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H373" s="3" t="s">
-        <v>530</v>
+        <v>1183</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F373" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E374" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G374" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H374" s="3" t="s">
-        <v>532</v>
+        <v>1184</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F374" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E375" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="H375" s="3" t="s">
-        <v>478</v>
+        <v>1185</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F375" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>706</v>
+        <v>783</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>472</v>
+        <v>677</v>
       </c>
       <c r="E376" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H376" s="3" t="s">
-        <v>534</v>
+        <v>980</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>707</v>
+        <v>782</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>472</v>
+        <v>676</v>
       </c>
       <c r="E377" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H377" s="3" t="s">
-        <v>536</v>
+        <v>980</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="E378" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G378" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>538</v>
+        <v>980</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E379" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>540</v>
+        <v>980</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>710</v>
+        <v>778</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
       <c r="E380" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G380" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="H380" s="3" t="s">
-        <v>542</v>
+        <v>980</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E381" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="H381" s="3" t="s">
-        <v>544</v>
+        <v>980</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E382" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G382" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>546</v>
+        <v>980</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -9361,7 +9397,7 @@
         <v>776</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>472</v>
@@ -9370,10 +9406,10 @@
         <v>10000</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>548</v>
+        <v>474</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -9381,7 +9417,7 @@
         <v>776</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>472</v>
@@ -9390,10 +9426,10 @@
         <v>10000</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -9401,7 +9437,7 @@
         <v>776</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>472</v>
@@ -9410,10 +9446,10 @@
         <v>10000</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -9421,7 +9457,7 @@
         <v>776</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>472</v>
@@ -9430,10 +9466,10 @@
         <v>10000</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -9441,7 +9477,7 @@
         <v>776</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>472</v>
@@ -9450,10 +9486,10 @@
         <v>10000</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>554</v>
+        <v>500</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -9461,7 +9497,7 @@
         <v>776</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>717</v>
+        <v>458</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>472</v>
@@ -9470,10 +9506,10 @@
         <v>10000</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>556</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -9481,7 +9517,7 @@
         <v>776</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>472</v>
@@ -9490,10 +9526,10 @@
         <v>10000</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>557</v>
+        <v>503</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -9501,7 +9537,7 @@
         <v>776</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>719</v>
+        <v>70</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>472</v>
@@ -9510,10 +9546,10 @@
         <v>10000</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -9521,7 +9557,7 @@
         <v>776</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>472</v>
@@ -9530,10 +9566,10 @@
         <v>10000</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -9541,7 +9577,7 @@
         <v>776</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>472</v>
@@ -9550,10 +9586,10 @@
         <v>10000</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>563</v>
+        <v>509</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -9561,7 +9597,7 @@
         <v>776</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>472</v>
@@ -9570,10 +9606,10 @@
         <v>10000</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -9581,7 +9617,7 @@
         <v>776</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>472</v>
@@ -9590,10 +9626,10 @@
         <v>10000</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>568</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -9601,7 +9637,7 @@
         <v>776</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>472</v>
@@ -9610,10 +9646,10 @@
         <v>10000</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -9621,7 +9657,7 @@
         <v>776</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>472</v>
@@ -9630,10 +9666,10 @@
         <v>10000</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -9641,7 +9677,7 @@
         <v>776</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>66</v>
+        <v>698</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>472</v>
@@ -9650,10 +9686,10 @@
         <v>10000</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -9661,7 +9697,7 @@
         <v>776</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>472</v>
@@ -9670,10 +9706,10 @@
         <v>10000</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -9681,7 +9717,7 @@
         <v>776</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>472</v>
@@ -9690,10 +9726,10 @@
         <v>10000</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>575</v>
+        <v>521</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -9701,7 +9737,7 @@
         <v>776</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>472</v>
@@ -9710,10 +9746,10 @@
         <v>10000</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -9721,7 +9757,7 @@
         <v>776</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>472</v>
@@ -9730,10 +9766,10 @@
         <v>10000</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -9741,7 +9777,7 @@
         <v>776</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>472</v>
@@ -9750,10 +9786,10 @@
         <v>10000</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>582</v>
+        <v>528</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -9761,7 +9797,7 @@
         <v>776</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>472</v>
@@ -9770,10 +9806,10 @@
         <v>10000</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>583</v>
+        <v>529</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>584</v>
+        <v>530</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -9781,7 +9817,7 @@
         <v>776</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>472</v>
@@ -9790,10 +9826,10 @@
         <v>10000</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>585</v>
+        <v>531</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>586</v>
+        <v>532</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -9801,7 +9837,7 @@
         <v>776</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>472</v>
@@ -9810,10 +9846,10 @@
         <v>10000</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>587</v>
+        <v>477</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>588</v>
+        <v>478</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -9821,7 +9857,7 @@
         <v>776</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>472</v>
@@ -9830,10 +9866,10 @@
         <v>10000</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -9841,7 +9877,7 @@
         <v>776</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>472</v>
@@ -9850,10 +9886,10 @@
         <v>10000</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -9861,7 +9897,7 @@
         <v>776</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>472</v>
@@ -9870,10 +9906,10 @@
         <v>10000</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -9881,7 +9917,7 @@
         <v>776</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>472</v>
@@ -9890,10 +9926,10 @@
         <v>10000</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -9901,7 +9937,7 @@
         <v>776</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>472</v>
@@ -9910,10 +9946,10 @@
         <v>10000</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -9921,7 +9957,7 @@
         <v>776</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>472</v>
@@ -9930,10 +9966,10 @@
         <v>10000</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -9941,7 +9977,7 @@
         <v>776</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>472</v>
@@ -9950,10 +9986,10 @@
         <v>10000</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>600</v>
+        <v>546</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -9961,7 +9997,7 @@
         <v>776</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>472</v>
@@ -9970,10 +10006,10 @@
         <v>10000</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>601</v>
+        <v>547</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>602</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -9981,7 +10017,7 @@
         <v>776</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>741</v>
+        <v>714</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>472</v>
@@ -9990,10 +10026,10 @@
         <v>10000</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -10001,7 +10037,7 @@
         <v>776</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>472</v>
@@ -10010,10 +10046,10 @@
         <v>10000</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>606</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -10021,7 +10057,7 @@
         <v>776</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>743</v>
+        <v>682</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>472</v>
@@ -10030,10 +10066,10 @@
         <v>10000</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>607</v>
+        <v>479</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>608</v>
+        <v>480</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -10041,7 +10077,7 @@
         <v>776</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>472</v>
@@ -10050,10 +10086,10 @@
         <v>10000</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -10061,7 +10097,7 @@
         <v>776</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>472</v>
@@ -10070,10 +10106,10 @@
         <v>10000</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -10081,7 +10117,7 @@
         <v>776</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>472</v>
@@ -10090,10 +10126,10 @@
         <v>10000</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -10101,7 +10137,7 @@
         <v>776</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>472</v>
@@ -10110,10 +10146,10 @@
         <v>10000</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>614</v>
+        <v>560</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -10121,7 +10157,7 @@
         <v>776</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>472</v>
@@ -10130,10 +10166,10 @@
         <v>10000</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -10141,7 +10177,7 @@
         <v>776</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>472</v>
@@ -10150,10 +10186,10 @@
         <v>10000</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -10161,7 +10197,7 @@
         <v>776</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>472</v>
@@ -10170,10 +10206,10 @@
         <v>10000</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -10181,7 +10217,7 @@
         <v>776</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>472</v>
@@ -10190,10 +10226,10 @@
         <v>10000</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -10201,7 +10237,7 @@
         <v>776</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>472</v>
@@ -10210,10 +10246,10 @@
         <v>10000</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>622</v>
+        <v>569</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -10221,7 +10257,7 @@
         <v>776</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>472</v>
@@ -10230,10 +10266,10 @@
         <v>10000</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -10241,7 +10277,7 @@
         <v>776</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>753</v>
+        <v>66</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>472</v>
@@ -10250,10 +10286,10 @@
         <v>10000</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>626</v>
+        <v>481</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>627</v>
+        <v>482</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -10261,7 +10297,7 @@
         <v>776</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>472</v>
@@ -10270,10 +10306,10 @@
         <v>10000</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -10281,7 +10317,7 @@
         <v>776</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>472</v>
@@ -10290,10 +10326,10 @@
         <v>10000</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -10301,7 +10337,7 @@
         <v>776</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>472</v>
@@ -10310,10 +10346,10 @@
         <v>10000</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -10321,7 +10357,7 @@
         <v>776</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>472</v>
@@ -10330,10 +10366,10 @@
         <v>10000</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -10341,7 +10377,7 @@
         <v>776</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>472</v>
@@ -10350,10 +10386,10 @@
         <v>10000</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -10361,7 +10397,7 @@
         <v>776</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>472</v>
@@ -10370,10 +10406,10 @@
         <v>10000</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>637</v>
+        <v>584</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -10381,7 +10417,7 @@
         <v>776</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>472</v>
@@ -10390,10 +10426,10 @@
         <v>10000</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -10401,7 +10437,7 @@
         <v>776</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>472</v>
@@ -10410,10 +10446,10 @@
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -10421,7 +10457,7 @@
         <v>776</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>472</v>
@@ -10430,10 +10466,10 @@
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -10441,7 +10477,7 @@
         <v>776</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>472</v>
@@ -10450,10 +10486,10 @@
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -10461,7 +10497,7 @@
         <v>776</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>472</v>
@@ -10470,10 +10506,10 @@
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>646</v>
+        <v>483</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>647</v>
+        <v>484</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -10481,7 +10517,7 @@
         <v>776</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>472</v>
@@ -10490,10 +10526,10 @@
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>649</v>
+        <v>594</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -10501,7 +10537,7 @@
         <v>776</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>472</v>
@@ -10510,10 +10546,10 @@
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>650</v>
+        <v>595</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>651</v>
+        <v>596</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -10521,7 +10557,7 @@
         <v>776</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>472</v>
@@ -10530,10 +10566,10 @@
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>489</v>
+        <v>597</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>490</v>
+        <v>598</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -10541,7 +10577,7 @@
         <v>776</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>472</v>
@@ -10550,10 +10586,10 @@
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -10561,7 +10597,7 @@
         <v>776</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -10570,10 +10606,10 @@
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -10581,7 +10617,7 @@
         <v>776</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>472</v>
@@ -10590,10 +10626,10 @@
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -10601,7 +10637,7 @@
         <v>776</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>472</v>
@@ -10610,10 +10646,10 @@
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -10621,7 +10657,7 @@
         <v>776</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>472</v>
@@ -10630,10 +10666,10 @@
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -10641,7 +10677,7 @@
         <v>776</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>472</v>
@@ -10650,10 +10686,10 @@
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -10661,7 +10697,7 @@
         <v>776</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>472</v>
@@ -10670,10 +10706,10 @@
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -10681,7 +10717,7 @@
         <v>776</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>472</v>
@@ -10690,10 +10726,10 @@
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>666</v>
+        <v>485</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>667</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -10701,7 +10737,7 @@
         <v>776</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>472</v>
@@ -10710,10 +10746,10 @@
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>669</v>
+        <v>614</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -10721,7 +10757,7 @@
         <v>776</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>472</v>
@@ -10730,10 +10766,10 @@
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -10741,7 +10777,7 @@
         <v>776</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>687</v>
+        <v>748</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>472</v>
@@ -10750,629 +10786,809 @@
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>491</v>
+        <v>616</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>492</v>
+        <v>617</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>451</v>
+        <v>749</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E453" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>34</v>
+        <v>750</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E454" s="1">
-        <v>500000</v>
+        <v>10000</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>33</v>
+        <v>751</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="E455" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1069</v>
+        <v>752</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1070</v>
+        <v>472</v>
       </c>
       <c r="E456" s="1">
-        <v>1000000</v>
+        <v>10000</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1073</v>
+        <v>753</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1075</v>
+        <v>472</v>
       </c>
       <c r="E457" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F457" s="1">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1074</v>
+        <v>754</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1076</v>
+        <v>472</v>
       </c>
       <c r="E458" s="1">
-        <v>400</v>
-      </c>
-      <c r="F458" s="1">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>35</v>
+        <v>755</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>42</v>
+        <v>472</v>
       </c>
       <c r="E459" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>38</v>
+        <v>685</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="E460" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>14</v>
+        <v>756</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="E461" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>13</v>
+        <v>757</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>19</v>
+        <v>472</v>
       </c>
       <c r="E462" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>9</v>
+        <v>758</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>17</v>
+        <v>472</v>
       </c>
       <c r="E463" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E464" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E465" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E466" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E467" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E468" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E469" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E470" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E471" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E472" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E473" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E474" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E475" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E476" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E477" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E478" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E479" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E480" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E481" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E482" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E464" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E465" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E466" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E467" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E468" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E469" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E470" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E471" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E472" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E473" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E474" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E475" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E476" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E477" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E478" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E479" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E480" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E481" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E482" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="B483" s="2" t="s">
-        <v>816</v>
+        <v>451</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1035</v>
+        <v>262</v>
       </c>
       <c r="E483" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>825</v>
+        <v>34</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1044</v>
+        <v>41</v>
       </c>
       <c r="E484" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>826</v>
+        <v>33</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1045</v>
+        <v>40</v>
       </c>
       <c r="E485" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>827</v>
+        <v>1068</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="E486" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>828</v>
+        <v>1072</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="E487" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F487" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>829</v>
+        <v>1073</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="E488" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F488" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>830</v>
+        <v>35</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1049</v>
+        <v>42</v>
       </c>
       <c r="E489" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>831</v>
+        <v>38</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1050</v>
+        <v>44</v>
       </c>
       <c r="E490" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>817</v>
+        <v>14</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1036</v>
+        <v>20</v>
       </c>
       <c r="E491" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>832</v>
+        <v>13</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1051</v>
+        <v>19</v>
       </c>
       <c r="E492" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>833</v>
+        <v>9</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1052</v>
+        <v>17</v>
       </c>
       <c r="E493" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>818</v>
+        <v>10</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1037</v>
+        <v>16</v>
       </c>
       <c r="E494" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>834</v>
+        <v>12</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1053</v>
+        <v>18</v>
       </c>
       <c r="E495" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>819</v>
+        <v>11</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1038</v>
+        <v>15</v>
       </c>
       <c r="E496" s="1">
         <v>25000</v>
@@ -11380,30 +11596,30 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>835</v>
+        <v>32</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1054</v>
+        <v>39</v>
       </c>
       <c r="E497" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>836</v>
+        <v>1070</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="E498" s="1">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -11411,10 +11627,10 @@
         <v>804</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E499" s="1">
         <v>25000</v>
@@ -11425,10 +11641,10 @@
         <v>804</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1056</v>
+        <v>1024</v>
       </c>
       <c r="E500" s="1">
         <v>25000</v>
@@ -11439,10 +11655,10 @@
         <v>804</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1057</v>
+        <v>1025</v>
       </c>
       <c r="E501" s="1">
         <v>25000</v>
@@ -11453,21 +11669,441 @@
         <v>804</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E502" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E503" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E504" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E505" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E506" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E507" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E508" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E509" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E510" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E511" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E512" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E513" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E514" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E515" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E516" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E517" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E518" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E519" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E520" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E521" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E522" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E523" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E524" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E525" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E526" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E527" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E528" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E529" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E530" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E531" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E532" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H503">
-    <sortCondition ref="A2:A503"/>
-    <sortCondition ref="C2:C503"/>
-    <sortCondition ref="D2:D503"/>
-    <sortCondition ref="H2:H503"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H532">
+    <sortCondition ref="A2:A532"/>
+    <sortCondition ref="C2:C532"/>
+    <sortCondition ref="D2:D532"/>
+    <sortCondition ref="H2:H532"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF6C63-5C57-4D6B-BB37-200F82890FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813659A5-E8FA-4728-99CB-93650E306455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="1201">
   <si>
     <t>Item Name</t>
   </si>
@@ -3592,6 +3592,51 @@
   </si>
   <si>
     <t>Ultra Ball</t>
+  </si>
+  <si>
+    <t>Relic</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_crown</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_statue</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_band</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_vase</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_gold</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_silver</t>
+  </si>
+  <si>
+    <t>pixelmon:relic_copper</t>
+  </si>
+  <si>
+    <t>Relic Crown</t>
+  </si>
+  <si>
+    <t>Relic Statue</t>
+  </si>
+  <si>
+    <t>Relic Band</t>
+  </si>
+  <si>
+    <t>Relic Vase</t>
+  </si>
+  <si>
+    <t>Relic Gold</t>
+  </si>
+  <si>
+    <t>Relic Silver</t>
+  </si>
+  <si>
+    <t>Relic Copper</t>
   </si>
 </sst>
 </file>
@@ -3918,11 +3963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H532"/>
+  <dimension ref="A1:H539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I378" sqref="I378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9193,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>269</v>
       </c>
@@ -9207,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>269</v>
       </c>
@@ -9224,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>269</v>
       </c>
@@ -9238,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>269</v>
       </c>
@@ -9252,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>269</v>
       </c>
@@ -9266,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>269</v>
       </c>
@@ -9280,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>269</v>
       </c>
@@ -9294,242 +9339,200 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F376" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F378" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F379" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F380" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F381" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F382" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B383" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C383" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="E376" s="1">
+      <c r="E383" s="1">
         <v>980</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C384" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E377" s="1">
+      <c r="E384" s="1">
         <v>980</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E378" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E379" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E380" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E381" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E382" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E383" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G383" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H383" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E384" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G384" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="E385" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G385" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H385" s="3" t="s">
-        <v>496</v>
+        <v>980</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E386" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H386" s="3" t="s">
-        <v>498</v>
+        <v>980</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
       <c r="E387" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>500</v>
+        <v>980</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>458</v>
+        <v>781</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E388" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G388" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H388" s="3" t="s">
-        <v>502</v>
+        <v>980</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E389" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G389" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H389" s="3" t="s">
-        <v>504</v>
+        <v>980</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -9537,7 +9540,7 @@
         <v>776</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>70</v>
+        <v>679</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>472</v>
@@ -9546,10 +9549,10 @@
         <v>10000</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -9557,7 +9560,7 @@
         <v>776</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>472</v>
@@ -9566,10 +9569,10 @@
         <v>10000</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -9577,7 +9580,7 @@
         <v>776</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>472</v>
@@ -9586,10 +9589,10 @@
         <v>10000</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -9597,7 +9600,7 @@
         <v>776</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>472</v>
@@ -9606,10 +9609,10 @@
         <v>10000</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -9617,7 +9620,7 @@
         <v>776</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>472</v>
@@ -9626,10 +9629,10 @@
         <v>10000</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -9637,7 +9640,7 @@
         <v>776</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>472</v>
@@ -9646,10 +9649,10 @@
         <v>10000</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -9657,7 +9660,7 @@
         <v>776</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>472</v>
@@ -9666,10 +9669,10 @@
         <v>10000</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -9677,7 +9680,7 @@
         <v>776</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>698</v>
+        <v>70</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>472</v>
@@ -9686,10 +9689,10 @@
         <v>10000</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -9697,7 +9700,7 @@
         <v>776</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>472</v>
@@ -9706,10 +9709,10 @@
         <v>10000</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -9717,7 +9720,7 @@
         <v>776</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>472</v>
@@ -9726,10 +9729,10 @@
         <v>10000</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -9737,7 +9740,7 @@
         <v>776</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>472</v>
@@ -9746,10 +9749,10 @@
         <v>10000</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -9757,7 +9760,7 @@
         <v>776</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>472</v>
@@ -9766,10 +9769,10 @@
         <v>10000</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -9777,7 +9780,7 @@
         <v>776</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>472</v>
@@ -9786,10 +9789,10 @@
         <v>10000</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -9797,7 +9800,7 @@
         <v>776</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>472</v>
@@ -9806,10 +9809,10 @@
         <v>10000</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -9817,7 +9820,7 @@
         <v>776</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>472</v>
@@ -9826,10 +9829,10 @@
         <v>10000</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -9837,7 +9840,7 @@
         <v>776</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>472</v>
@@ -9846,10 +9849,10 @@
         <v>10000</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -9857,7 +9860,7 @@
         <v>776</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>472</v>
@@ -9866,10 +9869,10 @@
         <v>10000</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -9877,7 +9880,7 @@
         <v>776</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>472</v>
@@ -9886,10 +9889,10 @@
         <v>10000</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -9897,7 +9900,7 @@
         <v>776</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>472</v>
@@ -9906,10 +9909,10 @@
         <v>10000</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -9917,7 +9920,7 @@
         <v>776</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>472</v>
@@ -9926,10 +9929,10 @@
         <v>10000</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -9937,7 +9940,7 @@
         <v>776</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>472</v>
@@ -9946,10 +9949,10 @@
         <v>10000</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -9957,7 +9960,7 @@
         <v>776</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>472</v>
@@ -9966,10 +9969,10 @@
         <v>10000</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -9977,7 +9980,7 @@
         <v>776</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>472</v>
@@ -9986,10 +9989,10 @@
         <v>10000</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -9997,7 +10000,7 @@
         <v>776</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>472</v>
@@ -10006,10 +10009,10 @@
         <v>10000</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -10017,7 +10020,7 @@
         <v>776</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>472</v>
@@ -10026,10 +10029,10 @@
         <v>10000</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -10037,7 +10040,7 @@
         <v>776</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>472</v>
@@ -10046,10 +10049,10 @@
         <v>10000</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -10057,7 +10060,7 @@
         <v>776</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>472</v>
@@ -10066,10 +10069,10 @@
         <v>10000</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -10077,7 +10080,7 @@
         <v>776</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>472</v>
@@ -10086,10 +10089,10 @@
         <v>10000</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -10097,7 +10100,7 @@
         <v>776</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>472</v>
@@ -10106,10 +10109,10 @@
         <v>10000</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -10117,7 +10120,7 @@
         <v>776</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>472</v>
@@ -10126,10 +10129,10 @@
         <v>10000</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -10137,7 +10140,7 @@
         <v>776</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>472</v>
@@ -10146,10 +10149,10 @@
         <v>10000</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -10157,7 +10160,7 @@
         <v>776</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>472</v>
@@ -10166,10 +10169,10 @@
         <v>10000</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -10177,7 +10180,7 @@
         <v>776</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>472</v>
@@ -10186,10 +10189,10 @@
         <v>10000</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -10197,7 +10200,7 @@
         <v>776</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>472</v>
@@ -10206,10 +10209,10 @@
         <v>10000</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>566</v>
+        <v>480</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -10217,7 +10220,7 @@
         <v>776</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>472</v>
@@ -10226,10 +10229,10 @@
         <v>10000</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -10237,7 +10240,7 @@
         <v>776</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>472</v>
@@ -10246,10 +10249,10 @@
         <v>10000</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -10257,7 +10260,7 @@
         <v>776</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>472</v>
@@ -10266,10 +10269,10 @@
         <v>10000</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -10277,7 +10280,7 @@
         <v>776</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>66</v>
+        <v>719</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>472</v>
@@ -10286,10 +10289,10 @@
         <v>10000</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -10297,7 +10300,7 @@
         <v>776</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>472</v>
@@ -10306,10 +10309,10 @@
         <v>10000</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -10317,7 +10320,7 @@
         <v>776</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>472</v>
@@ -10326,10 +10329,10 @@
         <v>10000</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -10337,7 +10340,7 @@
         <v>776</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>472</v>
@@ -10346,10 +10349,10 @@
         <v>10000</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -10357,7 +10360,7 @@
         <v>776</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>472</v>
@@ -10366,10 +10369,10 @@
         <v>10000</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -10377,7 +10380,7 @@
         <v>776</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>472</v>
@@ -10386,10 +10389,10 @@
         <v>10000</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -10397,7 +10400,7 @@
         <v>776</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>472</v>
@@ -10406,10 +10409,10 @@
         <v>10000</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -10417,7 +10420,7 @@
         <v>776</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>732</v>
+        <v>66</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>472</v>
@@ -10426,10 +10429,10 @@
         <v>10000</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>586</v>
+        <v>482</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -10437,7 +10440,7 @@
         <v>776</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>472</v>
@@ -10446,10 +10449,10 @@
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -10457,7 +10460,7 @@
         <v>776</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>472</v>
@@ -10466,10 +10469,10 @@
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -10477,7 +10480,7 @@
         <v>776</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>472</v>
@@ -10486,10 +10489,10 @@
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -10497,7 +10500,7 @@
         <v>776</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>472</v>
@@ -10506,10 +10509,10 @@
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -10517,7 +10520,7 @@
         <v>776</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>472</v>
@@ -10526,10 +10529,10 @@
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -10537,7 +10540,7 @@
         <v>776</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>472</v>
@@ -10546,10 +10549,10 @@
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -10557,7 +10560,7 @@
         <v>776</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>472</v>
@@ -10566,10 +10569,10 @@
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -10577,7 +10580,7 @@
         <v>776</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>472</v>
@@ -10586,10 +10589,10 @@
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -10597,7 +10600,7 @@
         <v>776</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -10606,10 +10609,10 @@
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -10617,7 +10620,7 @@
         <v>776</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>472</v>
@@ -10626,10 +10629,10 @@
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -10637,7 +10640,7 @@
         <v>776</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>472</v>
@@ -10646,10 +10649,10 @@
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>605</v>
+        <v>483</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>606</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -10657,7 +10660,7 @@
         <v>776</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>472</v>
@@ -10666,10 +10669,10 @@
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -10677,7 +10680,7 @@
         <v>776</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>472</v>
@@ -10686,10 +10689,10 @@
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -10697,7 +10700,7 @@
         <v>776</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>472</v>
@@ -10706,10 +10709,10 @@
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -10717,7 +10720,7 @@
         <v>776</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>472</v>
@@ -10726,10 +10729,10 @@
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>485</v>
+        <v>599</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>486</v>
+        <v>600</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -10737,7 +10740,7 @@
         <v>776</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>472</v>
@@ -10746,10 +10749,10 @@
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -10757,7 +10760,7 @@
         <v>776</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>472</v>
@@ -10766,10 +10769,10 @@
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -10777,7 +10780,7 @@
         <v>776</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>472</v>
@@ -10786,10 +10789,10 @@
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -10797,7 +10800,7 @@
         <v>776</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>472</v>
@@ -10806,10 +10809,10 @@
         <v>10000</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -10817,7 +10820,7 @@
         <v>776</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>472</v>
@@ -10826,10 +10829,10 @@
         <v>10000</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -10837,7 +10840,7 @@
         <v>776</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>472</v>
@@ -10846,10 +10849,10 @@
         <v>10000</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -10857,7 +10860,7 @@
         <v>776</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>752</v>
+        <v>684</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>472</v>
@@ -10866,10 +10869,10 @@
         <v>10000</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>624</v>
+        <v>485</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>625</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -10877,7 +10880,7 @@
         <v>776</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>472</v>
@@ -10886,10 +10889,10 @@
         <v>10000</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -10897,7 +10900,7 @@
         <v>776</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>472</v>
@@ -10906,10 +10909,10 @@
         <v>10000</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -10917,7 +10920,7 @@
         <v>776</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>472</v>
@@ -10926,10 +10929,10 @@
         <v>10000</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -10937,7 +10940,7 @@
         <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>472</v>
@@ -10946,10 +10949,10 @@
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -10957,7 +10960,7 @@
         <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>472</v>
@@ -10966,10 +10969,10 @@
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -10977,7 +10980,7 @@
         <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>472</v>
@@ -10986,10 +10989,10 @@
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,7 +11000,7 @@
         <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>472</v>
@@ -11006,10 +11009,10 @@
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -11017,7 +11020,7 @@
         <v>776</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>472</v>
@@ -11026,10 +11029,10 @@
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -11037,7 +11040,7 @@
         <v>776</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>472</v>
@@ -11046,10 +11049,10 @@
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -11057,7 +11060,7 @@
         <v>776</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>472</v>
@@ -11066,10 +11069,10 @@
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -11077,7 +11080,7 @@
         <v>776</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>762</v>
+        <v>685</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>472</v>
@@ -11086,10 +11089,10 @@
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>644</v>
+        <v>487</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>645</v>
+        <v>488</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -11097,7 +11100,7 @@
         <v>776</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>472</v>
@@ -11106,10 +11109,10 @@
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -11117,7 +11120,7 @@
         <v>776</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -11126,10 +11129,10 @@
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -11137,7 +11140,7 @@
         <v>776</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>472</v>
@@ -11146,10 +11149,10 @@
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -11157,7 +11160,7 @@
         <v>776</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>472</v>
@@ -11166,10 +11169,10 @@
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>489</v>
+        <v>638</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>490</v>
+        <v>639</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -11177,7 +11180,7 @@
         <v>776</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>472</v>
@@ -11186,10 +11189,10 @@
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -11197,7 +11200,7 @@
         <v>776</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>472</v>
@@ -11206,10 +11209,10 @@
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -11217,7 +11220,7 @@
         <v>776</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
@@ -11226,10 +11229,10 @@
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -11237,7 +11240,7 @@
         <v>776</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>472</v>
@@ -11246,10 +11249,10 @@
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -11257,7 +11260,7 @@
         <v>776</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>472</v>
@@ -11266,10 +11269,10 @@
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -11277,7 +11280,7 @@
         <v>776</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>472</v>
@@ -11286,10 +11289,10 @@
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -11297,7 +11300,7 @@
         <v>776</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>472</v>
@@ -11306,10 +11309,10 @@
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>664</v>
+        <v>489</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>665</v>
+        <v>490</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -11317,7 +11320,7 @@
         <v>776</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>472</v>
@@ -11326,10 +11329,10 @@
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -11337,7 +11340,7 @@
         <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>472</v>
@@ -11346,10 +11349,10 @@
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -11357,7 +11360,7 @@
         <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>472</v>
@@ -11366,10 +11369,10 @@
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -11377,7 +11380,7 @@
         <v>776</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>472</v>
@@ -11386,114 +11389,150 @@
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>491</v>
+        <v>658</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>492</v>
+        <v>659</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>451</v>
+        <v>770</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E483" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>34</v>
+        <v>771</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E484" s="1">
-        <v>500000</v>
+        <v>10000</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>33</v>
+        <v>772</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="E485" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1068</v>
+        <v>773</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1069</v>
+        <v>472</v>
       </c>
       <c r="E486" s="1">
-        <v>1000000</v>
+        <v>10000</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1072</v>
+        <v>774</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1074</v>
+        <v>472</v>
       </c>
       <c r="E487" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F487" s="1">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1073</v>
+        <v>775</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1075</v>
+        <v>472</v>
       </c>
       <c r="E488" s="1">
-        <v>400</v>
-      </c>
-      <c r="F488" s="1">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>35</v>
+        <v>687</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>42</v>
+        <v>472</v>
       </c>
       <c r="E489" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -11501,13 +11540,13 @@
         <v>799</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>38</v>
+        <v>451</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="E490" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -11515,13 +11554,13 @@
         <v>799</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E491" s="1">
-        <v>25000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -11529,13 +11568,13 @@
         <v>799</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E492" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -11543,13 +11582,13 @@
         <v>799</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>9</v>
+        <v>1068</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>17</v>
+        <v>1069</v>
       </c>
       <c r="E493" s="1">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -11557,13 +11596,16 @@
         <v>799</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>10</v>
+        <v>1072</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>16</v>
+        <v>1074</v>
       </c>
       <c r="E494" s="1">
-        <v>25000</v>
+        <v>1000</v>
+      </c>
+      <c r="F494" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -11571,13 +11613,16 @@
         <v>799</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>12</v>
+        <v>1073</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>18</v>
+        <v>1075</v>
       </c>
       <c r="E495" s="1">
-        <v>25000</v>
+        <v>400</v>
+      </c>
+      <c r="F495" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -11585,13 +11630,13 @@
         <v>799</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E496" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -11599,13 +11644,13 @@
         <v>799</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E497" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -11613,24 +11658,24 @@
         <v>799</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1070</v>
+        <v>14</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1071</v>
+        <v>20</v>
       </c>
       <c r="E498" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>822</v>
+        <v>13</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1041</v>
+        <v>19</v>
       </c>
       <c r="E499" s="1">
         <v>25000</v>
@@ -11638,13 +11683,13 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>805</v>
+        <v>9</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1024</v>
+        <v>17</v>
       </c>
       <c r="E500" s="1">
         <v>25000</v>
@@ -11652,13 +11697,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>806</v>
+        <v>10</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1025</v>
+        <v>16</v>
       </c>
       <c r="E501" s="1">
         <v>25000</v>
@@ -11666,13 +11711,13 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>823</v>
+        <v>12</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1042</v>
+        <v>18</v>
       </c>
       <c r="E502" s="1">
         <v>25000</v>
@@ -11680,13 +11725,13 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>807</v>
+        <v>11</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1026</v>
+        <v>15</v>
       </c>
       <c r="E503" s="1">
         <v>25000</v>
@@ -11694,30 +11739,30 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>824</v>
+        <v>32</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1043</v>
+        <v>39</v>
       </c>
       <c r="E504" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>808</v>
+        <v>1070</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1027</v>
+        <v>1071</v>
       </c>
       <c r="E505" s="1">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -11725,10 +11770,10 @@
         <v>804</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="E506" s="1">
         <v>25000</v>
@@ -11739,10 +11784,10 @@
         <v>804</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E507" s="1">
         <v>25000</v>
@@ -11753,10 +11798,10 @@
         <v>804</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E508" s="1">
         <v>25000</v>
@@ -11767,10 +11812,10 @@
         <v>804</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="E509" s="1">
         <v>25000</v>
@@ -11781,10 +11826,10 @@
         <v>804</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E510" s="1">
         <v>25000</v>
@@ -11795,10 +11840,10 @@
         <v>804</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="E511" s="1">
         <v>25000</v>
@@ -11809,10 +11854,10 @@
         <v>804</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E512" s="1">
         <v>25000</v>
@@ -11823,10 +11868,10 @@
         <v>804</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="E513" s="1">
         <v>25000</v>
@@ -11837,10 +11882,10 @@
         <v>804</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E514" s="1">
         <v>25000</v>
@@ -11851,10 +11896,10 @@
         <v>804</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="E515" s="1">
         <v>25000</v>
@@ -11865,10 +11910,10 @@
         <v>804</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E516" s="1">
         <v>25000</v>
@@ -11879,10 +11924,10 @@
         <v>804</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E517" s="1">
         <v>25000</v>
@@ -11893,10 +11938,10 @@
         <v>804</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="E518" s="1">
         <v>25000</v>
@@ -11907,10 +11952,10 @@
         <v>804</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E519" s="1">
         <v>25000</v>
@@ -11921,10 +11966,10 @@
         <v>804</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E520" s="1">
         <v>25000</v>
@@ -11935,10 +11980,10 @@
         <v>804</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="E521" s="1">
         <v>25000</v>
@@ -11949,10 +11994,10 @@
         <v>804</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E522" s="1">
         <v>25000</v>
@@ -11963,10 +12008,10 @@
         <v>804</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E523" s="1">
         <v>25000</v>
@@ -11977,10 +12022,10 @@
         <v>804</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="E524" s="1">
         <v>25000</v>
@@ -11991,10 +12036,10 @@
         <v>804</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E525" s="1">
         <v>25000</v>
@@ -12005,10 +12050,10 @@
         <v>804</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E526" s="1">
         <v>25000</v>
@@ -12019,10 +12064,10 @@
         <v>804</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E527" s="1">
         <v>25000</v>
@@ -12033,10 +12078,10 @@
         <v>804</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="E528" s="1">
         <v>25000</v>
@@ -12047,10 +12092,10 @@
         <v>804</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="E529" s="1">
         <v>25000</v>
@@ -12061,10 +12106,10 @@
         <v>804</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E530" s="1">
         <v>25000</v>
@@ -12075,10 +12120,10 @@
         <v>804</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="E531" s="1">
         <v>25000</v>
@@ -12089,21 +12134,119 @@
         <v>804</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="E532" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E533" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E534" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E535" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E536" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E537" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E538" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E539" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H532">
-    <sortCondition ref="A2:A532"/>
-    <sortCondition ref="C2:C532"/>
-    <sortCondition ref="D2:D532"/>
-    <sortCondition ref="H2:H532"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H539">
+    <sortCondition ref="A2:A539"/>
+    <sortCondition ref="C2:C539"/>
+    <sortCondition ref="D2:D539"/>
+    <sortCondition ref="H2:H539"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813659A5-E8FA-4728-99CB-93650E306455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD6131-28D9-4C7A-B07B-700D61DFF11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1231">
   <si>
     <t>Item Name</t>
   </si>
@@ -3637,6 +3637,96 @@
   </si>
   <si>
     <t>Relic Copper</t>
+  </si>
+  <si>
+    <t>Cherish Ball</t>
+  </si>
+  <si>
+    <t>Safari Ball</t>
+  </si>
+  <si>
+    <t>pixelmon:cherish_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:safari_ball</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "dive_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "dusk_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "fast_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "friend_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "great_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "gs_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "heal_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "heavy_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "level_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "love_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "lure_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "luxury_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "master_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "moon_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "nest_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "net_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "park_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "poke_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "premier_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "quick_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "repeat_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "sport_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "timer_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "ultra_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "cherish_ball"}</t>
+  </si>
+  <si>
+    <t>{"PokeBallID": "safari_ball"}</t>
   </si>
 </sst>
 </file>
@@ -3963,11 +4053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H539"/>
+  <dimension ref="A1:H541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I378" sqref="I378"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G492" sqref="G492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,7 +4067,7 @@
     <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4154,7 +4244,6 @@
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4170,7 +4259,6 @@
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -4186,7 +4274,6 @@
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4202,7 +4289,6 @@
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4218,7 +4304,6 @@
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -4234,7 +4319,6 @@
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -4250,7 +4334,6 @@
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -8781,7 +8864,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>798</v>
       </c>
@@ -8795,7 +8878,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>798</v>
       </c>
@@ -8809,7 +8892,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>798</v>
       </c>
@@ -8823,7 +8906,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>798</v>
       </c>
@@ -8837,7 +8920,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>798</v>
       </c>
@@ -8851,7 +8934,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>798</v>
       </c>
@@ -8865,7 +8948,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>798</v>
       </c>
@@ -8879,7 +8962,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>798</v>
       </c>
@@ -8893,7 +8976,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>798</v>
       </c>
@@ -8907,7 +8990,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>798</v>
       </c>
@@ -8921,7 +9004,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>798</v>
       </c>
@@ -8935,7 +9018,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>798</v>
       </c>
@@ -8949,7 +9032,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>798</v>
       </c>
@@ -8963,7 +9046,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>798</v>
       </c>
@@ -8977,7 +9060,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>798</v>
       </c>
@@ -8991,7 +9074,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>269</v>
       </c>
@@ -8999,13 +9082,19 @@
         <v>1165</v>
       </c>
       <c r="C352" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="F352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>269</v>
       </c>
@@ -9013,13 +9102,19 @@
         <v>1166</v>
       </c>
       <c r="C353" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="F353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>269</v>
       </c>
@@ -9027,13 +9122,19 @@
         <v>1167</v>
       </c>
       <c r="C354" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="F354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>269</v>
       </c>
@@ -9041,13 +9142,19 @@
         <v>1168</v>
       </c>
       <c r="C355" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F355" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>269</v>
       </c>
@@ -9055,13 +9162,19 @@
         <v>1169</v>
       </c>
       <c r="C356" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F356" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>269</v>
       </c>
@@ -9069,7 +9182,7 @@
         <v>1170</v>
       </c>
       <c r="C357" t="s">
-        <v>1067</v>
+        <v>1124</v>
       </c>
       <c r="E357" s="1">
         <v>250000</v>
@@ -9077,8 +9190,14 @@
       <c r="F357" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>269</v>
       </c>
@@ -9086,13 +9205,19 @@
         <v>1171</v>
       </c>
       <c r="C358" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="F358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>269</v>
       </c>
@@ -9100,13 +9225,19 @@
         <v>1172</v>
       </c>
       <c r="C359" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="F359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>269</v>
       </c>
@@ -9114,13 +9245,19 @@
         <v>1173</v>
       </c>
       <c r="C360" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>269</v>
       </c>
@@ -9128,13 +9265,19 @@
         <v>1174</v>
       </c>
       <c r="C361" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="F361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>269</v>
       </c>
@@ -9142,13 +9285,19 @@
         <v>1175</v>
       </c>
       <c r="C362" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="F362" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>269</v>
       </c>
@@ -9156,13 +9305,19 @@
         <v>1176</v>
       </c>
       <c r="C363" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="F363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>269</v>
       </c>
@@ -9170,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>2</v>
+        <v>1124</v>
       </c>
       <c r="E364" s="1">
         <v>500000</v>
@@ -9178,8 +9333,14 @@
       <c r="F364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" t="s">
+        <v>2</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>269</v>
       </c>
@@ -9187,13 +9348,19 @@
         <v>1177</v>
       </c>
       <c r="C365" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>269</v>
       </c>
@@ -9201,13 +9368,19 @@
         <v>1178</v>
       </c>
       <c r="C366" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="F366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>269</v>
       </c>
@@ -9215,13 +9388,19 @@
         <v>1179</v>
       </c>
       <c r="C367" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="F367" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>269</v>
       </c>
@@ -9229,7 +9408,7 @@
         <v>1065</v>
       </c>
       <c r="C368" t="s">
-        <v>1066</v>
+        <v>1124</v>
       </c>
       <c r="E368" s="1">
         <v>500000</v>
@@ -9237,8 +9416,14 @@
       <c r="F368" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>269</v>
       </c>
@@ -9251,8 +9436,14 @@
       <c r="F369" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>269</v>
       </c>
@@ -9260,7 +9451,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>143</v>
+        <v>1124</v>
       </c>
       <c r="E370" s="1">
         <v>200</v>
@@ -9268,8 +9459,14 @@
       <c r="F370" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" t="s">
+        <v>143</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>269</v>
       </c>
@@ -9277,13 +9474,19 @@
         <v>1181</v>
       </c>
       <c r="C371" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="F371" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>269</v>
       </c>
@@ -9291,13 +9494,19 @@
         <v>1182</v>
       </c>
       <c r="C372" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="F372" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>269</v>
       </c>
@@ -9305,13 +9514,19 @@
         <v>1183</v>
       </c>
       <c r="C373" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="F373" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>269</v>
       </c>
@@ -9319,13 +9534,19 @@
         <v>1184</v>
       </c>
       <c r="C374" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="F374" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>269</v>
       </c>
@@ -9333,136 +9554,154 @@
         <v>1185</v>
       </c>
       <c r="C375" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F375" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>1189</v>
+        <v>1201</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1124</v>
       </c>
       <c r="F376" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>1193</v>
+        <v>1202</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1124</v>
       </c>
       <c r="F377" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F378" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F379" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="F380" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F381" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F382" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F383" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C384" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="F382" s="1">
+      <c r="F384" s="1">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E383" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E384" s="1">
-        <v>980</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -9470,10 +9709,10 @@
         <v>1058</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E385" s="1">
         <v>980</v>
@@ -9484,10 +9723,10 @@
         <v>1058</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E386" s="1">
         <v>980</v>
@@ -9498,10 +9737,10 @@
         <v>1058</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E387" s="1">
         <v>980</v>
@@ -9512,10 +9751,10 @@
         <v>1058</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E388" s="1">
         <v>980</v>
@@ -9526,10 +9765,10 @@
         <v>1058</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E389" s="1">
         <v>980</v>
@@ -9537,42 +9776,30 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E390" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H390" s="3" t="s">
-        <v>474</v>
+        <v>980</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E391" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>494</v>
+        <v>980</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -9580,7 +9807,7 @@
         <v>776</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>472</v>
@@ -9589,10 +9816,10 @@
         <v>10000</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -9600,7 +9827,7 @@
         <v>776</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>472</v>
@@ -9609,10 +9836,10 @@
         <v>10000</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -9620,7 +9847,7 @@
         <v>776</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>472</v>
@@ -9629,10 +9856,10 @@
         <v>10000</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -9640,7 +9867,7 @@
         <v>776</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>458</v>
+        <v>690</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>472</v>
@@ -9649,10 +9876,10 @@
         <v>10000</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -9660,7 +9887,7 @@
         <v>776</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>472</v>
@@ -9669,10 +9896,10 @@
         <v>10000</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -9680,7 +9907,7 @@
         <v>776</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>472</v>
@@ -9689,10 +9916,10 @@
         <v>10000</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -9700,7 +9927,7 @@
         <v>776</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>472</v>
@@ -9709,10 +9936,10 @@
         <v>10000</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -9720,7 +9947,7 @@
         <v>776</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>694</v>
+        <v>70</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>472</v>
@@ -9729,10 +9956,10 @@
         <v>10000</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -9740,7 +9967,7 @@
         <v>776</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>472</v>
@@ -9749,10 +9976,10 @@
         <v>10000</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -9760,7 +9987,7 @@
         <v>776</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>472</v>
@@ -9769,10 +9996,10 @@
         <v>10000</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -9780,7 +10007,7 @@
         <v>776</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>472</v>
@@ -9789,10 +10016,10 @@
         <v>10000</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -9800,7 +10027,7 @@
         <v>776</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>472</v>
@@ -9809,10 +10036,10 @@
         <v>10000</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -9820,7 +10047,7 @@
         <v>776</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>472</v>
@@ -9829,10 +10056,10 @@
         <v>10000</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -9840,7 +10067,7 @@
         <v>776</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>472</v>
@@ -9849,10 +10076,10 @@
         <v>10000</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -9860,7 +10087,7 @@
         <v>776</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>472</v>
@@ -9869,10 +10096,10 @@
         <v>10000</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -9880,7 +10107,7 @@
         <v>776</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>472</v>
@@ -9889,10 +10116,10 @@
         <v>10000</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -9900,7 +10127,7 @@
         <v>776</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>472</v>
@@ -9909,10 +10136,10 @@
         <v>10000</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -9920,7 +10147,7 @@
         <v>776</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>472</v>
@@ -9929,10 +10156,10 @@
         <v>10000</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -9940,7 +10167,7 @@
         <v>776</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>472</v>
@@ -9949,10 +10176,10 @@
         <v>10000</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -9960,7 +10187,7 @@
         <v>776</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>472</v>
@@ -9969,10 +10196,10 @@
         <v>10000</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -9980,7 +10207,7 @@
         <v>776</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>472</v>
@@ -9989,10 +10216,10 @@
         <v>10000</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -10000,7 +10227,7 @@
         <v>776</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>472</v>
@@ -10009,10 +10236,10 @@
         <v>10000</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -10020,7 +10247,7 @@
         <v>776</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>472</v>
@@ -10029,10 +10256,10 @@
         <v>10000</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -10040,7 +10267,7 @@
         <v>776</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>472</v>
@@ -10049,10 +10276,10 @@
         <v>10000</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -10060,7 +10287,7 @@
         <v>776</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>472</v>
@@ -10069,10 +10296,10 @@
         <v>10000</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -10080,7 +10307,7 @@
         <v>776</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>472</v>
@@ -10089,10 +10316,10 @@
         <v>10000</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -10100,7 +10327,7 @@
         <v>776</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>472</v>
@@ -10109,10 +10336,10 @@
         <v>10000</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -10120,7 +10347,7 @@
         <v>776</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>472</v>
@@ -10129,10 +10356,10 @@
         <v>10000</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -10140,7 +10367,7 @@
         <v>776</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>472</v>
@@ -10149,10 +10376,10 @@
         <v>10000</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -10160,7 +10387,7 @@
         <v>776</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>472</v>
@@ -10169,10 +10396,10 @@
         <v>10000</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -10180,7 +10407,7 @@
         <v>776</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>472</v>
@@ -10189,10 +10416,10 @@
         <v>10000</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -10200,7 +10427,7 @@
         <v>776</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>472</v>
@@ -10209,10 +10436,10 @@
         <v>10000</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -10220,7 +10447,7 @@
         <v>776</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>472</v>
@@ -10229,10 +10456,10 @@
         <v>10000</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -10240,7 +10467,7 @@
         <v>776</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>472</v>
@@ -10249,10 +10476,10 @@
         <v>10000</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -10260,7 +10487,7 @@
         <v>776</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>472</v>
@@ -10269,10 +10496,10 @@
         <v>10000</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -10280,7 +10507,7 @@
         <v>776</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>472</v>
@@ -10289,10 +10516,10 @@
         <v>10000</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -10300,7 +10527,7 @@
         <v>776</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>472</v>
@@ -10309,10 +10536,10 @@
         <v>10000</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -10320,7 +10547,7 @@
         <v>776</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>472</v>
@@ -10329,10 +10556,10 @@
         <v>10000</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -10340,7 +10567,7 @@
         <v>776</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>472</v>
@@ -10349,10 +10576,10 @@
         <v>10000</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -10360,7 +10587,7 @@
         <v>776</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>472</v>
@@ -10369,10 +10596,10 @@
         <v>10000</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -10380,7 +10607,7 @@
         <v>776</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>472</v>
@@ -10389,10 +10616,10 @@
         <v>10000</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -10400,7 +10627,7 @@
         <v>776</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>472</v>
@@ -10409,10 +10636,10 @@
         <v>10000</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -10420,7 +10647,7 @@
         <v>776</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>66</v>
+        <v>724</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>472</v>
@@ -10429,10 +10656,10 @@
         <v>10000</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -10440,7 +10667,7 @@
         <v>776</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>472</v>
@@ -10449,10 +10676,10 @@
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -10460,7 +10687,7 @@
         <v>776</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>727</v>
+        <v>66</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>472</v>
@@ -10469,10 +10696,10 @@
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -10480,7 +10707,7 @@
         <v>776</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>472</v>
@@ -10489,10 +10716,10 @@
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -10500,7 +10727,7 @@
         <v>776</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>472</v>
@@ -10509,10 +10736,10 @@
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -10520,7 +10747,7 @@
         <v>776</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>472</v>
@@ -10529,10 +10756,10 @@
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -10540,7 +10767,7 @@
         <v>776</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>472</v>
@@ -10549,10 +10776,10 @@
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -10560,7 +10787,7 @@
         <v>776</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>472</v>
@@ -10569,10 +10796,10 @@
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -10580,7 +10807,7 @@
         <v>776</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>472</v>
@@ -10589,10 +10816,10 @@
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -10600,7 +10827,7 @@
         <v>776</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -10609,10 +10836,10 @@
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -10620,7 +10847,7 @@
         <v>776</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>472</v>
@@ -10629,10 +10856,10 @@
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -10640,7 +10867,7 @@
         <v>776</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>472</v>
@@ -10649,10 +10876,10 @@
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>484</v>
+        <v>590</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -10660,7 +10887,7 @@
         <v>776</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>472</v>
@@ -10669,10 +10896,10 @@
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -10680,7 +10907,7 @@
         <v>776</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>472</v>
@@ -10689,10 +10916,10 @@
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>595</v>
+        <v>483</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>596</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -10700,7 +10927,7 @@
         <v>776</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>472</v>
@@ -10709,10 +10936,10 @@
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -10720,7 +10947,7 @@
         <v>776</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>472</v>
@@ -10729,10 +10956,10 @@
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -10740,7 +10967,7 @@
         <v>776</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>472</v>
@@ -10749,10 +10976,10 @@
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -10760,7 +10987,7 @@
         <v>776</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>472</v>
@@ -10769,10 +10996,10 @@
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -10780,7 +11007,7 @@
         <v>776</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>472</v>
@@ -10789,10 +11016,10 @@
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -10800,7 +11027,7 @@
         <v>776</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>472</v>
@@ -10809,10 +11036,10 @@
         <v>10000</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -10820,7 +11047,7 @@
         <v>776</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>472</v>
@@ -10829,10 +11056,10 @@
         <v>10000</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -10840,7 +11067,7 @@
         <v>776</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>472</v>
@@ -10849,10 +11076,10 @@
         <v>10000</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -10860,7 +11087,7 @@
         <v>776</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>472</v>
@@ -10869,10 +11096,10 @@
         <v>10000</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>485</v>
+        <v>609</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>486</v>
+        <v>610</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -10880,7 +11107,7 @@
         <v>776</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>472</v>
@@ -10889,10 +11116,10 @@
         <v>10000</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -10900,7 +11127,7 @@
         <v>776</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>472</v>
@@ -10909,10 +11136,10 @@
         <v>10000</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>615</v>
+        <v>485</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>614</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -10920,7 +11147,7 @@
         <v>776</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>472</v>
@@ -10929,10 +11156,10 @@
         <v>10000</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -10940,7 +11167,7 @@
         <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>472</v>
@@ -10949,10 +11176,10 @@
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -10960,7 +11187,7 @@
         <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>472</v>
@@ -10969,10 +11196,10 @@
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -10980,7 +11207,7 @@
         <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>472</v>
@@ -10989,10 +11216,10 @@
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -11000,7 +11227,7 @@
         <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>472</v>
@@ -11009,10 +11236,10 @@
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -11020,7 +11247,7 @@
         <v>776</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>472</v>
@@ -11029,10 +11256,10 @@
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -11040,7 +11267,7 @@
         <v>776</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>472</v>
@@ -11049,10 +11276,10 @@
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -11060,7 +11287,7 @@
         <v>776</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>472</v>
@@ -11069,10 +11296,10 @@
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -11080,7 +11307,7 @@
         <v>776</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>685</v>
+        <v>754</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>472</v>
@@ -11089,10 +11316,10 @@
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>487</v>
+        <v>628</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -11100,7 +11327,7 @@
         <v>776</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>472</v>
@@ -11109,10 +11336,10 @@
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -11120,7 +11347,7 @@
         <v>776</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -11129,10 +11356,10 @@
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>634</v>
+        <v>487</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>635</v>
+        <v>488</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -11140,7 +11367,7 @@
         <v>776</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>472</v>
@@ -11149,10 +11376,10 @@
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -11160,7 +11387,7 @@
         <v>776</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>472</v>
@@ -11169,10 +11396,10 @@
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -11180,7 +11407,7 @@
         <v>776</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>472</v>
@@ -11189,10 +11416,10 @@
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -11200,7 +11427,7 @@
         <v>776</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>472</v>
@@ -11209,10 +11436,10 @@
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -11220,7 +11447,7 @@
         <v>776</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
@@ -11229,10 +11456,10 @@
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -11240,7 +11467,7 @@
         <v>776</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>472</v>
@@ -11249,10 +11476,10 @@
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -11260,7 +11487,7 @@
         <v>776</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>472</v>
@@ -11269,10 +11496,10 @@
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -11280,7 +11507,7 @@
         <v>776</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>472</v>
@@ -11289,10 +11516,10 @@
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -11300,7 +11527,7 @@
         <v>776</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>472</v>
@@ -11309,10 +11536,10 @@
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>489</v>
+        <v>648</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>490</v>
+        <v>649</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -11320,7 +11547,7 @@
         <v>776</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>472</v>
@@ -11329,10 +11556,10 @@
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -11340,7 +11567,7 @@
         <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>767</v>
+        <v>686</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>472</v>
@@ -11349,10 +11576,10 @@
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>654</v>
+        <v>489</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>655</v>
+        <v>490</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -11360,7 +11587,7 @@
         <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>472</v>
@@ -11369,10 +11596,10 @@
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -11380,7 +11607,7 @@
         <v>776</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>472</v>
@@ -11389,10 +11616,10 @@
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -11400,7 +11627,7 @@
         <v>776</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>472</v>
@@ -11409,10 +11636,10 @@
         <v>10000</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -11420,7 +11647,7 @@
         <v>776</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>472</v>
@@ -11429,10 +11656,10 @@
         <v>10000</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -11440,7 +11667,7 @@
         <v>776</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>472</v>
@@ -11449,10 +11676,10 @@
         <v>10000</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -11460,7 +11687,7 @@
         <v>776</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>472</v>
@@ -11469,10 +11696,10 @@
         <v>10000</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -11480,7 +11707,7 @@
         <v>776</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>472</v>
@@ -11489,10 +11716,10 @@
         <v>10000</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -11500,7 +11727,7 @@
         <v>776</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>472</v>
@@ -11509,10 +11736,10 @@
         <v>10000</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -11520,7 +11747,7 @@
         <v>776</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>472</v>
@@ -11529,38 +11756,50 @@
         <v>10000</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>491</v>
+        <v>668</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>492</v>
+        <v>669</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>451</v>
+        <v>775</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E490" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>34</v>
+        <v>687</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E491" s="1">
-        <v>500000</v>
+        <v>10000</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -11568,13 +11807,13 @@
         <v>799</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="E492" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -11582,13 +11821,13 @@
         <v>799</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1068</v>
+        <v>34</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1069</v>
+        <v>41</v>
       </c>
       <c r="E493" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -11596,16 +11835,13 @@
         <v>799</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1072</v>
+        <v>33</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1074</v>
+        <v>40</v>
       </c>
       <c r="E494" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F494" s="1">
-        <v>500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,16 +11849,13 @@
         <v>799</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E495" s="1">
-        <v>400</v>
-      </c>
-      <c r="F495" s="1">
-        <v>200</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -11630,234 +11863,240 @@
         <v>799</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>35</v>
+        <v>1072</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>42</v>
+        <v>1074</v>
       </c>
       <c r="E496" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F496" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>38</v>
+        <v>1073</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>44</v>
+        <v>1075</v>
       </c>
       <c r="E497" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F497" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E498" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E499" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E500" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E501" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E502" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E503" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E504" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B505" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E505" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E506" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="C505" s="2" t="s">
+      <c r="C507" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="E505" s="1">
+      <c r="E507" s="1">
         <v>250000</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E506" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E507" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="E508" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="E509" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E510" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E511" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E512" s="1">
         <v>25000</v>
@@ -11868,10 +12107,10 @@
         <v>804</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="E513" s="1">
         <v>25000</v>
@@ -11882,10 +12121,10 @@
         <v>804</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E514" s="1">
         <v>25000</v>
@@ -11896,10 +12135,10 @@
         <v>804</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E515" s="1">
         <v>25000</v>
@@ -11910,10 +12149,10 @@
         <v>804</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E516" s="1">
         <v>25000</v>
@@ -11924,10 +12163,10 @@
         <v>804</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E517" s="1">
         <v>25000</v>
@@ -11938,10 +12177,10 @@
         <v>804</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E518" s="1">
         <v>25000</v>
@@ -11952,10 +12191,10 @@
         <v>804</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E519" s="1">
         <v>25000</v>
@@ -11966,10 +12205,10 @@
         <v>804</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E520" s="1">
         <v>25000</v>
@@ -11980,10 +12219,10 @@
         <v>804</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E521" s="1">
         <v>25000</v>
@@ -11994,10 +12233,10 @@
         <v>804</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E522" s="1">
         <v>25000</v>
@@ -12008,10 +12247,10 @@
         <v>804</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E523" s="1">
         <v>25000</v>
@@ -12022,10 +12261,10 @@
         <v>804</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E524" s="1">
         <v>25000</v>
@@ -12036,10 +12275,10 @@
         <v>804</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E525" s="1">
         <v>25000</v>
@@ -12050,10 +12289,10 @@
         <v>804</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E526" s="1">
         <v>25000</v>
@@ -12064,10 +12303,10 @@
         <v>804</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E527" s="1">
         <v>25000</v>
@@ -12078,10 +12317,10 @@
         <v>804</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="E528" s="1">
         <v>25000</v>
@@ -12092,10 +12331,10 @@
         <v>804</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E529" s="1">
         <v>25000</v>
@@ -12106,10 +12345,10 @@
         <v>804</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="E530" s="1">
         <v>25000</v>
@@ -12120,10 +12359,10 @@
         <v>804</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1037</v>
+        <v>1051</v>
       </c>
       <c r="E531" s="1">
         <v>25000</v>
@@ -12134,10 +12373,10 @@
         <v>804</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E532" s="1">
         <v>25000</v>
@@ -12148,10 +12387,10 @@
         <v>804</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E533" s="1">
         <v>25000</v>
@@ -12162,10 +12401,10 @@
         <v>804</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E534" s="1">
         <v>25000</v>
@@ -12176,10 +12415,10 @@
         <v>804</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="E535" s="1">
         <v>25000</v>
@@ -12190,10 +12429,10 @@
         <v>804</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="E536" s="1">
         <v>25000</v>
@@ -12204,10 +12443,10 @@
         <v>804</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E537" s="1">
         <v>25000</v>
@@ -12218,10 +12457,10 @@
         <v>804</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="E538" s="1">
         <v>25000</v>
@@ -12232,21 +12471,49 @@
         <v>804</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="E539" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E540" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E541" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H539">
-    <sortCondition ref="A2:A539"/>
-    <sortCondition ref="C2:C539"/>
-    <sortCondition ref="D2:D539"/>
-    <sortCondition ref="H2:H539"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H541">
+    <sortCondition ref="A2:A541"/>
+    <sortCondition ref="C2:C541"/>
+    <sortCondition ref="D2:D541"/>
+    <sortCondition ref="H2:H541"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E579D-BE64-4AEF-8EA4-FD7993A51FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD31C57-4635-406B-BF08-DBE519B8D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1338">
   <si>
     <t>Item Name</t>
   </si>
@@ -4006,6 +4006,48 @@
   </si>
   <si>
     <t>pixelmon:diamond_hourglass</t>
+  </si>
+  <si>
+    <t>pixelmon:chipped_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:cracked_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:linking_cord</t>
+  </si>
+  <si>
+    <t>Chipped Pot</t>
+  </si>
+  <si>
+    <t>Cracked Pot</t>
+  </si>
+  <si>
+    <t>Linking Cord</t>
+  </si>
+  <si>
+    <t>Sweet Apple</t>
+  </si>
+  <si>
+    <t>Tart Apple</t>
+  </si>
+  <si>
+    <t>pixelmon:sweet_apple</t>
+  </si>
+  <si>
+    <t>pixelmon:tart_apple</t>
+  </si>
+  <si>
+    <t>Malicious Armor</t>
+  </si>
+  <si>
+    <t>pixelmon:malicious_armor</t>
+  </si>
+  <si>
+    <t>Auspicious Armor</t>
+  </si>
+  <si>
+    <t>pixelmon:auspicious_armor</t>
   </si>
 </sst>
 </file>
@@ -4332,11 +4374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H581"/>
+  <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,10 +5879,10 @@
         <v>800</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1307</v>
+        <v>1336</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1308</v>
+        <v>1337</v>
       </c>
       <c r="E103" s="1">
         <v>30000</v>
@@ -5851,10 +5893,10 @@
         <v>800</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>469</v>
+        <v>1307</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>264</v>
+        <v>1308</v>
       </c>
       <c r="E104" s="1">
         <v>30000</v>
@@ -5865,10 +5907,10 @@
         <v>800</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>263</v>
+        <v>1327</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1324</v>
       </c>
       <c r="E105" s="1">
         <v>30000</v>
@@ -5879,10 +5921,10 @@
         <v>800</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>1328</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1325</v>
       </c>
       <c r="E106" s="1">
         <v>30000</v>
@@ -5893,10 +5935,10 @@
         <v>800</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="E107" s="1">
         <v>30000</v>
@@ -5907,10 +5949,10 @@
         <v>800</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="E108" s="1">
         <v>30000</v>
@@ -5921,13 +5963,13 @@
         <v>800</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="E109" s="1">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5935,10 +5977,10 @@
         <v>800</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>801</v>
+        <v>383</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1">
         <v>30000</v>
@@ -5949,10 +5991,10 @@
         <v>800</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="1">
         <v>30000</v>
@@ -5963,13 +6005,13 @@
         <v>800</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="E112" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5977,10 +6019,10 @@
         <v>800</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>452</v>
+        <v>801</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="E113" s="1">
         <v>30000</v>
@@ -5991,10 +6033,10 @@
         <v>800</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1309</v>
+        <v>1329</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1326</v>
       </c>
       <c r="E114" s="1">
         <v>30000</v>
@@ -6005,10 +6047,10 @@
         <v>800</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>802</v>
+        <v>460</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>803</v>
+        <v>156</v>
       </c>
       <c r="E115" s="1">
         <v>30000</v>
@@ -6019,10 +6061,10 @@
         <v>800</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>461</v>
+        <v>1334</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>158</v>
+        <v>1335</v>
       </c>
       <c r="E116" s="1">
         <v>30000</v>
@@ -6033,10 +6075,10 @@
         <v>800</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E117" s="1">
         <v>30000</v>
@@ -6047,10 +6089,10 @@
         <v>800</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="E118" s="1">
         <v>30000</v>
@@ -6061,10 +6103,10 @@
         <v>800</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>453</v>
+        <v>1306</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>266</v>
+        <v>1309</v>
       </c>
       <c r="E119" s="1">
         <v>30000</v>
@@ -6075,10 +6117,10 @@
         <v>800</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1076</v>
+        <v>802</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1077</v>
+        <v>803</v>
       </c>
       <c r="E120" s="1">
         <v>30000</v>
@@ -6089,10 +6131,10 @@
         <v>800</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1123</v>
+        <v>158</v>
       </c>
       <c r="E121" s="1">
         <v>30000</v>
@@ -6103,10 +6145,10 @@
         <v>800</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1079</v>
+        <v>387</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1078</v>
+        <v>161</v>
       </c>
       <c r="E122" s="1">
         <v>30000</v>
@@ -6114,100 +6156,100 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E123" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1112</v>
+        <v>453</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1118</v>
+        <v>266</v>
       </c>
       <c r="E124" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>334</v>
+        <v>1076</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>137</v>
+        <v>1077</v>
       </c>
       <c r="E125" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>338</v>
+        <v>1330</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>141</v>
+        <v>1332</v>
       </c>
       <c r="E126" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1115</v>
+        <v>1331</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1121</v>
+        <v>1333</v>
       </c>
       <c r="E127" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>135</v>
+        <v>1123</v>
       </c>
       <c r="E128" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1120</v>
+        <v>1078</v>
       </c>
       <c r="E129" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,10 +6257,10 @@
         <v>272</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1113</v>
+        <v>337</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1119</v>
+        <v>140</v>
       </c>
       <c r="E130" s="1">
         <v>25000</v>
@@ -6229,10 +6271,10 @@
         <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>332</v>
+        <v>1112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>134</v>
+        <v>1118</v>
       </c>
       <c r="E131" s="1">
         <v>25000</v>
@@ -6243,10 +6285,10 @@
         <v>272</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1110</v>
+        <v>334</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1116</v>
+        <v>137</v>
       </c>
       <c r="E132" s="1">
         <v>25000</v>
@@ -6257,10 +6299,10 @@
         <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1">
         <v>25000</v>
@@ -6271,10 +6313,10 @@
         <v>272</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>339</v>
+        <v>1115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>142</v>
+        <v>1121</v>
       </c>
       <c r="E134" s="1">
         <v>25000</v>
@@ -6285,10 +6327,10 @@
         <v>272</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E135" s="1">
         <v>25000</v>
@@ -6299,10 +6341,10 @@
         <v>272</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E136" s="1">
         <v>25000</v>
@@ -6313,10 +6355,10 @@
         <v>272</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>336</v>
+        <v>1113</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>139</v>
+        <v>1119</v>
       </c>
       <c r="E137" s="1">
         <v>25000</v>
@@ -6324,100 +6366,100 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="E138" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>353</v>
+        <v>1110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>222</v>
+        <v>1116</v>
       </c>
       <c r="E139" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="E140" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="E141" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="E142" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>357</v>
+        <v>1111</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>226</v>
+        <v>1117</v>
       </c>
       <c r="E143" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="E144" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6425,10 +6467,10 @@
         <v>276</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E145" s="1">
         <v>500</v>
@@ -6439,10 +6481,10 @@
         <v>276</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E146" s="1">
         <v>500</v>
@@ -6453,10 +6495,10 @@
         <v>276</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E147" s="1">
         <v>500</v>
@@ -6467,10 +6509,10 @@
         <v>276</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E148" s="1">
         <v>500</v>
@@ -6481,10 +6523,10 @@
         <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E149" s="1">
         <v>500</v>
@@ -6495,10 +6537,10 @@
         <v>276</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E150" s="1">
         <v>500</v>
@@ -6509,10 +6551,10 @@
         <v>276</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E151" s="1">
         <v>500</v>
@@ -6523,10 +6565,10 @@
         <v>276</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E152" s="1">
         <v>500</v>
@@ -6537,10 +6579,10 @@
         <v>276</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E153" s="1">
         <v>500</v>
@@ -6551,10 +6593,10 @@
         <v>276</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E154" s="1">
         <v>500</v>
@@ -6565,10 +6607,10 @@
         <v>276</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E155" s="1">
         <v>500</v>
@@ -6576,196 +6618,175 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>232</v>
+      </c>
       <c r="E156" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>233</v>
+      </c>
       <c r="E157" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>234</v>
+      </c>
       <c r="E158" s="1">
-        <v>4500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>235</v>
+      </c>
       <c r="E159" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>236</v>
+      </c>
       <c r="E160" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="E161" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F161" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="E162" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F162" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F163" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F164" s="1">
-        <v>8000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F165" s="1">
-        <v>8000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>68</v>
+        <v>372</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F166" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F167" s="1">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,10 +6794,10 @@
         <v>777</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E168" s="1">
         <v>16000</v>
@@ -6790,10 +6811,10 @@
         <v>777</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E169" s="1">
         <v>16000</v>
@@ -6807,10 +6828,10 @@
         <v>777</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E170" s="1">
         <v>16000</v>
@@ -6821,310 +6842,331 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>388</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E171" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="E172" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>471</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>470</v>
+        <v>58</v>
       </c>
       <c r="E173" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>447</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="E174" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>786</v>
+        <v>70</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>787</v>
+        <v>60</v>
       </c>
       <c r="E175" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="E176" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E177" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="E178" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="E179" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="E180" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="E181" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>382</v>
+        <v>786</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>152</v>
+        <v>787</v>
       </c>
       <c r="E182" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E183" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E184" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E185" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="E186" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E187" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="E188" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="E189" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E190" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>789</v>
+        <v>375</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>793</v>
+        <v>144</v>
       </c>
       <c r="E191" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E192" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,13 +7174,13 @@
         <v>785</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E193" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7146,10 +7188,10 @@
         <v>785</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E194" s="1">
         <v>15000</v>
@@ -7160,13 +7202,13 @@
         <v>785</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E195" s="1">
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -7174,10 +7216,10 @@
         <v>785</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="E196" s="1">
         <v>15000</v>
@@ -7188,10 +7230,10 @@
         <v>785</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E197" s="1">
         <v>15000</v>
@@ -7202,10 +7244,10 @@
         <v>785</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E198" s="1">
         <v>15000</v>
@@ -7216,10 +7258,10 @@
         <v>785</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E199" s="1">
         <v>15000</v>
@@ -7230,10 +7272,10 @@
         <v>785</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="E200" s="1">
         <v>15000</v>
@@ -7244,10 +7286,10 @@
         <v>785</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E201" s="1">
         <v>15000</v>
@@ -7258,10 +7300,10 @@
         <v>785</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E202" s="1">
         <v>15000</v>
@@ -7272,10 +7314,10 @@
         <v>785</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E203" s="1">
         <v>15000</v>
@@ -7286,10 +7328,10 @@
         <v>785</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="E204" s="1">
         <v>15000</v>
@@ -7300,10 +7342,10 @@
         <v>785</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>419</v>
+        <v>788</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="E205" s="1">
         <v>15000</v>
@@ -7314,10 +7356,10 @@
         <v>785</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E206" s="1">
         <v>15000</v>
@@ -7328,13 +7370,13 @@
         <v>785</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="E207" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -7342,13 +7384,13 @@
         <v>785</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E208" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7356,10 +7398,10 @@
         <v>785</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E209" s="1">
         <v>15000</v>
@@ -7370,10 +7412,10 @@
         <v>785</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E210" s="1">
         <v>15000</v>
@@ -7384,10 +7426,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E211" s="1">
         <v>15000</v>
@@ -7398,10 +7440,10 @@
         <v>785</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="E212" s="1">
         <v>15000</v>
@@ -7412,10 +7454,10 @@
         <v>785</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="E213" s="1">
         <v>15000</v>
@@ -7426,13 +7468,13 @@
         <v>785</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E214" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7440,13 +7482,13 @@
         <v>785</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E215" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7454,10 +7496,10 @@
         <v>785</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E216" s="1">
         <v>15000</v>
@@ -7468,10 +7510,10 @@
         <v>785</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="E217" s="1">
         <v>15000</v>
@@ -7482,10 +7524,10 @@
         <v>785</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>791</v>
+        <v>404</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>795</v>
+        <v>179</v>
       </c>
       <c r="E218" s="1">
         <v>15000</v>
@@ -7496,10 +7538,10 @@
         <v>785</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>796</v>
+        <v>448</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>797</v>
+        <v>258</v>
       </c>
       <c r="E219" s="1">
         <v>15000</v>
@@ -7510,10 +7552,10 @@
         <v>785</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E220" s="1">
         <v>15000</v>
@@ -7524,10 +7566,10 @@
         <v>785</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="E221" s="1">
         <v>15000</v>
@@ -7538,10 +7580,10 @@
         <v>785</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E222" s="1">
         <v>15000</v>
@@ -7552,10 +7594,10 @@
         <v>785</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E223" s="1">
         <v>15000</v>
@@ -7566,10 +7608,10 @@
         <v>785</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E224" s="1">
         <v>15000</v>
@@ -7580,10 +7622,10 @@
         <v>785</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E225" s="1">
         <v>15000</v>
@@ -7594,10 +7636,10 @@
         <v>785</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>414</v>
+        <v>796</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>190</v>
+        <v>797</v>
       </c>
       <c r="E226" s="1">
         <v>15000</v>
@@ -7608,10 +7650,10 @@
         <v>785</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E227" s="1">
         <v>15000</v>
@@ -7622,10 +7664,10 @@
         <v>785</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E228" s="1">
         <v>15000</v>
@@ -7636,10 +7678,10 @@
         <v>785</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="E229" s="1">
         <v>15000</v>
@@ -7650,10 +7692,10 @@
         <v>785</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E230" s="1">
         <v>15000</v>
@@ -7664,10 +7706,10 @@
         <v>785</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E231" s="1">
         <v>15000</v>
@@ -7678,10 +7720,10 @@
         <v>785</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>449</v>
+        <v>790</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>259</v>
+        <v>794</v>
       </c>
       <c r="E232" s="1">
         <v>15000</v>
@@ -7692,10 +7734,10 @@
         <v>785</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E233" s="1">
         <v>15000</v>
@@ -7706,10 +7748,10 @@
         <v>785</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E234" s="1">
         <v>15000</v>
@@ -7720,10 +7762,10 @@
         <v>785</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E235" s="1">
         <v>15000</v>
@@ -7734,10 +7776,10 @@
         <v>785</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="E236" s="1">
         <v>15000</v>
@@ -7748,10 +7790,10 @@
         <v>785</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="E237" s="1">
         <v>15000</v>
@@ -7762,10 +7804,10 @@
         <v>785</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E238" s="1">
         <v>15000</v>
@@ -7776,10 +7818,10 @@
         <v>785</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="E239" s="1">
         <v>15000</v>
@@ -7790,10 +7832,10 @@
         <v>785</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E240" s="1">
         <v>15000</v>
@@ -7804,10 +7846,10 @@
         <v>785</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>53</v>
+        <v>440</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E241" s="1">
         <v>15000</v>
@@ -7818,10 +7860,10 @@
         <v>785</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="E242" s="1">
         <v>15000</v>
@@ -7832,10 +7874,10 @@
         <v>785</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E243" s="1">
         <v>15000</v>
@@ -7846,10 +7888,10 @@
         <v>785</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E244" s="1">
         <v>15000</v>
@@ -7860,10 +7902,10 @@
         <v>785</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E245" s="1">
         <v>15000</v>
@@ -7874,10 +7916,10 @@
         <v>785</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="E246" s="1">
         <v>15000</v>
@@ -7888,10 +7930,10 @@
         <v>785</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E247" s="1">
         <v>15000</v>
@@ -7902,10 +7944,10 @@
         <v>785</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>430</v>
+        <v>53</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E248" s="1">
         <v>15000</v>
@@ -7916,10 +7958,10 @@
         <v>785</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="E249" s="1">
         <v>15000</v>
@@ -7930,10 +7972,10 @@
         <v>785</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="E250" s="1">
         <v>15000</v>
@@ -7944,10 +7986,10 @@
         <v>785</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E251" s="1">
         <v>15000</v>
@@ -7958,10 +8000,10 @@
         <v>785</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="E252" s="1">
         <v>15000</v>
@@ -7972,10 +8014,10 @@
         <v>785</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E253" s="1">
         <v>15000</v>
@@ -7986,10 +8028,10 @@
         <v>785</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E254" s="1">
         <v>15000</v>
@@ -8000,10 +8042,10 @@
         <v>785</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E255" s="1">
         <v>15000</v>
@@ -8011,100 +8053,100 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="E256" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E257" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="E258" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E259" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E260" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E261" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E262" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8112,10 +8154,10 @@
         <v>275</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E263" s="1">
         <v>10000</v>
@@ -8126,10 +8168,10 @@
         <v>275</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E264" s="1">
         <v>10000</v>
@@ -8137,100 +8179,100 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1311</v>
+        <v>345</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1314</v>
+        <v>214</v>
       </c>
       <c r="E265" s="1">
-        <v>250000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>5</v>
+        <v>346</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E266" s="1">
-        <v>250000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>875</v>
+        <v>347</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>876</v>
+        <v>216</v>
       </c>
       <c r="E267" s="1">
-        <v>425000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>872</v>
+        <v>348</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>874</v>
+        <v>217</v>
       </c>
       <c r="E268" s="1">
-        <v>75000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>990</v>
+        <v>349</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1007</v>
+        <v>218</v>
       </c>
       <c r="E269" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>883</v>
+        <v>350</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>889</v>
+        <v>219</v>
       </c>
       <c r="E270" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>884</v>
+        <v>351</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>890</v>
+        <v>220</v>
       </c>
       <c r="E271" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -8238,13 +8280,13 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1082</v>
+        <v>1311</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1095</v>
+        <v>1314</v>
       </c>
       <c r="E272" s="1">
-        <v>300000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -8252,13 +8294,13 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>991</v>
+        <v>5</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1008</v>
+        <v>6</v>
       </c>
       <c r="E273" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -8266,13 +8308,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>984</v>
+        <v>875</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>985</v>
+        <v>876</v>
       </c>
       <c r="E274" s="1">
-        <v>75000</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -8280,13 +8322,13 @@
         <v>270</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E275" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8294,13 +8336,13 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E276" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8308,10 +8350,10 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>993</v>
+        <v>883</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1010</v>
+        <v>889</v>
       </c>
       <c r="E277" s="1">
         <v>50000</v>
@@ -8322,10 +8364,10 @@
         <v>270</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>994</v>
+        <v>884</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1011</v>
+        <v>890</v>
       </c>
       <c r="E278" s="1">
         <v>50000</v>
@@ -8336,13 +8378,13 @@
         <v>270</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="E279" s="1">
-        <v>75000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,10 +8392,10 @@
         <v>270</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E280" s="1">
         <v>50000</v>
@@ -8364,13 +8406,13 @@
         <v>270</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="E281" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -8378,10 +8420,10 @@
         <v>270</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>997</v>
+        <v>885</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1014</v>
+        <v>891</v>
       </c>
       <c r="E282" s="1">
         <v>50000</v>
@@ -8392,13 +8434,13 @@
         <v>270</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1085</v>
+        <v>992</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1089</v>
+        <v>1009</v>
       </c>
       <c r="E283" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -8406,10 +8448,10 @@
         <v>270</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E284" s="1">
         <v>50000</v>
@@ -8420,13 +8462,13 @@
         <v>270</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>877</v>
+        <v>994</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>880</v>
+        <v>1011</v>
       </c>
       <c r="E285" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -8434,13 +8476,13 @@
         <v>270</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>999</v>
+        <v>1086</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1016</v>
+        <v>1090</v>
       </c>
       <c r="E286" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -8448,13 +8490,13 @@
         <v>270</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1312</v>
+        <v>995</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1315</v>
+        <v>1012</v>
       </c>
       <c r="E287" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -8462,13 +8504,13 @@
         <v>270</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>8</v>
+        <v>996</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>7</v>
+        <v>1013</v>
       </c>
       <c r="E288" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -8476,10 +8518,10 @@
         <v>270</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E289" s="1">
         <v>50000</v>
@@ -8490,13 +8532,13 @@
         <v>270</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1001</v>
+        <v>1085</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1018</v>
+        <v>1089</v>
       </c>
       <c r="E290" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8504,13 +8546,13 @@
         <v>270</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1310</v>
+        <v>998</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1313</v>
+        <v>1015</v>
       </c>
       <c r="E291" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8518,13 +8560,13 @@
         <v>270</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1060</v>
+        <v>877</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1059</v>
+        <v>880</v>
       </c>
       <c r="E292" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -8532,13 +8574,13 @@
         <v>270</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>878</v>
+        <v>999</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>879</v>
+        <v>1016</v>
       </c>
       <c r="E293" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -8546,13 +8588,13 @@
         <v>270</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1087</v>
+        <v>1312</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1091</v>
+        <v>1315</v>
       </c>
       <c r="E294" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -8560,13 +8602,13 @@
         <v>270</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>986</v>
+        <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>988</v>
+        <v>7</v>
       </c>
       <c r="E295" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -8574,13 +8616,13 @@
         <v>270</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="E296" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8588,13 +8630,13 @@
         <v>270</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>4</v>
+        <v>1018</v>
       </c>
       <c r="E297" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8602,13 +8644,13 @@
         <v>270</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1002</v>
+        <v>1310</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1019</v>
+        <v>1313</v>
       </c>
       <c r="E298" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -8616,13 +8658,13 @@
         <v>270</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>882</v>
+        <v>1060</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>888</v>
+        <v>1059</v>
       </c>
       <c r="E299" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -8630,13 +8672,13 @@
         <v>270</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1003</v>
+        <v>878</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1020</v>
+        <v>879</v>
       </c>
       <c r="E300" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -8644,10 +8686,10 @@
         <v>270</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>871</v>
+        <v>1087</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>873</v>
+        <v>1091</v>
       </c>
       <c r="E301" s="1">
         <v>75000</v>
@@ -8658,10 +8700,10 @@
         <v>270</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>881</v>
+        <v>986</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>887</v>
+        <v>988</v>
       </c>
       <c r="E302" s="1">
         <v>75000</v>
@@ -8672,13 +8714,13 @@
         <v>270</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="E303" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -8686,13 +8728,13 @@
         <v>270</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1081</v>
+        <v>3</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1093</v>
+        <v>4</v>
       </c>
       <c r="E304" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -8700,13 +8742,13 @@
         <v>270</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1080</v>
+        <v>1002</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="E305" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -8714,13 +8756,13 @@
         <v>270</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E306" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -8728,10 +8770,10 @@
         <v>270</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E307" s="1">
         <v>50000</v>
@@ -8742,13 +8784,13 @@
         <v>270</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1083</v>
+        <v>871</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1094</v>
+        <v>873</v>
       </c>
       <c r="E308" s="1">
-        <v>300000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -8756,10 +8798,10 @@
         <v>270</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1084</v>
+        <v>881</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1088</v>
+        <v>887</v>
       </c>
       <c r="E309" s="1">
         <v>75000</v>
@@ -8770,10 +8812,10 @@
         <v>270</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E310" s="1">
         <v>50000</v>
@@ -8781,41 +8823,41 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>894</v>
+        <v>1081</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>941</v>
+        <v>1093</v>
       </c>
       <c r="E311" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>895</v>
+        <v>1080</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>942</v>
+        <v>1092</v>
       </c>
       <c r="E312" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>943</v>
+        <v>892</v>
       </c>
       <c r="E313" s="1">
         <v>50000</v>
@@ -8823,13 +8865,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>897</v>
+        <v>1005</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>944</v>
+        <v>1022</v>
       </c>
       <c r="E314" s="1">
         <v>50000</v>
@@ -8837,41 +8879,41 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>898</v>
+        <v>1083</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>945</v>
+        <v>1094</v>
       </c>
       <c r="E315" s="1">
-        <v>50000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>899</v>
+        <v>1084</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>946</v>
+        <v>1088</v>
       </c>
       <c r="E316" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>900</v>
+        <v>1006</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>947</v>
+        <v>1023</v>
       </c>
       <c r="E317" s="1">
         <v>50000</v>
@@ -8882,10 +8924,10 @@
         <v>893</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E318" s="1">
         <v>50000</v>
@@ -8896,10 +8938,10 @@
         <v>893</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E319" s="1">
         <v>50000</v>
@@ -8910,10 +8952,10 @@
         <v>893</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="E320" s="1">
         <v>50000</v>
@@ -8924,10 +8966,10 @@
         <v>893</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E321" s="1">
         <v>50000</v>
@@ -8938,10 +8980,10 @@
         <v>893</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E322" s="1">
         <v>50000</v>
@@ -8952,10 +8994,10 @@
         <v>893</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E323" s="1">
         <v>50000</v>
@@ -8966,10 +9008,10 @@
         <v>893</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1061</v>
+        <v>947</v>
       </c>
       <c r="E324" s="1">
         <v>50000</v>
@@ -8980,10 +9022,10 @@
         <v>893</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1062</v>
+        <v>948</v>
       </c>
       <c r="E325" s="1">
         <v>50000</v>
@@ -8994,10 +9036,10 @@
         <v>893</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E326" s="1">
         <v>50000</v>
@@ -9008,10 +9050,10 @@
         <v>893</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E327" s="1">
         <v>50000</v>
@@ -9022,10 +9064,10 @@
         <v>893</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E328" s="1">
         <v>50000</v>
@@ -9036,10 +9078,10 @@
         <v>893</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E329" s="1">
         <v>50000</v>
@@ -9050,10 +9092,10 @@
         <v>893</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E330" s="1">
         <v>50000</v>
@@ -9064,10 +9106,10 @@
         <v>893</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>959</v>
+        <v>1061</v>
       </c>
       <c r="E331" s="1">
         <v>50000</v>
@@ -9078,10 +9120,10 @@
         <v>893</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>960</v>
+        <v>1062</v>
       </c>
       <c r="E332" s="1">
         <v>50000</v>
@@ -9092,10 +9134,10 @@
         <v>893</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E333" s="1">
         <v>50000</v>
@@ -9106,10 +9148,10 @@
         <v>893</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="E334" s="1">
         <v>50000</v>
@@ -9120,10 +9162,10 @@
         <v>893</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="E335" s="1">
         <v>50000</v>
@@ -9134,10 +9176,10 @@
         <v>893</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="E336" s="1">
         <v>50000</v>
@@ -9148,10 +9190,10 @@
         <v>893</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E337" s="1">
         <v>50000</v>
@@ -9162,10 +9204,10 @@
         <v>893</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="E338" s="1">
         <v>50000</v>
@@ -9176,10 +9218,10 @@
         <v>893</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="E339" s="1">
         <v>50000</v>
@@ -9190,10 +9232,10 @@
         <v>893</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E340" s="1">
         <v>50000</v>
@@ -9204,10 +9246,10 @@
         <v>893</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E341" s="1">
         <v>50000</v>
@@ -9218,10 +9260,10 @@
         <v>893</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E342" s="1">
         <v>50000</v>
@@ -9232,10 +9274,10 @@
         <v>893</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="E343" s="1">
         <v>50000</v>
@@ -9246,10 +9288,10 @@
         <v>893</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1063</v>
+        <v>965</v>
       </c>
       <c r="E344" s="1">
         <v>50000</v>
@@ -9260,10 +9302,10 @@
         <v>893</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1064</v>
+        <v>966</v>
       </c>
       <c r="E345" s="1">
         <v>50000</v>
@@ -9274,10 +9316,10 @@
         <v>893</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E346" s="1">
         <v>50000</v>
@@ -9288,10 +9330,10 @@
         <v>893</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E347" s="1">
         <v>50000</v>
@@ -9302,10 +9344,10 @@
         <v>893</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E348" s="1">
         <v>50000</v>
@@ -9316,10 +9358,10 @@
         <v>893</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E349" s="1">
         <v>50000</v>
@@ -9330,10 +9372,10 @@
         <v>893</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E350" s="1">
         <v>50000</v>
@@ -9344,10 +9386,10 @@
         <v>893</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>977</v>
+        <v>1063</v>
       </c>
       <c r="E351" s="1">
         <v>50000</v>
@@ -9358,10 +9400,10 @@
         <v>893</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>978</v>
+        <v>1064</v>
       </c>
       <c r="E352" s="1">
         <v>50000</v>
@@ -9372,10 +9414,10 @@
         <v>893</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="E353" s="1">
         <v>50000</v>
@@ -9386,10 +9428,10 @@
         <v>893</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E354" s="1">
         <v>50000</v>
@@ -9400,10 +9442,10 @@
         <v>893</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="E355" s="1">
         <v>50000</v>
@@ -9414,10 +9456,10 @@
         <v>893</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E356" s="1">
         <v>50000</v>
@@ -9428,10 +9470,10 @@
         <v>893</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="E357" s="1">
         <v>50000</v>
@@ -9439,100 +9481,100 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>870</v>
+        <v>977</v>
       </c>
       <c r="E358" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>849</v>
+        <v>935</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>865</v>
+        <v>978</v>
       </c>
       <c r="E359" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>848</v>
+        <v>936</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>864</v>
+        <v>979</v>
       </c>
       <c r="E360" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>852</v>
+        <v>937</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="E361" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>840</v>
+        <v>938</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>856</v>
+        <v>981</v>
       </c>
       <c r="E362" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>853</v>
+        <v>939</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>869</v>
+        <v>982</v>
       </c>
       <c r="E363" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>843</v>
+        <v>940</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="E364" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -9540,10 +9582,10 @@
         <v>798</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E365" s="1">
         <v>25000</v>
@@ -9554,10 +9596,10 @@
         <v>798</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="E366" s="1">
         <v>25000</v>
@@ -9568,10 +9610,10 @@
         <v>798</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E367" s="1">
         <v>25000</v>
@@ -9582,10 +9624,10 @@
         <v>798</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>446</v>
+        <v>852</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>256</v>
+        <v>868</v>
       </c>
       <c r="E368" s="1">
         <v>25000</v>
@@ -9596,10 +9638,10 @@
         <v>798</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E369" s="1">
         <v>25000</v>
@@ -9610,10 +9652,10 @@
         <v>798</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="E370" s="1">
         <v>25000</v>
@@ -9624,10 +9666,10 @@
         <v>798</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E371" s="1">
         <v>25000</v>
@@ -9638,10 +9680,10 @@
         <v>798</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E372" s="1">
         <v>25000</v>
@@ -9652,10 +9694,10 @@
         <v>798</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E373" s="1">
         <v>25000</v>
@@ -9666,10 +9708,10 @@
         <v>798</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E374" s="1">
         <v>25000</v>
@@ -9677,163 +9719,100 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1124</v>
+        <v>446</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="E375" s="1">
-        <v>600</v>
-      </c>
-      <c r="F375" s="1">
-        <v>0</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H375" s="3" t="s">
-        <v>1254</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1124</v>
+        <v>842</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="E376" s="1">
-        <v>240</v>
-      </c>
-      <c r="F376" s="1">
-        <v>0</v>
-      </c>
-      <c r="G376" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H376" s="3" t="s">
-        <v>1255</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1124</v>
+        <v>841</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="E377" s="1">
-        <v>200</v>
-      </c>
-      <c r="F377" s="1">
-        <v>0</v>
-      </c>
-      <c r="G377" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H377" s="3" t="s">
-        <v>1252</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1124</v>
+        <v>850</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>866</v>
       </c>
       <c r="E378" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F378" s="1">
-        <v>0</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>1253</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1124</v>
+        <v>847</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="E379" s="1">
         <v>25000</v>
       </c>
-      <c r="F379" s="1">
-        <v>0</v>
-      </c>
-      <c r="G379" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>1261</v>
-      </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1124</v>
+        <v>844</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="E380" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F380" s="1">
-        <v>0</v>
-      </c>
-      <c r="G380" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H380" s="3" t="s">
-        <v>1263</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1124</v>
+        <v>845</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="E381" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F381" s="1">
-        <v>0</v>
-      </c>
-      <c r="G381" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H381" s="3" t="s">
-        <v>1269</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -9841,19 +9820,22 @@
         <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1165</v>
+        <v>1232</v>
       </c>
       <c r="C382" t="s">
         <v>1124</v>
       </c>
+      <c r="E382" s="1">
+        <v>600</v>
+      </c>
       <c r="F382" s="1">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>1137</v>
+        <v>1243</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>1205</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -9861,19 +9843,22 @@
         <v>269</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1166</v>
+        <v>1233</v>
       </c>
       <c r="C383" t="s">
         <v>1124</v>
       </c>
+      <c r="E383" s="1">
+        <v>240</v>
+      </c>
       <c r="F383" s="1">
         <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>1140</v>
+        <v>1244</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>1206</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -9881,19 +9866,22 @@
         <v>269</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1167</v>
+        <v>1230</v>
       </c>
       <c r="C384" t="s">
         <v>1124</v>
       </c>
+      <c r="E384" s="1">
+        <v>200</v>
+      </c>
       <c r="F384" s="1">
         <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>1132</v>
+        <v>1241</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>1207</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -9901,22 +9889,22 @@
         <v>269</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="C385" t="s">
         <v>1124</v>
       </c>
       <c r="E385" s="1">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="F385" s="1">
         <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -9924,19 +9912,22 @@
         <v>269</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1168</v>
+        <v>1239</v>
       </c>
       <c r="C386" t="s">
         <v>1124</v>
       </c>
+      <c r="E386" s="1">
+        <v>25000</v>
+      </c>
       <c r="F386" s="1">
         <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>1129</v>
+        <v>1250</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1208</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -9944,22 +9935,22 @@
         <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1235</v>
+        <v>1201</v>
       </c>
       <c r="C387" t="s">
         <v>1124</v>
       </c>
       <c r="E387" s="1">
-        <v>1280</v>
+        <v>10000</v>
       </c>
       <c r="F387" s="1">
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -9967,19 +9958,22 @@
         <v>269</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1169</v>
+        <v>1267</v>
       </c>
       <c r="C388" t="s">
         <v>1124</v>
       </c>
+      <c r="E388" s="1">
+        <v>10000</v>
+      </c>
       <c r="F388" s="1">
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>1125</v>
+        <v>1268</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>1209</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -9987,22 +9981,19 @@
         <v>269</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C389" t="s">
         <v>1124</v>
       </c>
-      <c r="E389" s="1">
-        <v>250000</v>
-      </c>
       <c r="F389" s="1">
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -10010,7 +10001,7 @@
         <v>269</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C390" t="s">
         <v>1124</v>
@@ -10019,10 +10010,10 @@
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -10030,7 +10021,7 @@
         <v>269</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C391" t="s">
         <v>1124</v>
@@ -10039,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -10050,22 +10041,22 @@
         <v>269</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C392" t="s">
         <v>1124</v>
       </c>
       <c r="E392" s="1">
-        <v>1360</v>
+        <v>280</v>
       </c>
       <c r="F392" s="1">
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -10073,22 +10064,19 @@
         <v>269</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1234</v>
+        <v>1168</v>
       </c>
       <c r="C393" t="s">
         <v>1124</v>
       </c>
-      <c r="E393" s="1">
-        <v>640</v>
-      </c>
       <c r="F393" s="1">
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>1245</v>
+        <v>1129</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>1256</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -10096,19 +10084,22 @@
         <v>269</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1173</v>
+        <v>1235</v>
       </c>
       <c r="C394" t="s">
         <v>1124</v>
       </c>
+      <c r="E394" s="1">
+        <v>1280</v>
+      </c>
       <c r="F394" s="1">
         <v>0</v>
       </c>
       <c r="G394" t="s">
-        <v>1127</v>
+        <v>1246</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1213</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -10116,7 +10107,7 @@
         <v>269</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C395" t="s">
         <v>1124</v>
@@ -10125,10 +10116,10 @@
         <v>0</v>
       </c>
       <c r="G395" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -10136,19 +10127,22 @@
         <v>269</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C396" t="s">
         <v>1124</v>
       </c>
+      <c r="E396" s="1">
+        <v>250000</v>
+      </c>
       <c r="F396" s="1">
         <v>0</v>
       </c>
       <c r="G396" t="s">
-        <v>1142</v>
+        <v>1067</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -10156,7 +10150,7 @@
         <v>269</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C397" t="s">
         <v>1124</v>
@@ -10165,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="G397" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -10176,22 +10170,19 @@
         <v>269</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1</v>
+        <v>1172</v>
       </c>
       <c r="C398" t="s">
         <v>1124</v>
       </c>
-      <c r="E398" s="1">
-        <v>500000</v>
-      </c>
       <c r="F398" s="1">
         <v>0</v>
       </c>
       <c r="G398" t="s">
-        <v>2</v>
+        <v>1131</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -10199,19 +10190,22 @@
         <v>269</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1177</v>
+        <v>1237</v>
       </c>
       <c r="C399" t="s">
         <v>1124</v>
       </c>
+      <c r="E399" s="1">
+        <v>1360</v>
+      </c>
       <c r="F399" s="1">
         <v>0</v>
       </c>
       <c r="G399" t="s">
-        <v>1128</v>
+        <v>1248</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>1218</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -10219,19 +10213,22 @@
         <v>269</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1178</v>
+        <v>1234</v>
       </c>
       <c r="C400" t="s">
         <v>1124</v>
       </c>
+      <c r="E400" s="1">
+        <v>640</v>
+      </c>
       <c r="F400" s="1">
         <v>0</v>
       </c>
       <c r="G400" t="s">
-        <v>1135</v>
+        <v>1245</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1219</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -10239,7 +10236,7 @@
         <v>269</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C401" t="s">
         <v>1124</v>
@@ -10248,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="G401" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -10259,22 +10256,19 @@
         <v>269</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="C402" t="s">
         <v>1124</v>
       </c>
-      <c r="E402" s="1">
-        <v>500000</v>
-      </c>
       <c r="F402" s="1">
         <v>0</v>
       </c>
       <c r="G402" t="s">
-        <v>1265</v>
+        <v>1130</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1266</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -10282,22 +10276,19 @@
         <v>269</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1065</v>
+        <v>1175</v>
       </c>
       <c r="C403" t="s">
         <v>1124</v>
       </c>
-      <c r="E403" s="1">
-        <v>500000</v>
-      </c>
       <c r="F403" s="1">
         <v>0</v>
       </c>
       <c r="G403" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -10305,7 +10296,7 @@
         <v>269</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C404" t="s">
         <v>1124</v>
@@ -10314,10 +10305,10 @@
         <v>0</v>
       </c>
       <c r="G404" t="s">
-        <v>1124</v>
+        <v>1138</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -10325,22 +10316,22 @@
         <v>269</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>370</v>
+        <v>1</v>
       </c>
       <c r="C405" t="s">
         <v>1124</v>
       </c>
       <c r="E405" s="1">
-        <v>200</v>
+        <v>500000</v>
       </c>
       <c r="F405" s="1">
         <v>0</v>
       </c>
       <c r="G405" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -10348,7 +10339,7 @@
         <v>269</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C406" t="s">
         <v>1124</v>
@@ -10357,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="G406" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -10368,7 +10359,7 @@
         <v>269</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C407" t="s">
         <v>1124</v>
@@ -10377,10 +10368,10 @@
         <v>0</v>
       </c>
       <c r="G407" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -10388,7 +10379,7 @@
         <v>269</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="C408" t="s">
         <v>1124</v>
@@ -10397,10 +10388,10 @@
         <v>0</v>
       </c>
       <c r="G408" t="s">
-        <v>1204</v>
+        <v>1136</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -10408,19 +10399,22 @@
         <v>269</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1183</v>
+        <v>1264</v>
       </c>
       <c r="C409" t="s">
         <v>1124</v>
       </c>
+      <c r="E409" s="1">
+        <v>500000</v>
+      </c>
       <c r="F409" s="1">
         <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1143</v>
+        <v>1265</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>1226</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -10428,22 +10422,22 @@
         <v>269</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1240</v>
+        <v>1065</v>
       </c>
       <c r="C410" t="s">
         <v>1124</v>
       </c>
       <c r="E410" s="1">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="F410" s="1">
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>1251</v>
+        <v>1066</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1262</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -10451,7 +10445,7 @@
         <v>269</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C411" t="s">
         <v>1124</v>
@@ -10460,10 +10454,10 @@
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -10471,19 +10465,22 @@
         <v>269</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1185</v>
+        <v>370</v>
       </c>
       <c r="C412" t="s">
         <v>1124</v>
       </c>
+      <c r="E412" s="1">
+        <v>200</v>
+      </c>
       <c r="F412" s="1">
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>1126</v>
+        <v>143</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,358 +10488,361 @@
         <v>269</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="C413" t="s">
         <v>1124</v>
       </c>
-      <c r="E413" s="1">
-        <v>680</v>
-      </c>
       <c r="F413" s="1">
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>1247</v>
+        <v>1141</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>1258</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1124</v>
       </c>
       <c r="F414" s="1">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>1193</v>
+        <v>1202</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1124</v>
       </c>
       <c r="F415" s="1">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>1187</v>
+        <v>1183</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1124</v>
       </c>
       <c r="F416" s="1">
-        <v>100000</v>
+        <v>0</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>1191</v>
+        <v>1240</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E417" s="1">
+        <v>10000</v>
       </c>
       <c r="F417" s="1">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>1192</v>
+        <v>1184</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1124</v>
       </c>
       <c r="F418" s="1">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1124</v>
       </c>
       <c r="F419" s="1">
-        <v>50000</v>
+        <v>0</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>1190</v>
+        <v>1236</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E420" s="1">
+        <v>680</v>
       </c>
       <c r="F420" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>783</v>
+        <v>1196</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E421" s="1">
-        <v>980</v>
+        <v>1189</v>
+      </c>
+      <c r="F421" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>782</v>
+        <v>1200</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E422" s="1">
-        <v>980</v>
+        <v>1193</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>779</v>
+        <v>1194</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E423" s="1">
-        <v>980</v>
+        <v>1187</v>
+      </c>
+      <c r="F423" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>780</v>
+        <v>1198</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E424" s="1">
-        <v>980</v>
+        <v>1191</v>
+      </c>
+      <c r="F424" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>778</v>
+        <v>1199</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E425" s="1">
-        <v>980</v>
+        <v>1192</v>
+      </c>
+      <c r="F425" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>781</v>
+        <v>1195</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E426" s="1">
-        <v>980</v>
+        <v>1188</v>
+      </c>
+      <c r="F426" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>784</v>
+        <v>1197</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E427" s="1">
-        <v>980</v>
+        <v>1190</v>
+      </c>
+      <c r="F427" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>690</v>
+        <v>783</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>472</v>
+        <v>677</v>
       </c>
       <c r="E428" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H428" s="3" t="s">
-        <v>498</v>
+        <v>980</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>472</v>
+        <v>676</v>
       </c>
       <c r="E429" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G429" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H429" s="3" t="s">
-        <v>639</v>
+        <v>980</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="E430" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G430" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H430" s="3" t="s">
-        <v>508</v>
+        <v>980</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E431" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G431" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>586</v>
+        <v>980</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
       <c r="E432" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G432" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>532</v>
+        <v>980</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>717</v>
+        <v>781</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E433" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>556</v>
+        <v>980</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>684</v>
+        <v>784</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E434" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>486</v>
+        <v>980</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>776</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>775</v>
+        <v>690</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>472</v>
@@ -10859,10 +10859,10 @@
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>670</v>
+        <v>497</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>671</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -10870,7 +10870,7 @@
         <v>776</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>472</v>
@@ -10879,10 +10879,10 @@
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>476</v>
+        <v>639</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -10890,7 +10890,7 @@
         <v>776</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>472</v>
@@ -10899,10 +10899,10 @@
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>606</v>
+        <v>508</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
         <v>776</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>472</v>
@@ -10919,10 +10919,10 @@
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -10930,7 +10930,7 @@
         <v>776</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>472</v>
@@ -10939,10 +10939,10 @@
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -10950,7 +10950,7 @@
         <v>776</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>472</v>
@@ -10959,10 +10959,10 @@
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -10970,7 +10970,7 @@
         <v>776</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>472</v>
@@ -10979,10 +10979,10 @@
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>580</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -10990,7 +10990,7 @@
         <v>776</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>472</v>
@@ -10999,10 +10999,10 @@
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>561</v>
+        <v>670</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>562</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -11010,7 +11010,7 @@
         <v>776</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -11019,10 +11019,10 @@
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -11030,7 +11030,7 @@
         <v>776</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>472</v>
@@ -11039,10 +11039,10 @@
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>776</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>472</v>
@@ -11059,10 +11059,10 @@
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -11070,7 +11070,7 @@
         <v>776</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>472</v>
@@ -11079,10 +11079,10 @@
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>656</v>
+        <v>569</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
         <v>776</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>472</v>
@@ -11099,10 +11099,10 @@
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -11110,7 +11110,7 @@
         <v>776</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>472</v>
@@ -11119,10 +11119,10 @@
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
         <v>776</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>472</v>
@@ -11139,10 +11139,10 @@
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -11150,7 +11150,7 @@
         <v>776</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>472</v>
@@ -11159,10 +11159,10 @@
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>646</v>
+        <v>537</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -11170,7 +11170,7 @@
         <v>776</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>472</v>
@@ -11179,10 +11179,10 @@
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -11190,7 +11190,7 @@
         <v>776</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>472</v>
@@ -11199,10 +11199,10 @@
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>493</v>
+        <v>658</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>494</v>
+        <v>659</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -11210,7 +11210,7 @@
         <v>776</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>472</v>
@@ -11219,10 +11219,10 @@
         <v>10000</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -11230,7 +11230,7 @@
         <v>776</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>472</v>
@@ -11239,10 +11239,10 @@
         <v>10000</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
         <v>776</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>472</v>
@@ -11259,10 +11259,10 @@
         <v>10000</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -11270,7 +11270,7 @@
         <v>776</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>472</v>
@@ -11279,10 +11279,10 @@
         <v>10000</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -11290,7 +11290,7 @@
         <v>776</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>472</v>
@@ -11299,10 +11299,10 @@
         <v>10000</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>504</v>
+        <v>647</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
         <v>776</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>472</v>
@@ -11319,10 +11319,10 @@
         <v>10000</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>478</v>
+        <v>608</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -11330,7 +11330,7 @@
         <v>776</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>472</v>
@@ -11339,10 +11339,10 @@
         <v>10000</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -11350,7 +11350,7 @@
         <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>472</v>
@@ -11359,10 +11359,10 @@
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -11370,7 +11370,7 @@
         <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>472</v>
@@ -11379,10 +11379,10 @@
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -11390,7 +11390,7 @@
         <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>472</v>
@@ -11399,10 +11399,10 @@
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>472</v>
@@ -11419,10 +11419,10 @@
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -11430,7 +11430,7 @@
         <v>776</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>472</v>
@@ -11439,10 +11439,10 @@
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -11450,7 +11450,7 @@
         <v>776</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>753</v>
+        <v>681</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>472</v>
@@ -11459,10 +11459,10 @@
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>627</v>
+        <v>478</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -11470,7 +11470,7 @@
         <v>776</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>472</v>
@@ -11479,10 +11479,10 @@
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -11490,7 +11490,7 @@
         <v>776</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>472</v>
@@ -11499,10 +11499,10 @@
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
         <v>776</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>472</v>
@@ -11519,10 +11519,10 @@
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -11530,7 +11530,7 @@
         <v>776</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -11539,10 +11539,10 @@
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -11550,7 +11550,7 @@
         <v>776</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>472</v>
@@ -11559,10 +11559,10 @@
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -11570,7 +11570,7 @@
         <v>776</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>770</v>
+        <v>710</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>472</v>
@@ -11579,10 +11579,10 @@
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>660</v>
+        <v>541</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>661</v>
+        <v>542</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -11590,7 +11590,7 @@
         <v>776</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>472</v>
@@ -11599,10 +11599,10 @@
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -11610,7 +11610,7 @@
         <v>776</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>472</v>
@@ -11619,10 +11619,10 @@
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>479</v>
+        <v>618</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>480</v>
+        <v>619</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>776</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
@@ -11639,10 +11639,10 @@
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -11650,7 +11650,7 @@
         <v>776</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>472</v>
@@ -11659,10 +11659,10 @@
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -11670,7 +11670,7 @@
         <v>776</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>472</v>
@@ -11679,10 +11679,10 @@
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,7 +11690,7 @@
         <v>776</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>472</v>
@@ -11699,10 +11699,10 @@
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -11710,7 +11710,7 @@
         <v>776</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>707</v>
+        <v>770</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>472</v>
@@ -11719,10 +11719,10 @@
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>535</v>
+        <v>660</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>536</v>
+        <v>661</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -11730,7 +11730,7 @@
         <v>776</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>472</v>
@@ -11739,10 +11739,10 @@
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -11750,7 +11750,7 @@
         <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>747</v>
+        <v>682</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>472</v>
@@ -11759,10 +11759,10 @@
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>614</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -11770,7 +11770,7 @@
         <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>472</v>
@@ -11779,10 +11779,10 @@
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -11790,7 +11790,7 @@
         <v>776</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>774</v>
+        <v>683</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>472</v>
@@ -11799,10 +11799,10 @@
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>668</v>
+        <v>483</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>669</v>
+        <v>484</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -11810,7 +11810,7 @@
         <v>776</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>472</v>
@@ -11819,10 +11819,10 @@
         <v>10000</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -11830,7 +11830,7 @@
         <v>776</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>472</v>
@@ -11839,10 +11839,10 @@
         <v>10000</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -11850,7 +11850,7 @@
         <v>776</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>458</v>
+        <v>707</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>472</v>
@@ -11859,10 +11859,10 @@
         <v>10000</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,7 +11870,7 @@
         <v>776</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>472</v>
@@ -11879,10 +11879,10 @@
         <v>10000</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>776</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>472</v>
@@ -11899,10 +11899,10 @@
         <v>10000</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -11910,7 +11910,7 @@
         <v>776</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>472</v>
@@ -11919,10 +11919,10 @@
         <v>10000</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -11930,7 +11930,7 @@
         <v>776</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>472</v>
@@ -11939,10 +11939,10 @@
         <v>10000</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>559</v>
+        <v>668</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>560</v>
+        <v>669</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -11950,7 +11950,7 @@
         <v>776</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>766</v>
+        <v>685</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>472</v>
@@ -11959,10 +11959,10 @@
         <v>10000</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>652</v>
+        <v>487</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>653</v>
+        <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -11970,7 +11970,7 @@
         <v>776</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>472</v>
@@ -11979,10 +11979,10 @@
         <v>10000</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -11990,7 +11990,7 @@
         <v>776</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>772</v>
+        <v>458</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>472</v>
@@ -11999,10 +11999,10 @@
         <v>10000</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>664</v>
+        <v>501</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>665</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -12010,7 +12010,7 @@
         <v>776</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>472</v>
@@ -12019,10 +12019,10 @@
         <v>10000</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -12030,7 +12030,7 @@
         <v>776</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>472</v>
@@ -12039,10 +12039,10 @@
         <v>10000</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H494" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -12050,7 +12050,7 @@
         <v>776</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>472</v>
@@ -12059,10 +12059,10 @@
         <v>10000</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -12070,7 +12070,7 @@
         <v>776</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>472</v>
@@ -12079,10 +12079,10 @@
         <v>10000</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>666</v>
+        <v>559</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>667</v>
+        <v>560</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -12090,7 +12090,7 @@
         <v>776</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>472</v>
@@ -12099,10 +12099,10 @@
         <v>10000</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>523</v>
+        <v>652</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>524</v>
+        <v>653</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -12110,7 +12110,7 @@
         <v>776</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>472</v>
@@ -12119,10 +12119,10 @@
         <v>10000</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -12130,7 +12130,7 @@
         <v>776</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>472</v>
@@ -12139,10 +12139,10 @@
         <v>10000</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -12150,7 +12150,7 @@
         <v>776</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>472</v>
@@ -12159,10 +12159,10 @@
         <v>10000</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -12170,7 +12170,7 @@
         <v>776</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>472</v>
@@ -12179,10 +12179,10 @@
         <v>10000</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="H501" s="3" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -12190,7 +12190,7 @@
         <v>776</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>472</v>
@@ -12199,10 +12199,10 @@
         <v>10000</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>554</v>
+        <v>496</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>776</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>472</v>
@@ -12219,10 +12219,10 @@
         <v>10000</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>527</v>
+        <v>666</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>528</v>
+        <v>667</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -12230,7 +12230,7 @@
         <v>776</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>472</v>
@@ -12239,10 +12239,10 @@
         <v>10000</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
         <v>776</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>472</v>
@@ -12259,10 +12259,10 @@
         <v>10000</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>628</v>
+        <v>515</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>629</v>
+        <v>516</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
         <v>776</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>699</v>
+        <v>760</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>472</v>
@@ -12279,10 +12279,10 @@
         <v>10000</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>519</v>
+        <v>640</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>520</v>
+        <v>641</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -12290,7 +12290,7 @@
         <v>776</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>472</v>
@@ -12299,10 +12299,10 @@
         <v>10000</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -12310,7 +12310,7 @@
         <v>776</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>472</v>
@@ -12319,10 +12319,10 @@
         <v>10000</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -12330,7 +12330,7 @@
         <v>776</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>472</v>
@@ -12339,10 +12339,10 @@
         <v>10000</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>637</v>
+        <v>554</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -12350,7 +12350,7 @@
         <v>776</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>472</v>
@@ -12359,10 +12359,10 @@
         <v>10000</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -12370,7 +12370,7 @@
         <v>776</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>472</v>
@@ -12379,10 +12379,10 @@
         <v>10000</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -12390,7 +12390,7 @@
         <v>776</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>66</v>
+        <v>754</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>472</v>
@@ -12399,10 +12399,10 @@
         <v>10000</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>482</v>
+        <v>629</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -12410,7 +12410,7 @@
         <v>776</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>472</v>
@@ -12419,10 +12419,10 @@
         <v>10000</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -12430,7 +12430,7 @@
         <v>776</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>472</v>
@@ -12439,10 +12439,10 @@
         <v>10000</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -12450,7 +12450,7 @@
         <v>776</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>472</v>
@@ -12459,10 +12459,10 @@
         <v>10000</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="H515" s="3" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -12470,7 +12470,7 @@
         <v>776</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>687</v>
+        <v>758</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>472</v>
@@ -12479,10 +12479,10 @@
         <v>10000</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>492</v>
+        <v>637</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -12490,7 +12490,7 @@
         <v>776</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>472</v>
@@ -12499,10 +12499,10 @@
         <v>10000</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -12510,7 +12510,7 @@
         <v>776</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>472</v>
@@ -12519,10 +12519,10 @@
         <v>10000</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -12530,7 +12530,7 @@
         <v>776</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>695</v>
+        <v>66</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>472</v>
@@ -12539,10 +12539,10 @@
         <v>10000</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -12550,7 +12550,7 @@
         <v>776</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>472</v>
@@ -12559,10 +12559,10 @@
         <v>10000</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -12570,7 +12570,7 @@
         <v>776</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>472</v>
@@ -12579,10 +12579,10 @@
         <v>10000</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -12590,7 +12590,7 @@
         <v>776</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>472</v>
@@ -12599,10 +12599,10 @@
         <v>10000</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -12610,7 +12610,7 @@
         <v>776</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>70</v>
+        <v>687</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>472</v>
@@ -12619,10 +12619,10 @@
         <v>10000</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
         <v>776</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>762</v>
+        <v>686</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>472</v>
@@ -12639,10 +12639,10 @@
         <v>10000</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>645</v>
+        <v>490</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -12650,7 +12650,7 @@
         <v>776</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>472</v>
@@ -12659,10 +12659,10 @@
         <v>10000</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -12670,7 +12670,7 @@
         <v>776</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>472</v>
@@ -12679,10 +12679,10 @@
         <v>10000</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="H526" s="3" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -12690,7 +12690,7 @@
         <v>776</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>472</v>
@@ -12699,260 +12699,302 @@
         <v>10000</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>451</v>
+        <v>711</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E528" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1317</v>
+        <v>767</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1320</v>
+        <v>472</v>
       </c>
       <c r="E529" s="1">
-        <v>250</v>
-      </c>
-      <c r="F529" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1319</v>
+        <v>70</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1323</v>
+        <v>472</v>
       </c>
       <c r="E530" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>34</v>
+        <v>762</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E531" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>33</v>
+        <v>761</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="E532" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1068</v>
+        <v>736</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1069</v>
+        <v>472</v>
       </c>
       <c r="E533" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1318</v>
+        <v>745</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="E534" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F534" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1072</v>
+        <v>451</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1074</v>
+        <v>262</v>
       </c>
       <c r="E535" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F535" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1073</v>
+        <v>1317</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1075</v>
+        <v>1320</v>
       </c>
       <c r="E536" s="1">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="F536" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>35</v>
+        <v>1319</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>42</v>
+        <v>1323</v>
       </c>
       <c r="E537" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E538" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E539" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>13</v>
+        <v>1068</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>19</v>
+        <v>1069</v>
       </c>
       <c r="E540" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>9</v>
+        <v>1318</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>17</v>
+        <v>1322</v>
       </c>
       <c r="E541" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F541" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>10</v>
+        <v>1072</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>16</v>
+        <v>1074</v>
       </c>
       <c r="E542" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F542" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>12</v>
+        <v>1073</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>18</v>
+        <v>1075</v>
       </c>
       <c r="E543" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F543" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E544" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -12960,13 +13002,13 @@
         <v>799</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E545" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -12974,13 +13016,13 @@
         <v>799</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1070</v>
+        <v>14</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1071</v>
+        <v>20</v>
       </c>
       <c r="E546" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -12988,27 +13030,24 @@
         <v>799</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1316</v>
+        <v>13</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1321</v>
+        <v>19</v>
       </c>
       <c r="E547" s="1">
-        <v>500</v>
-      </c>
-      <c r="F547" s="1">
-        <v>250</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>822</v>
+        <v>9</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1041</v>
+        <v>17</v>
       </c>
       <c r="E548" s="1">
         <v>25000</v>
@@ -13016,13 +13055,13 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>805</v>
+        <v>10</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="E549" s="1">
         <v>25000</v>
@@ -13030,13 +13069,13 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>806</v>
+        <v>12</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1025</v>
+        <v>18</v>
       </c>
       <c r="E550" s="1">
         <v>25000</v>
@@ -13044,13 +13083,13 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>823</v>
+        <v>11</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1042</v>
+        <v>15</v>
       </c>
       <c r="E551" s="1">
         <v>25000</v>
@@ -13058,44 +13097,47 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>807</v>
+        <v>32</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1026</v>
+        <v>39</v>
       </c>
       <c r="E552" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>824</v>
+        <v>1070</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="E553" s="1">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>808</v>
+        <v>1316</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1027</v>
+        <v>1321</v>
       </c>
       <c r="E554" s="1">
-        <v>25000</v>
+        <v>500</v>
+      </c>
+      <c r="F554" s="1">
+        <v>250</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -13103,10 +13145,10 @@
         <v>804</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="E555" s="1">
         <v>25000</v>
@@ -13117,10 +13159,10 @@
         <v>804</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E556" s="1">
         <v>25000</v>
@@ -13131,10 +13173,10 @@
         <v>804</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E557" s="1">
         <v>25000</v>
@@ -13145,10 +13187,10 @@
         <v>804</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="E558" s="1">
         <v>25000</v>
@@ -13159,10 +13201,10 @@
         <v>804</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E559" s="1">
         <v>25000</v>
@@ -13173,10 +13215,10 @@
         <v>804</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="E560" s="1">
         <v>25000</v>
@@ -13187,10 +13229,10 @@
         <v>804</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E561" s="1">
         <v>25000</v>
@@ -13201,10 +13243,10 @@
         <v>804</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="E562" s="1">
         <v>25000</v>
@@ -13215,10 +13257,10 @@
         <v>804</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E563" s="1">
         <v>25000</v>
@@ -13229,10 +13271,10 @@
         <v>804</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="E564" s="1">
         <v>25000</v>
@@ -13243,10 +13285,10 @@
         <v>804</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E565" s="1">
         <v>25000</v>
@@ -13257,10 +13299,10 @@
         <v>804</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E566" s="1">
         <v>25000</v>
@@ -13271,10 +13313,10 @@
         <v>804</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="E567" s="1">
         <v>25000</v>
@@ -13285,10 +13327,10 @@
         <v>804</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E568" s="1">
         <v>25000</v>
@@ -13299,10 +13341,10 @@
         <v>804</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E569" s="1">
         <v>25000</v>
@@ -13313,10 +13355,10 @@
         <v>804</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="E570" s="1">
         <v>25000</v>
@@ -13327,10 +13369,10 @@
         <v>804</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E571" s="1">
         <v>25000</v>
@@ -13341,10 +13383,10 @@
         <v>804</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E572" s="1">
         <v>25000</v>
@@ -13355,10 +13397,10 @@
         <v>804</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="E573" s="1">
         <v>25000</v>
@@ -13369,10 +13411,10 @@
         <v>804</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E574" s="1">
         <v>25000</v>
@@ -13383,10 +13425,10 @@
         <v>804</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E575" s="1">
         <v>25000</v>
@@ -13397,10 +13439,10 @@
         <v>804</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E576" s="1">
         <v>25000</v>
@@ -13411,10 +13453,10 @@
         <v>804</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="E577" s="1">
         <v>25000</v>
@@ -13425,10 +13467,10 @@
         <v>804</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="E578" s="1">
         <v>25000</v>
@@ -13439,10 +13481,10 @@
         <v>804</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E579" s="1">
         <v>25000</v>
@@ -13453,10 +13495,10 @@
         <v>804</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="E580" s="1">
         <v>25000</v>
@@ -13467,22 +13509,120 @@
         <v>804</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="E581" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E582" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E583" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E584" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E585" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E586" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E587" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E588" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H581">
-    <sortCondition ref="A2:A581"/>
-    <sortCondition ref="C2:C581"/>
-    <sortCondition ref="G2:G581"/>
-    <sortCondition ref="D2:D581"/>
-    <sortCondition ref="H2:H581"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H588">
+    <sortCondition ref="A2:A588"/>
+    <sortCondition ref="C2:C588"/>
+    <sortCondition ref="G2:G588"/>
+    <sortCondition ref="D2:D588"/>
+    <sortCondition ref="H2:H588"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD31C57-4635-406B-BF08-DBE519B8D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A60D51-3A86-4734-A0CD-25368387F9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4377,8 +4377,8 @@
   <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F548" sqref="F548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12931,6 +12931,9 @@
       <c r="E540" s="1">
         <v>1000000</v>
       </c>
+      <c r="F540" s="1">
+        <v>250000</v>
+      </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
@@ -13121,6 +13124,9 @@
       </c>
       <c r="E553" s="1">
         <v>250000</v>
+      </c>
+      <c r="F553" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">

--- a/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A60D51-3A86-4734-A0CD-25368387F9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E17480-06EE-4CA6-838A-F645F90DCDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1389">
   <si>
     <t>Item Name</t>
   </si>
@@ -4048,6 +4048,159 @@
   </si>
   <si>
     <t>pixelmon:auspicious_armor</t>
+  </si>
+  <si>
+    <t>Mints</t>
+  </si>
+  <si>
+    <t>Adamant Mint</t>
+  </si>
+  <si>
+    <t>Naughty Mint</t>
+  </si>
+  <si>
+    <t>Brave Mint</t>
+  </si>
+  <si>
+    <t>Bold Mint</t>
+  </si>
+  <si>
+    <t>Impish Mint</t>
+  </si>
+  <si>
+    <t>Lax Mint</t>
+  </si>
+  <si>
+    <t>Relaxed Mint</t>
+  </si>
+  <si>
+    <t>Modest Mint</t>
+  </si>
+  <si>
+    <t>Mild Mint</t>
+  </si>
+  <si>
+    <t>Rash Mint</t>
+  </si>
+  <si>
+    <t>Quiet Mint</t>
+  </si>
+  <si>
+    <t>Calm Mint</t>
+  </si>
+  <si>
+    <t>Gentle Mint</t>
+  </si>
+  <si>
+    <t>Careful Mint</t>
+  </si>
+  <si>
+    <t>Sassy Mint</t>
+  </si>
+  <si>
+    <t>Timid Mint</t>
+  </si>
+  <si>
+    <t>Hasty Mint</t>
+  </si>
+  <si>
+    <t>Jolly Mint</t>
+  </si>
+  <si>
+    <t>Naive Mint</t>
+  </si>
+  <si>
+    <t>Quirky Mint</t>
+  </si>
+  <si>
+    <t>Bashful Mint</t>
+  </si>
+  <si>
+    <t>Serious Mint</t>
+  </si>
+  <si>
+    <t>Docile Mint</t>
+  </si>
+  <si>
+    <t>Hardy Mint</t>
+  </si>
+  <si>
+    <t>Lonely Mint</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_adamant</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_bashful</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_bold</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_brave</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_calm</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_careful</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_docile</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_gentle</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_hardy</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_hasty</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_impish</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_jolly</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_lax</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_lonely</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_mild</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_modest</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_naive</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_naughty</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_quiet</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_quirky</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_rash</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_relaxed</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_sassy</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_serious</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_timid</t>
   </si>
 </sst>
 </file>
@@ -4374,11 +4527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H588"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F548" sqref="F548"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5887,6 +6040,9 @@
       <c r="E103" s="1">
         <v>30000</v>
       </c>
+      <c r="F103" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -5901,6 +6057,9 @@
       <c r="E104" s="1">
         <v>30000</v>
       </c>
+      <c r="F104" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -5915,6 +6074,9 @@
       <c r="E105" s="1">
         <v>30000</v>
       </c>
+      <c r="F105" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -5929,6 +6091,9 @@
       <c r="E106" s="1">
         <v>30000</v>
       </c>
+      <c r="F106" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -5943,6 +6108,9 @@
       <c r="E107" s="1">
         <v>30000</v>
       </c>
+      <c r="F107" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -5957,6 +6125,9 @@
       <c r="E108" s="1">
         <v>30000</v>
       </c>
+      <c r="F108" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -5971,6 +6142,9 @@
       <c r="E109" s="1">
         <v>30000</v>
       </c>
+      <c r="F109" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -5985,6 +6159,9 @@
       <c r="E110" s="1">
         <v>30000</v>
       </c>
+      <c r="F110" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -5999,6 +6176,9 @@
       <c r="E111" s="1">
         <v>30000</v>
       </c>
+      <c r="F111" s="1">
+        <v>6000</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -6013,8 +6193,11 @@
       <c r="E112" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>800</v>
       </c>
@@ -6027,8 +6210,11 @@
       <c r="E113" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>800</v>
       </c>
@@ -6041,8 +6227,11 @@
       <c r="E114" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>800</v>
       </c>
@@ -6055,8 +6244,11 @@
       <c r="E115" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>800</v>
       </c>
@@ -6069,8 +6261,11 @@
       <c r="E116" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>800</v>
       </c>
@@ -6083,8 +6278,11 @@
       <c r="E117" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>800</v>
       </c>
@@ -6097,8 +6295,11 @@
       <c r="E118" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>800</v>
       </c>
@@ -6111,8 +6312,11 @@
       <c r="E119" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>800</v>
       </c>
@@ -6125,8 +6329,11 @@
       <c r="E120" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>800</v>
       </c>
@@ -6139,8 +6346,11 @@
       <c r="E121" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>800</v>
       </c>
@@ -6153,8 +6363,11 @@
       <c r="E122" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>800</v>
       </c>
@@ -6167,8 +6380,11 @@
       <c r="E123" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>800</v>
       </c>
@@ -6181,8 +6397,11 @@
       <c r="E124" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>800</v>
       </c>
@@ -6195,8 +6414,11 @@
       <c r="E125" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>800</v>
       </c>
@@ -6209,8 +6431,11 @@
       <c r="E126" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>800</v>
       </c>
@@ -6223,8 +6448,11 @@
       <c r="E127" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>800</v>
       </c>
@@ -6237,8 +6465,11 @@
       <c r="E128" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>800</v>
       </c>
@@ -6251,8 +6482,11 @@
       <c r="E129" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>272</v>
       </c>
@@ -6265,8 +6499,11 @@
       <c r="E130" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>272</v>
       </c>
@@ -6279,8 +6516,11 @@
       <c r="E131" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
@@ -6293,8 +6533,11 @@
       <c r="E132" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>272</v>
       </c>
@@ -6307,8 +6550,11 @@
       <c r="E133" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>272</v>
       </c>
@@ -6321,8 +6567,11 @@
       <c r="E134" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>272</v>
       </c>
@@ -6335,8 +6584,11 @@
       <c r="E135" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -6349,8 +6601,11 @@
       <c r="E136" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
@@ -6363,8 +6618,11 @@
       <c r="E137" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>272</v>
       </c>
@@ -6377,8 +6635,11 @@
       <c r="E138" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>272</v>
       </c>
@@ -6391,8 +6652,11 @@
       <c r="E139" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>272</v>
       </c>
@@ -6405,8 +6669,11 @@
       <c r="E140" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>272</v>
       </c>
@@ -6419,8 +6686,11 @@
       <c r="E141" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>272</v>
       </c>
@@ -6433,8 +6703,11 @@
       <c r="E142" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>272</v>
       </c>
@@ -6447,8 +6720,11 @@
       <c r="E143" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>272</v>
       </c>
@@ -6460,6 +6736,9 @@
       </c>
       <c r="E144" s="1">
         <v>25000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,6 +7251,9 @@
       <c r="E178" s="1">
         <v>15000</v>
       </c>
+      <c r="F178" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -6986,6 +7268,9 @@
       <c r="E179" s="1">
         <v>15000</v>
       </c>
+      <c r="F179" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -7000,6 +7285,9 @@
       <c r="E180" s="1">
         <v>15000</v>
       </c>
+      <c r="F180" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -7014,6 +7302,9 @@
       <c r="E181" s="1">
         <v>15000</v>
       </c>
+      <c r="F181" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -7028,6 +7319,9 @@
       <c r="E182" s="1">
         <v>15000</v>
       </c>
+      <c r="F182" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -7042,6 +7336,9 @@
       <c r="E183" s="1">
         <v>15000</v>
       </c>
+      <c r="F183" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -7056,6 +7353,9 @@
       <c r="E184" s="1">
         <v>15000</v>
       </c>
+      <c r="F184" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -7070,6 +7370,9 @@
       <c r="E185" s="1">
         <v>15000</v>
       </c>
+      <c r="F185" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -7084,6 +7387,9 @@
       <c r="E186" s="1">
         <v>15000</v>
       </c>
+      <c r="F186" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
@@ -7098,6 +7404,9 @@
       <c r="E187" s="1">
         <v>15000</v>
       </c>
+      <c r="F187" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -7112,6 +7421,9 @@
       <c r="E188" s="1">
         <v>15000</v>
       </c>
+      <c r="F188" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -7126,6 +7438,9 @@
       <c r="E189" s="1">
         <v>15000</v>
       </c>
+      <c r="F189" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -7140,6 +7455,9 @@
       <c r="E190" s="1">
         <v>15000</v>
       </c>
+      <c r="F190" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
@@ -7154,6 +7472,9 @@
       <c r="E191" s="1">
         <v>25000</v>
       </c>
+      <c r="F191" s="1">
+        <v>5000</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -7168,8 +7489,11 @@
       <c r="E192" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>785</v>
       </c>
@@ -7182,8 +7506,11 @@
       <c r="E193" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>785</v>
       </c>
@@ -7196,8 +7523,11 @@
       <c r="E194" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>785</v>
       </c>
@@ -7210,8 +7540,11 @@
       <c r="E195" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>785</v>
       </c>
@@ -7224,8 +7557,11 @@
       <c r="E196" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>785</v>
       </c>
@@ -7238,8 +7574,11 @@
       <c r="E197" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>785</v>
       </c>
@@ -7252,8 +7591,11 @@
       <c r="E198" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>785</v>
       </c>
@@ -7266,8 +7608,11 @@
       <c r="E199" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>785</v>
       </c>
@@ -7280,8 +7625,11 @@
       <c r="E200" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>785</v>
       </c>
@@ -7294,8 +7642,11 @@
       <c r="E201" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>785</v>
       </c>
@@ -7308,8 +7659,11 @@
       <c r="E202" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>785</v>
       </c>
@@ -7322,8 +7676,11 @@
       <c r="E203" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>785</v>
       </c>
@@ -7336,8 +7693,11 @@
       <c r="E204" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>785</v>
       </c>
@@ -7350,8 +7710,11 @@
       <c r="E205" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>785</v>
       </c>
@@ -7364,8 +7727,11 @@
       <c r="E206" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>785</v>
       </c>
@@ -7378,8 +7744,11 @@
       <c r="E207" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>785</v>
       </c>
@@ -7392,8 +7761,11 @@
       <c r="E208" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>785</v>
       </c>
@@ -7406,8 +7778,11 @@
       <c r="E209" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>785</v>
       </c>
@@ -7420,8 +7795,11 @@
       <c r="E210" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>785</v>
       </c>
@@ -7434,8 +7812,11 @@
       <c r="E211" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>785</v>
       </c>
@@ -7448,8 +7829,11 @@
       <c r="E212" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>785</v>
       </c>
@@ -7462,8 +7846,11 @@
       <c r="E213" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>785</v>
       </c>
@@ -7476,8 +7863,11 @@
       <c r="E214" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>785</v>
       </c>
@@ -7490,8 +7880,11 @@
       <c r="E215" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>785</v>
       </c>
@@ -7504,8 +7897,11 @@
       <c r="E216" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>785</v>
       </c>
@@ -7518,8 +7914,11 @@
       <c r="E217" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>785</v>
       </c>
@@ -7532,8 +7931,11 @@
       <c r="E218" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>785</v>
       </c>
@@ -7546,8 +7948,11 @@
       <c r="E219" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>785</v>
       </c>
@@ -7560,8 +7965,11 @@
       <c r="E220" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>785</v>
       </c>
@@ -7574,8 +7982,11 @@
       <c r="E221" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>785</v>
       </c>
@@ -7588,8 +7999,11 @@
       <c r="E222" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>785</v>
       </c>
@@ -7602,8 +8016,11 @@
       <c r="E223" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>785</v>
       </c>
@@ -7616,8 +8033,11 @@
       <c r="E224" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>785</v>
       </c>
@@ -7630,8 +8050,11 @@
       <c r="E225" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>785</v>
       </c>
@@ -7644,8 +8067,11 @@
       <c r="E226" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>785</v>
       </c>
@@ -7658,8 +8084,11 @@
       <c r="E227" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>785</v>
       </c>
@@ -7672,8 +8101,11 @@
       <c r="E228" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>785</v>
       </c>
@@ -7686,8 +8118,11 @@
       <c r="E229" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>785</v>
       </c>
@@ -7700,8 +8135,11 @@
       <c r="E230" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>785</v>
       </c>
@@ -7714,8 +8152,11 @@
       <c r="E231" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>785</v>
       </c>
@@ -7728,8 +8169,11 @@
       <c r="E232" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>785</v>
       </c>
@@ -7742,8 +8186,11 @@
       <c r="E233" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>785</v>
       </c>
@@ -7756,8 +8203,11 @@
       <c r="E234" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>785</v>
       </c>
@@ -7770,8 +8220,11 @@
       <c r="E235" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>785</v>
       </c>
@@ -7784,8 +8237,11 @@
       <c r="E236" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>785</v>
       </c>
@@ -7798,8 +8254,11 @@
       <c r="E237" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>785</v>
       </c>
@@ -7812,8 +8271,11 @@
       <c r="E238" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>785</v>
       </c>
@@ -7826,8 +8288,11 @@
       <c r="E239" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>785</v>
       </c>
@@ -7840,8 +8305,11 @@
       <c r="E240" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>785</v>
       </c>
@@ -7854,8 +8322,11 @@
       <c r="E241" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>785</v>
       </c>
@@ -7868,8 +8339,11 @@
       <c r="E242" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>785</v>
       </c>
@@ -7882,8 +8356,11 @@
       <c r="E243" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>785</v>
       </c>
@@ -7896,8 +8373,11 @@
       <c r="E244" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>785</v>
       </c>
@@ -7910,8 +8390,11 @@
       <c r="E245" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>785</v>
       </c>
@@ -7924,8 +8407,11 @@
       <c r="E246" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>785</v>
       </c>
@@ -7938,8 +8424,11 @@
       <c r="E247" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>785</v>
       </c>
@@ -7952,8 +8441,11 @@
       <c r="E248" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>785</v>
       </c>
@@ -7966,8 +8458,11 @@
       <c r="E249" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>785</v>
       </c>
@@ -7980,8 +8475,11 @@
       <c r="E250" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>785</v>
       </c>
@@ -7994,8 +8492,11 @@
       <c r="E251" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>785</v>
       </c>
@@ -8008,8 +8509,11 @@
       <c r="E252" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>785</v>
       </c>
@@ -8022,8 +8526,11 @@
       <c r="E253" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>785</v>
       </c>
@@ -8036,8 +8543,11 @@
       <c r="E254" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>785</v>
       </c>
@@ -8050,8 +8560,11 @@
       <c r="E255" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>785</v>
       </c>
@@ -8064,8 +8577,11 @@
       <c r="E256" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>785</v>
       </c>
@@ -8078,8 +8594,11 @@
       <c r="E257" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>785</v>
       </c>
@@ -8092,8 +8611,11 @@
       <c r="E258" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>785</v>
       </c>
@@ -8106,8 +8628,11 @@
       <c r="E259" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>785</v>
       </c>
@@ -8120,8 +8645,11 @@
       <c r="E260" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>785</v>
       </c>
@@ -8134,8 +8662,11 @@
       <c r="E261" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>785</v>
       </c>
@@ -8148,8 +8679,11 @@
       <c r="E262" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>275</v>
       </c>
@@ -8162,8 +8696,11 @@
       <c r="E263" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>275</v>
       </c>
@@ -8176,8 +8713,11 @@
       <c r="E264" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>275</v>
       </c>
@@ -8190,8 +8730,11 @@
       <c r="E265" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>275</v>
       </c>
@@ -8204,8 +8747,11 @@
       <c r="E266" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>275</v>
       </c>
@@ -8218,8 +8764,11 @@
       <c r="E267" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>275</v>
       </c>
@@ -8232,8 +8781,11 @@
       <c r="E268" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>275</v>
       </c>
@@ -8246,8 +8798,11 @@
       <c r="E269" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>275</v>
       </c>
@@ -8260,8 +8815,11 @@
       <c r="E270" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>275</v>
       </c>
@@ -8274,8 +8832,11 @@
       <c r="E271" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -9409,7 +9970,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>893</v>
       </c>
@@ -9423,7 +9984,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>893</v>
       </c>
@@ -9437,7 +9998,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>893</v>
       </c>
@@ -9451,7 +10012,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>893</v>
       </c>
@@ -9465,7 +10026,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>893</v>
       </c>
@@ -9479,7 +10040,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>893</v>
       </c>
@@ -9493,7 +10054,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>893</v>
       </c>
@@ -9507,7 +10068,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>893</v>
       </c>
@@ -9521,7 +10082,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>893</v>
       </c>
@@ -9535,7 +10096,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>893</v>
       </c>
@@ -9549,7 +10110,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>893</v>
       </c>
@@ -9563,7 +10124,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>893</v>
       </c>
@@ -9577,781 +10138,667 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>854</v>
+        <v>1339</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>870</v>
+        <v>1364</v>
       </c>
       <c r="E365" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>849</v>
+        <v>1359</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>865</v>
+        <v>1365</v>
       </c>
       <c r="E366" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>848</v>
+        <v>1342</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>864</v>
+        <v>1366</v>
       </c>
       <c r="E367" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>852</v>
+        <v>1341</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>868</v>
+        <v>1367</v>
       </c>
       <c r="E368" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>840</v>
+        <v>1350</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>856</v>
+        <v>1368</v>
       </c>
       <c r="E369" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>853</v>
+        <v>1352</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>869</v>
+        <v>1369</v>
       </c>
       <c r="E370" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>843</v>
+        <v>1361</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>859</v>
+        <v>1370</v>
       </c>
       <c r="E371" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>851</v>
+        <v>1351</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="E372" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>839</v>
+        <v>1362</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>855</v>
+        <v>1372</v>
       </c>
       <c r="E373" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>846</v>
+        <v>1355</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>862</v>
+        <v>1373</v>
       </c>
       <c r="E374" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>446</v>
+        <v>1343</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>256</v>
+        <v>1374</v>
       </c>
       <c r="E375" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>842</v>
+        <v>1356</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>858</v>
+        <v>1375</v>
       </c>
       <c r="E376" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>841</v>
+        <v>1344</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>857</v>
+        <v>1376</v>
       </c>
       <c r="E377" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>850</v>
+        <v>1363</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>866</v>
+        <v>1377</v>
       </c>
       <c r="E378" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>847</v>
+        <v>1347</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>863</v>
+        <v>1378</v>
       </c>
       <c r="E379" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>844</v>
+        <v>1346</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>860</v>
+        <v>1379</v>
       </c>
       <c r="E380" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>798</v>
+        <v>1338</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>845</v>
+        <v>1357</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>861</v>
+        <v>1380</v>
       </c>
       <c r="E381" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1124</v>
+        <v>1340</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="E382" s="1">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="F382" s="1">
-        <v>0</v>
-      </c>
-      <c r="G382" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1124</v>
+        <v>1349</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1382</v>
       </c>
       <c r="E383" s="1">
-        <v>240</v>
+        <v>10000</v>
       </c>
       <c r="F383" s="1">
-        <v>0</v>
-      </c>
-      <c r="G383" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H383" s="3" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1124</v>
+        <v>1358</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1383</v>
       </c>
       <c r="E384" s="1">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="F384" s="1">
-        <v>0</v>
-      </c>
-      <c r="G384" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1124</v>
+        <v>1348</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1384</v>
       </c>
       <c r="E385" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="F385" s="1">
-        <v>0</v>
-      </c>
-      <c r="G385" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H385" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1124</v>
+        <v>1345</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="E386" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="F386" s="1">
-        <v>0</v>
-      </c>
-      <c r="G386" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H386" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1124</v>
+        <v>1353</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1386</v>
       </c>
       <c r="E387" s="1">
         <v>10000</v>
       </c>
       <c r="F387" s="1">
-        <v>0</v>
-      </c>
-      <c r="G387" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1124</v>
+        <v>1360</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1387</v>
       </c>
       <c r="E388" s="1">
         <v>10000</v>
       </c>
       <c r="F388" s="1">
-        <v>0</v>
-      </c>
-      <c r="G388" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H388" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>269</v>
+        <v>1338</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1124</v>
+        <v>1354</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E389" s="1">
+        <v>10000</v>
       </c>
       <c r="F389" s="1">
-        <v>0</v>
-      </c>
-      <c r="G389" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H389" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F390" s="1">
-        <v>0</v>
-      </c>
-      <c r="G390" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H390" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E390" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F391" s="1">
-        <v>0</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E391" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1124</v>
+        <v>848</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>864</v>
       </c>
       <c r="E392" s="1">
-        <v>280</v>
-      </c>
-      <c r="F392" s="1">
-        <v>0</v>
-      </c>
-      <c r="G392" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F393" s="1">
-        <v>0</v>
-      </c>
-      <c r="G393" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E393" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C394" t="s">
-        <v>1124</v>
+        <v>840</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="E394" s="1">
-        <v>1280</v>
-      </c>
-      <c r="F394" s="1">
-        <v>0</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H394" s="3" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F395" s="1">
-        <v>0</v>
-      </c>
-      <c r="G395" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E395" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C396" t="s">
-        <v>1124</v>
+        <v>843</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="E396" s="1">
-        <v>250000</v>
-      </c>
-      <c r="F396" s="1">
-        <v>0</v>
-      </c>
-      <c r="G396" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F397" s="1">
-        <v>0</v>
-      </c>
-      <c r="G397" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E397" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F398" s="1">
-        <v>0</v>
-      </c>
-      <c r="G398" t="s">
-        <v>1131</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E398" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1124</v>
+        <v>846</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="E399" s="1">
-        <v>1360</v>
-      </c>
-      <c r="F399" s="1">
-        <v>0</v>
-      </c>
-      <c r="G399" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H399" s="3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1124</v>
+        <v>446</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="E400" s="1">
-        <v>640</v>
-      </c>
-      <c r="F400" s="1">
-        <v>0</v>
-      </c>
-      <c r="G400" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>1256</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F401" s="1">
-        <v>0</v>
-      </c>
-      <c r="G401" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>1213</v>
+        <v>842</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E401" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F402" s="1">
-        <v>0</v>
-      </c>
-      <c r="G402" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>1214</v>
+        <v>841</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E402" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F403" s="1">
-        <v>0</v>
-      </c>
-      <c r="G403" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H403" s="3" t="s">
-        <v>1215</v>
+        <v>850</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E403" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F404" s="1">
-        <v>0</v>
-      </c>
-      <c r="G404" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H404" s="3" t="s">
-        <v>1216</v>
+        <v>847</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E404" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1124</v>
+        <v>844</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="E405" s="1">
-        <v>500000</v>
-      </c>
-      <c r="F405" s="1">
-        <v>0</v>
-      </c>
-      <c r="G405" t="s">
-        <v>2</v>
-      </c>
-      <c r="H405" s="3" t="s">
-        <v>1217</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F406" s="1">
-        <v>0</v>
-      </c>
-      <c r="G406" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H406" s="3" t="s">
-        <v>1218</v>
+        <v>845</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E406" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -10359,19 +10806,22 @@
         <v>269</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1178</v>
+        <v>1232</v>
       </c>
       <c r="C407" t="s">
         <v>1124</v>
       </c>
+      <c r="E407" s="1">
+        <v>600</v>
+      </c>
       <c r="F407" s="1">
         <v>0</v>
       </c>
       <c r="G407" t="s">
-        <v>1135</v>
+        <v>1243</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>1219</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -10379,19 +10829,22 @@
         <v>269</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1179</v>
+        <v>1233</v>
       </c>
       <c r="C408" t="s">
         <v>1124</v>
       </c>
+      <c r="E408" s="1">
+        <v>240</v>
+      </c>
       <c r="F408" s="1">
         <v>0</v>
       </c>
       <c r="G408" t="s">
-        <v>1136</v>
+        <v>1244</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1220</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -10399,22 +10852,22 @@
         <v>269</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1264</v>
+        <v>1230</v>
       </c>
       <c r="C409" t="s">
         <v>1124</v>
       </c>
       <c r="E409" s="1">
-        <v>500000</v>
+        <v>200</v>
       </c>
       <c r="F409" s="1">
         <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1265</v>
+        <v>1241</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -10422,22 +10875,22 @@
         <v>269</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1065</v>
+        <v>1231</v>
       </c>
       <c r="C410" t="s">
         <v>1124</v>
       </c>
       <c r="E410" s="1">
-        <v>500000</v>
+        <v>1200</v>
       </c>
       <c r="F410" s="1">
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>1066</v>
+        <v>1242</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1221</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -10445,19 +10898,22 @@
         <v>269</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1180</v>
+        <v>1239</v>
       </c>
       <c r="C411" t="s">
         <v>1124</v>
       </c>
+      <c r="E411" s="1">
+        <v>25000</v>
+      </c>
       <c r="F411" s="1">
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>1124</v>
+        <v>1250</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>1222</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -10465,22 +10921,22 @@
         <v>269</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>370</v>
+        <v>1201</v>
       </c>
       <c r="C412" t="s">
         <v>1124</v>
       </c>
       <c r="E412" s="1">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="F412" s="1">
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>143</v>
+        <v>1203</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1223</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -10488,19 +10944,22 @@
         <v>269</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1181</v>
+        <v>1267</v>
       </c>
       <c r="C413" t="s">
         <v>1124</v>
       </c>
+      <c r="E413" s="1">
+        <v>10000</v>
+      </c>
       <c r="F413" s="1">
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>1141</v>
+        <v>1268</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>1224</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -10508,7 +10967,7 @@
         <v>269</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="C414" t="s">
         <v>1124</v>
@@ -10517,10 +10976,10 @@
         <v>0</v>
       </c>
       <c r="G414" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>1225</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -10528,7 +10987,7 @@
         <v>269</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="C415" t="s">
         <v>1124</v>
@@ -10537,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="G415" t="s">
-        <v>1204</v>
+        <v>1140</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>1229</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -10548,7 +11007,7 @@
         <v>269</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="C416" t="s">
         <v>1124</v>
@@ -10557,10 +11016,10 @@
         <v>0</v>
       </c>
       <c r="G416" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1226</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -10568,22 +11027,22 @@
         <v>269</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C417" t="s">
         <v>1124</v>
       </c>
       <c r="E417" s="1">
-        <v>10000</v>
+        <v>280</v>
       </c>
       <c r="F417" s="1">
         <v>0</v>
       </c>
       <c r="G417" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -10591,7 +11050,7 @@
         <v>269</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C418" t="s">
         <v>1124</v>
@@ -10600,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="G418" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -10611,19 +11070,22 @@
         <v>269</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1185</v>
+        <v>1235</v>
       </c>
       <c r="C419" t="s">
         <v>1124</v>
       </c>
+      <c r="E419" s="1">
+        <v>1280</v>
+      </c>
       <c r="F419" s="1">
         <v>0</v>
       </c>
       <c r="G419" t="s">
-        <v>1126</v>
+        <v>1246</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>1228</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -10631,718 +11093,742 @@
         <v>269</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1236</v>
+        <v>1169</v>
       </c>
       <c r="C420" t="s">
         <v>1124</v>
       </c>
-      <c r="E420" s="1">
-        <v>680</v>
-      </c>
       <c r="F420" s="1">
         <v>0</v>
       </c>
       <c r="G420" t="s">
-        <v>1247</v>
+        <v>1125</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1258</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>1189</v>
+        <v>1170</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E421" s="1">
+        <v>250000</v>
       </c>
       <c r="F421" s="1">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>1193</v>
+        <v>1171</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1124</v>
       </c>
       <c r="F422" s="1">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>1187</v>
+        <v>1172</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1124</v>
       </c>
       <c r="F423" s="1">
-        <v>100000</v>
+        <v>0</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>1191</v>
+        <v>1237</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E424" s="1">
+        <v>1360</v>
       </c>
       <c r="F424" s="1">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>1192</v>
+        <v>1234</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E425" s="1">
+        <v>640</v>
       </c>
       <c r="F425" s="1">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>1188</v>
+        <v>1173</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1124</v>
       </c>
       <c r="F426" s="1">
-        <v>50000</v>
+        <v>0</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>1190</v>
+        <v>1174</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1124</v>
       </c>
       <c r="F427" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E428" s="1">
-        <v>980</v>
+        <v>1175</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F428" s="1">
+        <v>0</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E429" s="1">
-        <v>980</v>
+        <v>1176</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F429" s="1">
+        <v>0</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>673</v>
+        <v>1</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1124</v>
       </c>
       <c r="E430" s="1">
-        <v>980</v>
+        <v>500000</v>
+      </c>
+      <c r="F430" s="1">
+        <v>0</v>
+      </c>
+      <c r="G430" t="s">
+        <v>2</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E431" s="1">
-        <v>980</v>
+        <v>1177</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F431" s="1">
+        <v>0</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E432" s="1">
-        <v>980</v>
+        <v>1178</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F432" s="1">
+        <v>0</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E433" s="1">
-        <v>980</v>
+        <v>1179</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>678</v>
+        <v>1264</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1124</v>
       </c>
       <c r="E434" s="1">
-        <v>980</v>
+        <v>500000</v>
+      </c>
+      <c r="F434" s="1">
+        <v>0</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>472</v>
+        <v>1065</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1124</v>
       </c>
       <c r="E435" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>497</v>
+        <v>500000</v>
+      </c>
+      <c r="F435" s="1">
+        <v>0</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1066</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>498</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E436" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>638</v>
+        <v>1180</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F436" s="1">
+        <v>0</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1124</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>639</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1124</v>
       </c>
       <c r="E437" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G437" s="3" t="s">
-        <v>507</v>
+        <v>200</v>
+      </c>
+      <c r="F437" s="1">
+        <v>0</v>
+      </c>
+      <c r="G437" t="s">
+        <v>143</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>508</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E438" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G438" s="3" t="s">
-        <v>585</v>
+        <v>1181</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F438" s="1">
+        <v>0</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1141</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>586</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E439" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G439" s="3" t="s">
-        <v>531</v>
+        <v>1182</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F439" s="1">
+        <v>0</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1133</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>532</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E440" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G440" s="3" t="s">
-        <v>555</v>
+        <v>1202</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F440" s="1">
+        <v>0</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1204</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>556</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E441" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>485</v>
+        <v>1183</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F441" s="1">
+        <v>0</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1143</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>486</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>472</v>
+        <v>1240</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1124</v>
       </c>
       <c r="E442" s="1">
         <v>10000</v>
       </c>
-      <c r="G442" s="3" t="s">
-        <v>670</v>
+      <c r="F442" s="1">
+        <v>0</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1251</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>671</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E443" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>475</v>
+        <v>1184</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F443" s="1">
+        <v>0</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1134</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>476</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E444" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G444" s="3" t="s">
-        <v>605</v>
+        <v>1185</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F444" s="1">
+        <v>0</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1126</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>606</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>776</v>
+        <v>269</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>472</v>
+        <v>1236</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1124</v>
       </c>
       <c r="E445" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G445" s="3" t="s">
-        <v>595</v>
+        <v>680</v>
+      </c>
+      <c r="F445" s="1">
+        <v>0</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1247</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>596</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>724</v>
+        <v>1196</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E446" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G446" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H446" s="3" t="s">
-        <v>570</v>
+        <v>1189</v>
+      </c>
+      <c r="F446" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>725</v>
+        <v>1200</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E447" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G447" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H447" s="3" t="s">
-        <v>572</v>
+        <v>1193</v>
+      </c>
+      <c r="F447" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>729</v>
+        <v>1194</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E448" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G448" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="H448" s="3" t="s">
-        <v>580</v>
+        <v>1187</v>
+      </c>
+      <c r="F448" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>720</v>
+        <v>1198</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E449" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G449" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="H449" s="3" t="s">
-        <v>562</v>
+        <v>1191</v>
+      </c>
+      <c r="F449" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>708</v>
+        <v>1199</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E450" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G450" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H450" s="3" t="s">
-        <v>538</v>
+        <v>1192</v>
+      </c>
+      <c r="F450" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>734</v>
+        <v>1195</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E451" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G451" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="H451" s="3" t="s">
-        <v>590</v>
+        <v>1188</v>
+      </c>
+      <c r="F451" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>776</v>
+        <v>1186</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E452" s="1">
+        <v>1190</v>
+      </c>
+      <c r="F452" s="1">
         <v>10000</v>
-      </c>
-      <c r="G452" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="H452" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>472</v>
+        <v>677</v>
       </c>
       <c r="E453" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G453" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="H453" s="3" t="s">
-        <v>657</v>
+        <v>980</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>723</v>
+        <v>782</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>472</v>
+        <v>676</v>
       </c>
       <c r="E454" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G454" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H454" s="3" t="s">
-        <v>568</v>
+        <v>980</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="E455" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G455" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H455" s="3" t="s">
-        <v>576</v>
+        <v>980</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E456" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G456" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H456" s="3" t="s">
-        <v>598</v>
+        <v>980</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
       <c r="E457" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="H457" s="3" t="s">
-        <v>647</v>
+        <v>980</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E458" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G458" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H458" s="3" t="s">
-        <v>608</v>
+        <v>980</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E459" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G459" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H459" s="3" t="s">
-        <v>494</v>
+        <v>980</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -11350,7 +11836,7 @@
         <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>756</v>
+        <v>690</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>472</v>
@@ -11359,10 +11845,10 @@
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>632</v>
+        <v>497</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>633</v>
+        <v>498</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -11370,7 +11856,7 @@
         <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>706</v>
+        <v>759</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>472</v>
@@ -11379,10 +11865,10 @@
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -11390,7 +11876,7 @@
         <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>472</v>
@@ -11399,10 +11885,10 @@
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -11410,7 +11896,7 @@
         <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>472</v>
@@ -11419,10 +11905,10 @@
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -11430,7 +11916,7 @@
         <v>776</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>472</v>
@@ -11439,10 +11925,10 @@
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -11450,7 +11936,7 @@
         <v>776</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>472</v>
@@ -11459,10 +11945,10 @@
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -11470,7 +11956,7 @@
         <v>776</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>472</v>
@@ -11479,10 +11965,10 @@
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -11490,7 +11976,7 @@
         <v>776</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>472</v>
@@ -11499,10 +11985,10 @@
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -11510,7 +11996,7 @@
         <v>776</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>472</v>
@@ -11519,10 +12005,10 @@
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -11530,7 +12016,7 @@
         <v>776</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>691</v>
+        <v>742</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -11539,10 +12025,10 @@
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>500</v>
+        <v>606</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -11550,7 +12036,7 @@
         <v>776</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>472</v>
@@ -11559,10 +12045,10 @@
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -11570,7 +12056,7 @@
         <v>776</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>472</v>
@@ -11579,10 +12065,10 @@
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -11590,7 +12076,7 @@
         <v>776</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>472</v>
@@ -11599,10 +12085,10 @@
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -11610,7 +12096,7 @@
         <v>776</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>472</v>
@@ -11619,10 +12105,10 @@
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -11630,7 +12116,7 @@
         <v>776</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
@@ -11639,10 +12125,10 @@
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -11650,7 +12136,7 @@
         <v>776</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>472</v>
@@ -11659,10 +12145,10 @@
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>648</v>
+        <v>537</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>649</v>
+        <v>538</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -11670,7 +12156,7 @@
         <v>776</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>472</v>
@@ -11679,10 +12165,10 @@
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,7 +12176,7 @@
         <v>776</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>472</v>
@@ -11699,10 +12185,10 @@
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -11710,7 +12196,7 @@
         <v>776</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>472</v>
@@ -11719,10 +12205,10 @@
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -11730,7 +12216,7 @@
         <v>776</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>472</v>
@@ -11739,10 +12225,10 @@
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>651</v>
+        <v>568</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -11750,7 +12236,7 @@
         <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>472</v>
@@ -11759,10 +12245,10 @@
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -11770,7 +12256,7 @@
         <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>472</v>
@@ -11779,10 +12265,10 @@
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -11790,7 +12276,7 @@
         <v>776</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>472</v>
@@ -11799,10 +12285,10 @@
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>483</v>
+        <v>646</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>484</v>
+        <v>647</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -11810,7 +12296,7 @@
         <v>776</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>472</v>
@@ -11819,10 +12305,10 @@
         <v>10000</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -11830,7 +12316,7 @@
         <v>776</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>472</v>
@@ -11839,10 +12325,10 @@
         <v>10000</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>620</v>
+        <v>493</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -11850,7 +12336,7 @@
         <v>776</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>472</v>
@@ -11859,10 +12345,10 @@
         <v>10000</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>535</v>
+        <v>632</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,7 +12356,7 @@
         <v>776</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>472</v>
@@ -11879,10 +12365,10 @@
         <v>10000</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -11890,7 +12376,7 @@
         <v>776</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>747</v>
+        <v>702</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>472</v>
@@ -11899,10 +12385,10 @@
         <v>10000</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -11910,7 +12396,7 @@
         <v>776</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>694</v>
+        <v>741</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>472</v>
@@ -11919,10 +12405,10 @@
         <v>10000</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -11930,7 +12416,7 @@
         <v>776</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>774</v>
+        <v>692</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>472</v>
@@ -11939,10 +12425,10 @@
         <v>10000</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>668</v>
+        <v>503</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>669</v>
+        <v>504</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -11950,7 +12436,7 @@
         <v>776</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>472</v>
@@ -11959,10 +12445,10 @@
         <v>10000</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -11970,7 +12456,7 @@
         <v>776</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>472</v>
@@ -11979,10 +12465,10 @@
         <v>10000</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>530</v>
+        <v>584</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -11990,7 +12476,7 @@
         <v>776</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>458</v>
+        <v>746</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>472</v>
@@ -11999,10 +12485,10 @@
         <v>10000</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>501</v>
+        <v>613</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>502</v>
+        <v>614</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -12010,7 +12496,7 @@
         <v>776</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>472</v>
@@ -12019,10 +12505,10 @@
         <v>10000</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -12030,7 +12516,7 @@
         <v>776</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>472</v>
@@ -12039,10 +12525,10 @@
         <v>10000</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>609</v>
+        <v>499</v>
       </c>
       <c r="H494" s="3" t="s">
-        <v>610</v>
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -12050,7 +12536,7 @@
         <v>776</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>472</v>
@@ -12059,10 +12545,10 @@
         <v>10000</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>522</v>
+        <v>635</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -12070,7 +12556,7 @@
         <v>776</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>472</v>
@@ -12079,10 +12565,10 @@
         <v>10000</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -12090,7 +12576,7 @@
         <v>776</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>472</v>
@@ -12099,10 +12585,10 @@
         <v>10000</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -12110,7 +12596,7 @@
         <v>776</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>472</v>
@@ -12119,10 +12605,10 @@
         <v>10000</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -12130,7 +12616,7 @@
         <v>776</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>472</v>
@@ -12139,10 +12625,10 @@
         <v>10000</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>664</v>
+        <v>577</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>665</v>
+        <v>578</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -12150,7 +12636,7 @@
         <v>776</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>472</v>
@@ -12159,10 +12645,10 @@
         <v>10000</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -12170,7 +12656,7 @@
         <v>776</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>472</v>
@@ -12179,10 +12665,10 @@
         <v>10000</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>616</v>
+        <v>545</v>
       </c>
       <c r="H501" s="3" t="s">
-        <v>617</v>
+        <v>546</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -12190,7 +12676,7 @@
         <v>776</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>472</v>
@@ -12199,10 +12685,10 @@
         <v>10000</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>496</v>
+        <v>631</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -12210,7 +12696,7 @@
         <v>776</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>472</v>
@@ -12219,10 +12705,10 @@
         <v>10000</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -12230,7 +12716,7 @@
         <v>776</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>472</v>
@@ -12239,10 +12725,10 @@
         <v>10000</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>524</v>
+        <v>651</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -12250,7 +12736,7 @@
         <v>776</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>472</v>
@@ -12259,10 +12745,10 @@
         <v>10000</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -12270,7 +12756,7 @@
         <v>776</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>472</v>
@@ -12279,10 +12765,10 @@
         <v>10000</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>640</v>
+        <v>557</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>641</v>
+        <v>558</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -12290,7 +12776,7 @@
         <v>776</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>472</v>
@@ -12299,10 +12785,10 @@
         <v>10000</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>591</v>
+        <v>483</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>592</v>
+        <v>484</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -12310,7 +12796,7 @@
         <v>776</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>472</v>
@@ -12319,10 +12805,10 @@
         <v>10000</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -12330,7 +12816,7 @@
         <v>776</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>472</v>
@@ -12339,10 +12825,10 @@
         <v>10000</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -12350,7 +12836,7 @@
         <v>776</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>472</v>
@@ -12359,10 +12845,10 @@
         <v>10000</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -12370,7 +12856,7 @@
         <v>776</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>472</v>
@@ -12379,10 +12865,10 @@
         <v>10000</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -12390,7 +12876,7 @@
         <v>776</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>472</v>
@@ -12399,10 +12885,10 @@
         <v>10000</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -12410,7 +12896,7 @@
         <v>776</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>472</v>
@@ -12419,10 +12905,10 @@
         <v>10000</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -12430,7 +12916,7 @@
         <v>776</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>472</v>
@@ -12439,10 +12925,10 @@
         <v>10000</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -12450,7 +12936,7 @@
         <v>776</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>751</v>
+        <v>685</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>472</v>
@@ -12459,10 +12945,10 @@
         <v>10000</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>622</v>
+        <v>487</v>
       </c>
       <c r="H515" s="3" t="s">
-        <v>623</v>
+        <v>488</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -12470,7 +12956,7 @@
         <v>776</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>758</v>
+        <v>704</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>472</v>
@@ -12479,10 +12965,10 @@
         <v>10000</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>637</v>
+        <v>530</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -12490,7 +12976,7 @@
         <v>776</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>472</v>
@@ -12499,10 +12985,10 @@
         <v>10000</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -12510,7 +12996,7 @@
         <v>776</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>472</v>
@@ -12519,10 +13005,10 @@
         <v>10000</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -12530,7 +13016,7 @@
         <v>776</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>66</v>
+        <v>744</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>472</v>
@@ -12539,10 +13025,10 @@
         <v>10000</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>481</v>
+        <v>609</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -12550,7 +13036,7 @@
         <v>776</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>472</v>
@@ -12559,10 +13045,10 @@
         <v>10000</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -12570,7 +13056,7 @@
         <v>776</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>472</v>
@@ -12579,10 +13065,10 @@
         <v>10000</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -12590,7 +13076,7 @@
         <v>776</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>472</v>
@@ -12599,10 +13085,10 @@
         <v>10000</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -12610,7 +13096,7 @@
         <v>776</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>472</v>
@@ -12619,10 +13105,10 @@
         <v>10000</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -12630,7 +13116,7 @@
         <v>776</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>472</v>
@@ -12639,10 +13125,10 @@
         <v>10000</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>489</v>
+        <v>664</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>490</v>
+        <v>665</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -12650,7 +13136,7 @@
         <v>776</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>472</v>
@@ -12659,10 +13145,10 @@
         <v>10000</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -12670,7 +13156,7 @@
         <v>776</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>472</v>
@@ -12679,10 +13165,10 @@
         <v>10000</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>511</v>
+        <v>616</v>
       </c>
       <c r="H526" s="3" t="s">
-        <v>512</v>
+        <v>617</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -12690,7 +13176,7 @@
         <v>776</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>472</v>
@@ -12699,10 +13185,10 @@
         <v>10000</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -12710,7 +13196,7 @@
         <v>776</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>472</v>
@@ -12719,10 +13205,10 @@
         <v>10000</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>543</v>
+        <v>666</v>
       </c>
       <c r="H528" s="3" t="s">
-        <v>544</v>
+        <v>667</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -12730,7 +13216,7 @@
         <v>776</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>472</v>
@@ -12739,10 +13225,10 @@
         <v>10000</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>654</v>
+        <v>523</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -12750,7 +13236,7 @@
         <v>776</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>70</v>
+        <v>697</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>472</v>
@@ -12759,10 +13245,10 @@
         <v>10000</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -12770,7 +13256,7 @@
         <v>776</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>472</v>
@@ -12779,10 +13265,10 @@
         <v>10000</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H531" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -12790,7 +13276,7 @@
         <v>776</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>472</v>
@@ -12799,10 +13285,10 @@
         <v>10000</v>
       </c>
       <c r="G532" s="3" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="H532" s="3" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -12810,7 +13296,7 @@
         <v>776</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>472</v>
@@ -12819,10 +13305,10 @@
         <v>10000</v>
       </c>
       <c r="G533" s="3" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="H533" s="3" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -12830,7 +13316,7 @@
         <v>776</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>472</v>
@@ -12839,796 +13325,1332 @@
         <v>10000</v>
       </c>
       <c r="G534" s="3" t="s">
-        <v>611</v>
+        <v>553</v>
       </c>
       <c r="H534" s="3" t="s">
-        <v>612</v>
+        <v>554</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>451</v>
+        <v>703</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E535" s="1">
-        <v>25000</v>
+        <v>10000</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1317</v>
+        <v>698</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1320</v>
+        <v>472</v>
       </c>
       <c r="E536" s="1">
-        <v>250</v>
-      </c>
-      <c r="F536" s="1">
-        <v>125</v>
+        <v>10000</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1319</v>
+        <v>754</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1323</v>
+        <v>472</v>
       </c>
       <c r="E537" s="1">
-        <v>10000000</v>
+        <v>10000</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>34</v>
+        <v>699</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E538" s="1">
-        <v>500000</v>
+        <v>10000</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>33</v>
+        <v>752</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="E539" s="1">
-        <v>50000</v>
+        <v>10000</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1068</v>
+        <v>751</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1069</v>
+        <v>472</v>
       </c>
       <c r="E540" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="F540" s="1">
-        <v>250000</v>
+        <v>10000</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1318</v>
+        <v>758</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="E541" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F541" s="1">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1072</v>
+        <v>696</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1074</v>
+        <v>472</v>
       </c>
       <c r="E542" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F542" s="1">
-        <v>500</v>
+        <v>10000</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1073</v>
+        <v>715</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1075</v>
+        <v>472</v>
       </c>
       <c r="E543" s="1">
-        <v>400</v>
-      </c>
-      <c r="F543" s="1">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E544" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E545" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E546" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E547" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E548" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E549" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E550" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E551" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E552" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E553" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E554" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E555" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E556" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E557" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E558" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E559" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E544" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E545" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B546" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E546" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E547" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E548" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E549" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E550" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E551" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E552" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E553" s="1">
-        <v>250000</v>
-      </c>
-      <c r="F553" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E554" s="1">
-        <v>500</v>
-      </c>
-      <c r="F554" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E555" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E556" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E557" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E558" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E559" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="B560" s="2" t="s">
-        <v>824</v>
+        <v>451</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1043</v>
+        <v>262</v>
       </c>
       <c r="E560" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F560" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>808</v>
+        <v>1317</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1027</v>
+        <v>1320</v>
       </c>
       <c r="E561" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F561" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>809</v>
+        <v>1319</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1028</v>
+        <v>1323</v>
       </c>
       <c r="E562" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+      <c r="F562" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>810</v>
+        <v>34</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1029</v>
+        <v>41</v>
       </c>
       <c r="E563" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+      <c r="F563" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>811</v>
+        <v>33</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1030</v>
+        <v>40</v>
       </c>
       <c r="E564" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="F564" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>812</v>
+        <v>1068</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1031</v>
+        <v>1069</v>
       </c>
       <c r="E565" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="F565" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>813</v>
+        <v>1318</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1032</v>
+        <v>1322</v>
       </c>
       <c r="E566" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F566" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>814</v>
+        <v>1072</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1033</v>
+        <v>1074</v>
       </c>
       <c r="E567" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F567" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>815</v>
+        <v>1073</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1034</v>
+        <v>1075</v>
       </c>
       <c r="E568" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F568" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>816</v>
+        <v>35</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1035</v>
+        <v>42</v>
       </c>
       <c r="E569" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="F569" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>825</v>
+        <v>38</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1044</v>
+        <v>44</v>
       </c>
       <c r="E570" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="F570" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>826</v>
+        <v>14</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1045</v>
+        <v>20</v>
       </c>
       <c r="E571" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F571" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>827</v>
+        <v>13</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1046</v>
+        <v>19</v>
       </c>
       <c r="E572" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F572" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>828</v>
+        <v>9</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1047</v>
+        <v>17</v>
       </c>
       <c r="E573" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F573" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>829</v>
+        <v>10</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1048</v>
+        <v>16</v>
       </c>
       <c r="E574" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F574" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>830</v>
+        <v>12</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1049</v>
+        <v>18</v>
       </c>
       <c r="E575" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F575" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>831</v>
+        <v>11</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1050</v>
+        <v>15</v>
       </c>
       <c r="E576" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F576" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>817</v>
+        <v>32</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1036</v>
+        <v>39</v>
       </c>
       <c r="E577" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>832</v>
+        <v>1070</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="E578" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="F578" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>833</v>
+        <v>1316</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1052</v>
+        <v>1321</v>
       </c>
       <c r="E579" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="F579" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E580" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="E581" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="E582" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="E583" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="E584" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E585" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
       <c r="E586" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="E587" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="E588" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E589" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E590" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E591" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E592" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E593" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E594" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E595" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E596" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E597" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E598" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E599" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E600" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E601" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E602" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E603" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E604" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E605" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E606" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E607" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E608" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E609" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E610" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E611" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E612" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E613" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H588">
-    <sortCondition ref="A2:A588"/>
-    <sortCondition ref="C2:C588"/>
-    <sortCondition ref="G2:G588"/>
-    <sortCondition ref="D2:D588"/>
-    <sortCondition ref="H2:H588"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H613">
+    <sortCondition ref="A2:A613"/>
+    <sortCondition ref="C2:C613"/>
+    <sortCondition ref="G2:G613"/>
+    <sortCondition ref="D2:D613"/>
+    <sortCondition ref="H2:H613"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
